--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX112"/>
+  <dimension ref="A1:AX113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16745,55 +16745,153 @@
       <c r="A110" s="2" t="n">
         <v>44253</v>
       </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
-      <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
-      <c r="Z110" t="inlineStr"/>
-      <c r="AA110" t="inlineStr"/>
-      <c r="AB110" t="inlineStr"/>
-      <c r="AC110" t="inlineStr"/>
-      <c r="AD110" t="inlineStr"/>
-      <c r="AE110" t="inlineStr"/>
-      <c r="AF110" t="inlineStr"/>
-      <c r="AG110" t="inlineStr"/>
-      <c r="AH110" t="inlineStr"/>
-      <c r="AI110" t="inlineStr"/>
-      <c r="AJ110" t="inlineStr"/>
-      <c r="AK110" t="inlineStr"/>
-      <c r="AL110" t="inlineStr"/>
-      <c r="AM110" t="inlineStr"/>
-      <c r="AN110" t="inlineStr"/>
-      <c r="AO110" t="inlineStr"/>
-      <c r="AP110" t="inlineStr"/>
-      <c r="AQ110" t="inlineStr"/>
-      <c r="AR110" t="inlineStr"/>
-      <c r="AS110" t="inlineStr"/>
-      <c r="AT110" t="inlineStr"/>
-      <c r="AU110" t="inlineStr"/>
-      <c r="AV110" t="inlineStr"/>
-      <c r="AW110" t="inlineStr"/>
-      <c r="AX110" t="inlineStr"/>
+      <c r="B110" t="n">
+        <v>155</v>
+      </c>
+      <c r="C110" t="n">
+        <v>34</v>
+      </c>
+      <c r="D110" t="n">
+        <v>88</v>
+      </c>
+      <c r="E110" t="n">
+        <v>163</v>
+      </c>
+      <c r="F110" t="n">
+        <v>39</v>
+      </c>
+      <c r="G110" t="n">
+        <v>615</v>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>72</v>
+      </c>
+      <c r="K110" t="n">
+        <v>12</v>
+      </c>
+      <c r="L110" t="n">
+        <v>48</v>
+      </c>
+      <c r="M110" t="n">
+        <v>34</v>
+      </c>
+      <c r="N110" t="n">
+        <v>8</v>
+      </c>
+      <c r="O110" t="n">
+        <v>206</v>
+      </c>
+      <c r="P110" t="n">
+        <v>102</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>62</v>
+      </c>
+      <c r="R110" t="n">
+        <v>12</v>
+      </c>
+      <c r="S110" t="n">
+        <v>6</v>
+      </c>
+      <c r="T110" t="n">
+        <v>4</v>
+      </c>
+      <c r="U110" t="n">
+        <v>4</v>
+      </c>
+      <c r="V110" t="n">
+        <v>1</v>
+      </c>
+      <c r="W110" t="n">
+        <v>28</v>
+      </c>
+      <c r="X110" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>73</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>105</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>224</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>47</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>75</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>158</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>2747</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -16903,6 +17001,60 @@
       <c r="AW112" t="inlineStr"/>
       <c r="AX112" t="inlineStr"/>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr"/>
+      <c r="AB113" t="inlineStr"/>
+      <c r="AC113" t="inlineStr"/>
+      <c r="AD113" t="inlineStr"/>
+      <c r="AE113" t="inlineStr"/>
+      <c r="AF113" t="inlineStr"/>
+      <c r="AG113" t="inlineStr"/>
+      <c r="AH113" t="inlineStr"/>
+      <c r="AI113" t="inlineStr"/>
+      <c r="AJ113" t="inlineStr"/>
+      <c r="AK113" t="inlineStr"/>
+      <c r="AL113" t="inlineStr"/>
+      <c r="AM113" t="inlineStr"/>
+      <c r="AN113" t="inlineStr"/>
+      <c r="AO113" t="inlineStr"/>
+      <c r="AP113" t="inlineStr"/>
+      <c r="AQ113" t="inlineStr"/>
+      <c r="AR113" t="inlineStr"/>
+      <c r="AS113" t="inlineStr"/>
+      <c r="AT113" t="inlineStr"/>
+      <c r="AU113" t="inlineStr"/>
+      <c r="AV113" t="inlineStr"/>
+      <c r="AW113" t="inlineStr"/>
+      <c r="AX113" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX113"/>
+  <dimension ref="A1:AX115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13706,22 +13706,22 @@
         <v>44232</v>
       </c>
       <c r="B90" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C90" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D90" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E90" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F90" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G90" t="n">
-        <v>384</v>
+        <v>470</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -13730,34 +13730,34 @@
         <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K90" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L90" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M90" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O90" t="n">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="P90" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q90" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="R90" t="n">
         <v>10</v>
       </c>
       <c r="S90" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T90" t="n">
         <v>7</v>
@@ -13766,22 +13766,22 @@
         <v>0</v>
       </c>
       <c r="V90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W90" t="n">
+        <v>30</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y90" t="n">
         <v>26</v>
       </c>
-      <c r="X90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>23</v>
-      </c>
       <c r="Z90" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AA90" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB90" t="n">
         <v>5</v>
@@ -13790,22 +13790,22 @@
         <v>0</v>
       </c>
       <c r="AD90" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AE90" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF90" t="n">
         <v>3</v>
       </c>
       <c r="AG90" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH90" t="n">
         <v>3</v>
       </c>
       <c r="AI90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ90" t="n">
         <v>6</v>
@@ -13814,10 +13814,10 @@
         <v>0</v>
       </c>
       <c r="AL90" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM90" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN90" t="n">
         <v>1</v>
@@ -13826,31 +13826,31 @@
         <v>3</v>
       </c>
       <c r="AP90" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AQ90" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AR90" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS90" t="n">
         <v>6</v>
       </c>
       <c r="AT90" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AU90" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AV90" t="n">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="AW90" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX90" t="n">
-        <v>1365</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="91">
@@ -13858,52 +13858,52 @@
         <v>44233</v>
       </c>
       <c r="B91" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C91" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D91" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E91" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F91" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G91" t="n">
-        <v>352</v>
+        <v>455</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L91" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M91" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N91" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O91" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="P91" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q91" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="R91" t="n">
         <v>11</v>
@@ -13918,10 +13918,10 @@
         <v>0</v>
       </c>
       <c r="V91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W91" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X91" t="n">
         <v>0</v>
@@ -13930,10 +13930,10 @@
         <v>28</v>
       </c>
       <c r="Z91" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA91" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB91" t="n">
         <v>5</v>
@@ -13942,7 +13942,7 @@
         <v>0</v>
       </c>
       <c r="AD91" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AE91" t="n">
         <v>13</v>
@@ -13951,7 +13951,7 @@
         <v>3</v>
       </c>
       <c r="AG91" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AH91" t="n">
         <v>3</v>
@@ -13960,49 +13960,49 @@
         <v>2</v>
       </c>
       <c r="AJ91" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK91" t="n">
         <v>0</v>
       </c>
       <c r="AL91" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AM91" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN91" t="n">
         <v>1</v>
       </c>
       <c r="AO91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP91" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="AQ91" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AR91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS91" t="n">
         <v>2</v>
       </c>
       <c r="AT91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU91" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV91" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AW91" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX91" t="n">
-        <v>1264</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="92">
@@ -14010,22 +14010,22 @@
         <v>44234</v>
       </c>
       <c r="B92" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C92" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D92" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E92" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F92" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G92" t="n">
-        <v>421</v>
+        <v>453</v>
       </c>
       <c r="H92" t="n">
         <v>1</v>
@@ -14034,31 +14034,31 @@
         <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L92" t="n">
+        <v>33</v>
+      </c>
+      <c r="M92" t="n">
+        <v>7</v>
+      </c>
+      <c r="N92" t="n">
+        <v>14</v>
+      </c>
+      <c r="O92" t="n">
+        <v>127</v>
+      </c>
+      <c r="P92" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q92" t="n">
         <v>30</v>
       </c>
-      <c r="M92" t="n">
-        <v>9</v>
-      </c>
-      <c r="N92" t="n">
-        <v>11</v>
-      </c>
-      <c r="O92" t="n">
-        <v>126</v>
-      </c>
-      <c r="P92" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>28</v>
-      </c>
       <c r="R92" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S92" t="n">
         <v>8</v>
@@ -14067,19 +14067,19 @@
         <v>7</v>
       </c>
       <c r="U92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W92" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="X92" t="n">
         <v>0</v>
       </c>
       <c r="Y92" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z92" t="n">
         <v>51</v>
@@ -14088,28 +14088,28 @@
         <v>13</v>
       </c>
       <c r="AB92" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD92" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AE92" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AF92" t="n">
         <v>2</v>
       </c>
       <c r="AG92" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ92" t="n">
         <v>6</v>
@@ -14118,7 +14118,7 @@
         <v>0</v>
       </c>
       <c r="AL92" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM92" t="n">
         <v>14</v>
@@ -14130,57 +14130,57 @@
         <v>3</v>
       </c>
       <c r="AP92" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="AQ92" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AR92" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS92" t="n">
         <v>2</v>
       </c>
       <c r="AT92" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU92" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AV92" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="AW92" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX92" t="n">
-        <v>1409</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B93" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C93" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D93" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E93" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F93" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G93" t="n">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -14189,31 +14189,31 @@
         <v>29</v>
       </c>
       <c r="K93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L93" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M93" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N93" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O93" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P93" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q93" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R93" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S93" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T93" t="n">
         <v>6</v>
@@ -14222,114 +14222,114 @@
         <v>1</v>
       </c>
       <c r="V93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W93" t="n">
+        <v>22</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>59</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL93" t="n">
         <v>19</v>
       </c>
-      <c r="X93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y93" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z93" t="n">
-        <v>52</v>
-      </c>
-      <c r="AA93" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB93" t="n">
+      <c r="AM93" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>60</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR93" t="n">
         <v>6</v>
       </c>
-      <c r="AC93" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>57</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF93" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG93" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM93" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN93" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO93" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP93" t="n">
-        <v>53</v>
-      </c>
-      <c r="AQ93" t="n">
-        <v>20</v>
-      </c>
-      <c r="AR93" t="n">
-        <v>9</v>
-      </c>
       <c r="AS93" t="n">
         <v>1</v>
       </c>
       <c r="AT93" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU93" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AV93" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AW93" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX93" t="n">
-        <v>1489</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B94" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C94" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D94" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E94" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F94" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G94" t="n">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="H94" t="n">
         <v>2</v>
@@ -14338,31 +14338,31 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L94" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M94" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N94" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O94" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P94" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q94" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="R94" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S94" t="n">
         <v>8</v>
@@ -14371,117 +14371,117 @@
         <v>4</v>
       </c>
       <c r="U94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W94" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X94" t="n">
         <v>0</v>
       </c>
       <c r="Y94" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Z94" t="n">
         <v>44</v>
       </c>
       <c r="AA94" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB94" t="n">
         <v>6</v>
       </c>
       <c r="AC94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD94" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AE94" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG94" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AH94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ94" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL94" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM94" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN94" t="n">
         <v>2</v>
       </c>
       <c r="AO94" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>68</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>25</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>103</v>
+      </c>
+      <c r="AW94" t="n">
         <v>7</v>
       </c>
-      <c r="AP94" t="n">
-        <v>58</v>
-      </c>
-      <c r="AQ94" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR94" t="n">
-        <v>8</v>
-      </c>
-      <c r="AS94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT94" t="n">
-        <v>19</v>
-      </c>
-      <c r="AU94" t="n">
-        <v>28</v>
-      </c>
-      <c r="AV94" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW94" t="n">
-        <v>5</v>
-      </c>
       <c r="AX94" t="n">
-        <v>1464</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B95" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C95" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D95" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E95" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F95" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G95" t="n">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="H95" t="n">
         <v>2</v>
@@ -14490,28 +14490,28 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L95" t="n">
+        <v>22</v>
+      </c>
+      <c r="M95" t="n">
+        <v>13</v>
+      </c>
+      <c r="N95" t="n">
+        <v>11</v>
+      </c>
+      <c r="O95" t="n">
+        <v>102</v>
+      </c>
+      <c r="P95" t="n">
         <v>19</v>
       </c>
-      <c r="M95" t="n">
-        <v>15</v>
-      </c>
-      <c r="N95" t="n">
-        <v>8</v>
-      </c>
-      <c r="O95" t="n">
-        <v>108</v>
-      </c>
-      <c r="P95" t="n">
-        <v>18</v>
-      </c>
       <c r="Q95" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R95" t="n">
         <v>10</v>
@@ -14520,64 +14520,64 @@
         <v>5</v>
       </c>
       <c r="T95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U95" t="n">
         <v>2</v>
       </c>
       <c r="V95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W95" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X95" t="n">
         <v>0</v>
       </c>
       <c r="Y95" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Z95" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AA95" t="n">
         <v>10</v>
       </c>
       <c r="AB95" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE95" t="n">
         <v>8</v>
       </c>
-      <c r="AC95" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD95" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>10</v>
-      </c>
       <c r="AF95" t="n">
         <v>2</v>
       </c>
       <c r="AG95" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM95" t="n">
         <v>20</v>
-      </c>
-      <c r="AH95" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI95" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL95" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM95" t="n">
-        <v>19</v>
       </c>
       <c r="AN95" t="n">
         <v>2</v>
@@ -14586,54 +14586,54 @@
         <v>6</v>
       </c>
       <c r="AP95" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="AQ95" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AR95" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AS95" t="n">
         <v>1</v>
       </c>
       <c r="AT95" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AU95" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AV95" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AW95" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX95" t="n">
-        <v>1432</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B96" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C96" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D96" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E96" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F96" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G96" t="n">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="H96" t="n">
         <v>2</v>
@@ -14642,7 +14642,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K96" t="n">
         <v>2</v>
@@ -14651,25 +14651,25 @@
         <v>19</v>
       </c>
       <c r="M96" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N96" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O96" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="P96" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q96" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R96" t="n">
         <v>9</v>
       </c>
       <c r="S96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T96" t="n">
         <v>2</v>
@@ -14678,10 +14678,10 @@
         <v>2</v>
       </c>
       <c r="V96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W96" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="X96" t="n">
         <v>0</v>
@@ -14690,102 +14690,102 @@
         <v>39</v>
       </c>
       <c r="Z96" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AA96" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB96" t="n">
         <v>5</v>
       </c>
       <c r="AC96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD96" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="AE96" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF96" t="n">
         <v>2</v>
       </c>
       <c r="AG96" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AH96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI96" t="n">
         <v>4</v>
       </c>
       <c r="AJ96" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>66</v>
+      </c>
+      <c r="AQ96" t="n">
         <v>21</v>
       </c>
-      <c r="AK96" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL96" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM96" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN96" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO96" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP96" t="n">
-        <v>52</v>
-      </c>
-      <c r="AQ96" t="n">
-        <v>28</v>
-      </c>
       <c r="AR96" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AS96" t="n">
         <v>0</v>
       </c>
       <c r="AT96" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AU96" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AV96" t="n">
         <v>81</v>
       </c>
       <c r="AW96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX96" t="n">
-        <v>1474</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B97" t="n">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C97" t="n">
         <v>32</v>
       </c>
       <c r="D97" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E97" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F97" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G97" t="n">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="H97" t="n">
         <v>2</v>
@@ -14797,31 +14797,31 @@
         <v>41</v>
       </c>
       <c r="K97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L97" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M97" t="n">
         <v>19</v>
       </c>
       <c r="N97" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O97" t="n">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="P97" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q97" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R97" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S97" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T97" t="n">
         <v>2</v>
@@ -14833,19 +14833,19 @@
         <v>0</v>
       </c>
       <c r="W97" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="X97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y97" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="Z97" t="n">
         <v>30</v>
       </c>
       <c r="AA97" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AB97" t="n">
         <v>5</v>
@@ -14857,22 +14857,22 @@
         <v>75</v>
       </c>
       <c r="AE97" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF97" t="n">
         <v>2</v>
       </c>
       <c r="AG97" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH97" t="n">
         <v>5</v>
       </c>
       <c r="AI97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ97" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AK97" t="n">
         <v>1</v>
@@ -14881,72 +14881,72 @@
         <v>14</v>
       </c>
       <c r="AM97" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>52</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR97" t="n">
         <v>16</v>
       </c>
-      <c r="AN97" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO97" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP97" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ97" t="n">
-        <v>30</v>
-      </c>
-      <c r="AR97" t="n">
-        <v>18</v>
-      </c>
       <c r="AS97" t="n">
         <v>0</v>
       </c>
       <c r="AT97" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AU97" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AV97" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX97" t="n">
-        <v>1517</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B98" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C98" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D98" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E98" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F98" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G98" t="n">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K98" t="n">
         <v>3</v>
@@ -14961,19 +14961,19 @@
         <v>4</v>
       </c>
       <c r="O98" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P98" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q98" t="n">
         <v>31</v>
       </c>
       <c r="R98" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S98" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T98" t="n">
         <v>2</v>
@@ -14991,7 +14991,7 @@
         <v>1</v>
       </c>
       <c r="Y98" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Z98" t="n">
         <v>30</v>
@@ -15006,34 +15006,34 @@
         <v>4</v>
       </c>
       <c r="AD98" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AE98" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF98" t="n">
         <v>2</v>
       </c>
       <c r="AG98" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI98" t="n">
         <v>2</v>
       </c>
       <c r="AJ98" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AK98" t="n">
         <v>1</v>
       </c>
       <c r="AL98" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM98" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AN98" t="n">
         <v>2</v>
@@ -15042,7 +15042,7 @@
         <v>11</v>
       </c>
       <c r="AP98" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AQ98" t="n">
         <v>30</v>
@@ -15054,42 +15054,42 @@
         <v>0</v>
       </c>
       <c r="AT98" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AU98" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV98" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AW98" t="n">
         <v>1</v>
       </c>
       <c r="AX98" t="n">
-        <v>1514</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B99" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C99" t="n">
         <v>31</v>
       </c>
       <c r="D99" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E99" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F99" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G99" t="n">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -15098,7 +15098,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K99" t="n">
         <v>3</v>
@@ -15110,25 +15110,25 @@
         <v>19</v>
       </c>
       <c r="N99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O99" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="P99" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q99" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R99" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S99" t="n">
         <v>9</v>
       </c>
       <c r="T99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U99" t="n">
         <v>2</v>
@@ -15137,46 +15137,46 @@
         <v>0</v>
       </c>
       <c r="W99" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="X99" t="n">
         <v>1</v>
       </c>
       <c r="Y99" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z99" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA99" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC99" t="n">
         <v>4</v>
       </c>
       <c r="AD99" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AE99" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF99" t="n">
         <v>2</v>
       </c>
       <c r="AG99" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ99" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AK99" t="n">
         <v>1</v>
@@ -15188,156 +15188,156 @@
         <v>14</v>
       </c>
       <c r="AN99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO99" t="n">
         <v>11</v>
       </c>
       <c r="AP99" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AQ99" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AR99" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS99" t="n">
         <v>0</v>
       </c>
       <c r="AT99" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AU99" t="n">
         <v>28</v>
       </c>
       <c r="AV99" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AW99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX99" t="n">
-        <v>1527</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B100" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C100" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D100" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E100" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F100" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G100" t="n">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K100" t="n">
+        <v>3</v>
+      </c>
+      <c r="L100" t="n">
+        <v>17</v>
+      </c>
+      <c r="M100" t="n">
+        <v>19</v>
+      </c>
+      <c r="N100" t="n">
         <v>5</v>
       </c>
-      <c r="L100" t="n">
-        <v>12</v>
-      </c>
-      <c r="M100" t="n">
-        <v>15</v>
-      </c>
-      <c r="N100" t="n">
-        <v>3</v>
-      </c>
       <c r="O100" t="n">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="P100" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>26</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>9</v>
+      </c>
+      <c r="T100" t="n">
+        <v>3</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="n">
+        <v>25</v>
+      </c>
+      <c r="X100" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z100" t="n">
         <v>29</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>20</v>
-      </c>
-      <c r="R100" t="n">
-        <v>3</v>
-      </c>
-      <c r="S100" t="n">
-        <v>6</v>
-      </c>
-      <c r="T100" t="n">
-        <v>3</v>
-      </c>
-      <c r="U100" t="n">
-        <v>3</v>
-      </c>
-      <c r="V100" t="n">
-        <v>0</v>
-      </c>
-      <c r="W100" t="n">
-        <v>31</v>
-      </c>
-      <c r="X100" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y100" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z100" t="n">
-        <v>32</v>
       </c>
       <c r="AA100" t="n">
         <v>15</v>
       </c>
       <c r="AB100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD100" t="n">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="AE100" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG100" t="n">
         <v>10</v>
       </c>
-      <c r="AF100" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG100" t="n">
-        <v>9</v>
-      </c>
       <c r="AH100" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI100" t="n">
         <v>1</v>
       </c>
       <c r="AJ100" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK100" t="n">
         <v>1</v>
       </c>
       <c r="AL100" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM100" t="n">
         <v>14</v>
-      </c>
-      <c r="AM100" t="n">
-        <v>11</v>
       </c>
       <c r="AN100" t="n">
         <v>3</v>
@@ -15346,54 +15346,54 @@
         <v>11</v>
       </c>
       <c r="AP100" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AQ100" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AR100" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AS100" t="n">
         <v>0</v>
       </c>
       <c r="AT100" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AU100" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AV100" t="n">
         <v>71</v>
       </c>
       <c r="AW100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX100" t="n">
-        <v>1571</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B101" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C101" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D101" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E101" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F101" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G101" t="n">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -15402,106 +15402,106 @@
         <v>4</v>
       </c>
       <c r="J101" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K101" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L101" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M101" t="n">
         <v>15</v>
       </c>
       <c r="N101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O101" t="n">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="P101" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="Q101" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R101" t="n">
         <v>3</v>
       </c>
       <c r="S101" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V101" t="n">
         <v>0</v>
       </c>
       <c r="W101" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X101" t="n">
         <v>1</v>
       </c>
       <c r="Y101" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z101" t="n">
         <v>32</v>
       </c>
-      <c r="Z101" t="n">
+      <c r="AA101" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>98</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ101" t="n">
         <v>34</v>
       </c>
-      <c r="AA101" t="n">
+      <c r="AK101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL101" t="n">
         <v>14</v>
       </c>
-      <c r="AB101" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC101" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD101" t="n">
-        <v>93</v>
-      </c>
-      <c r="AE101" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF101" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG101" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH101" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ101" t="n">
-        <v>37</v>
-      </c>
-      <c r="AK101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL101" t="n">
-        <v>13</v>
-      </c>
       <c r="AM101" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN101" t="n">
         <v>3</v>
       </c>
       <c r="AO101" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AP101" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AQ101" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="AR101" t="n">
         <v>15</v>
@@ -15510,120 +15510,120 @@
         <v>0</v>
       </c>
       <c r="AT101" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AU101" t="n">
         <v>33</v>
       </c>
       <c r="AV101" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AW101" t="n">
         <v>4</v>
       </c>
       <c r="AX101" t="n">
-        <v>1596</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B102" t="n">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C102" t="n">
+        <v>40</v>
+      </c>
+      <c r="D102" t="n">
         <v>39</v>
       </c>
-      <c r="D102" t="n">
-        <v>47</v>
-      </c>
       <c r="E102" t="n">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F102" t="n">
+        <v>38</v>
+      </c>
+      <c r="G102" t="n">
+        <v>373</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>4</v>
+      </c>
+      <c r="J102" t="n">
+        <v>41</v>
+      </c>
+      <c r="K102" t="n">
+        <v>7</v>
+      </c>
+      <c r="L102" t="n">
+        <v>10</v>
+      </c>
+      <c r="M102" t="n">
+        <v>15</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+      <c r="O102" t="n">
+        <v>126</v>
+      </c>
+      <c r="P102" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>28</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>7</v>
+      </c>
+      <c r="T102" t="n">
+        <v>4</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="n">
+        <v>29</v>
+      </c>
+      <c r="X102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z102" t="n">
         <v>34</v>
       </c>
-      <c r="G102" t="n">
-        <v>397</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>6</v>
-      </c>
-      <c r="J102" t="n">
-        <v>42</v>
-      </c>
-      <c r="K102" t="n">
-        <v>11</v>
-      </c>
-      <c r="L102" t="n">
+      <c r="AA102" t="n">
         <v>14</v>
       </c>
-      <c r="M102" t="n">
-        <v>16</v>
-      </c>
-      <c r="N102" t="n">
-        <v>5</v>
-      </c>
-      <c r="O102" t="n">
-        <v>132</v>
-      </c>
-      <c r="P102" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>24</v>
-      </c>
-      <c r="R102" t="n">
-        <v>3</v>
-      </c>
-      <c r="S102" t="n">
+      <c r="AB102" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>93</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG102" t="n">
         <v>8</v>
-      </c>
-      <c r="T102" t="n">
-        <v>7</v>
-      </c>
-      <c r="U102" t="n">
-        <v>2</v>
-      </c>
-      <c r="V102" t="n">
-        <v>0</v>
-      </c>
-      <c r="W102" t="n">
-        <v>27</v>
-      </c>
-      <c r="X102" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y102" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z102" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA102" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB102" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC102" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD102" t="n">
-        <v>86</v>
-      </c>
-      <c r="AE102" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF102" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG102" t="n">
-        <v>7</v>
       </c>
       <c r="AH102" t="n">
         <v>7</v>
@@ -15632,72 +15632,72 @@
         <v>0</v>
       </c>
       <c r="AJ102" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AK102" t="n">
         <v>0</v>
       </c>
       <c r="AL102" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM102" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AN102" t="n">
         <v>3</v>
       </c>
       <c r="AO102" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP102" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AQ102" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="AR102" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS102" t="n">
         <v>0</v>
       </c>
       <c r="AT102" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AU102" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AV102" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AW102" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX102" t="n">
-        <v>1662</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B103" t="n">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C103" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D103" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E103" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F103" t="n">
         <v>34</v>
       </c>
       <c r="G103" t="n">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -15706,34 +15706,34 @@
         <v>6</v>
       </c>
       <c r="J103" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K103" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L103" t="n">
         <v>14</v>
       </c>
       <c r="M103" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N103" t="n">
         <v>5</v>
       </c>
       <c r="O103" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P103" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q103" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R103" t="n">
         <v>3</v>
       </c>
       <c r="S103" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -15745,19 +15745,19 @@
         <v>0</v>
       </c>
       <c r="W103" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X103" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y103" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Z103" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA103" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB103" t="n">
         <v>2</v>
@@ -15766,31 +15766,31 @@
         <v>4</v>
       </c>
       <c r="AD103" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AE103" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AF103" t="n">
         <v>1</v>
       </c>
       <c r="AG103" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH103" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI103" t="n">
         <v>0</v>
       </c>
       <c r="AJ103" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK103" t="n">
         <v>0</v>
       </c>
       <c r="AL103" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AM103" t="n">
         <v>14</v>
@@ -15799,93 +15799,93 @@
         <v>3</v>
       </c>
       <c r="AO103" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP103" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AQ103" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AR103" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS103" t="n">
         <v>0</v>
       </c>
       <c r="AT103" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AU103" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AV103" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AW103" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX103" t="n">
-        <v>1702</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B104" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C104" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D104" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E104" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F104" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G104" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J104" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K104" t="n">
         <v>10</v>
       </c>
       <c r="L104" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M104" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N104" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O104" t="n">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="P104" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q104" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R104" t="n">
         <v>3</v>
       </c>
       <c r="S104" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
@@ -15894,55 +15894,55 @@
         <v>2</v>
       </c>
       <c r="V104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W104" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X104" t="n">
         <v>4</v>
       </c>
       <c r="Y104" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z104" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA104" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AB104" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC104" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD104" t="n">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AE104" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG104" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH104" t="n">
         <v>9</v>
       </c>
-      <c r="AH104" t="n">
-        <v>10</v>
-      </c>
       <c r="AI104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ104" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AK104" t="n">
         <v>0</v>
       </c>
       <c r="AL104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM104" t="n">
         <v>14</v>
@@ -15951,57 +15951,57 @@
         <v>3</v>
       </c>
       <c r="AO104" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP104" t="n">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="AQ104" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AR104" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT104" t="n">
         <v>50</v>
       </c>
       <c r="AU104" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AV104" t="n">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="AW104" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX104" t="n">
-        <v>1835</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B105" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C105" t="n">
         <v>36</v>
       </c>
       <c r="D105" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E105" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F105" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G105" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -16010,34 +16010,34 @@
         <v>7</v>
       </c>
       <c r="J105" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K105" t="n">
         <v>10</v>
       </c>
       <c r="L105" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M105" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N105" t="n">
         <v>9</v>
       </c>
       <c r="O105" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P105" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q105" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S105" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -16049,13 +16049,13 @@
         <v>1</v>
       </c>
       <c r="W105" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X105" t="n">
         <v>4</v>
       </c>
       <c r="Y105" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Z105" t="n">
         <v>26</v>
@@ -16070,7 +16070,7 @@
         <v>5</v>
       </c>
       <c r="AD105" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AE105" t="n">
         <v>14</v>
@@ -16082,19 +16082,19 @@
         <v>9</v>
       </c>
       <c r="AH105" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI105" t="n">
         <v>1</v>
       </c>
       <c r="AJ105" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK105" t="n">
         <v>0</v>
       </c>
       <c r="AL105" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM105" t="n">
         <v>14</v>
@@ -16103,57 +16103,57 @@
         <v>3</v>
       </c>
       <c r="AO105" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP105" t="n">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="AQ105" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AR105" t="n">
         <v>14</v>
       </c>
       <c r="AS105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT105" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AU105" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AV105" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AW105" t="n">
         <v>10</v>
       </c>
       <c r="AX105" t="n">
-        <v>1867</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B106" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C106" t="n">
+        <v>36</v>
+      </c>
+      <c r="D106" t="n">
+        <v>61</v>
+      </c>
+      <c r="E106" t="n">
+        <v>99</v>
+      </c>
+      <c r="F106" t="n">
         <v>34</v>
       </c>
-      <c r="D106" t="n">
-        <v>69</v>
-      </c>
-      <c r="E106" t="n">
-        <v>107</v>
-      </c>
-      <c r="F106" t="n">
-        <v>42</v>
-      </c>
       <c r="G106" t="n">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -16162,79 +16162,79 @@
         <v>7</v>
       </c>
       <c r="J106" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K106" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L106" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M106" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N106" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O106" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P106" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q106" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="R106" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S106" t="n">
         <v>7</v>
       </c>
       <c r="T106" t="n">
+        <v>7</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2</v>
+      </c>
+      <c r="V106" t="n">
+        <v>1</v>
+      </c>
+      <c r="W106" t="n">
+        <v>22</v>
+      </c>
+      <c r="X106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA106" t="n">
         <v>6</v>
       </c>
-      <c r="U106" t="n">
-        <v>2</v>
-      </c>
-      <c r="V106" t="n">
-        <v>1</v>
-      </c>
-      <c r="W106" t="n">
-        <v>17</v>
-      </c>
-      <c r="X106" t="n">
+      <c r="AB106" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC106" t="n">
         <v>5</v>
       </c>
-      <c r="Y106" t="n">
-        <v>58</v>
-      </c>
-      <c r="Z106" t="n">
-        <v>31</v>
-      </c>
-      <c r="AA106" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB106" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC106" t="n">
-        <v>4</v>
-      </c>
       <c r="AD106" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AE106" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG106" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AH106" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI106" t="n">
         <v>1</v>
@@ -16246,22 +16246,22 @@
         <v>0</v>
       </c>
       <c r="AL106" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM106" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AN106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO106" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP106" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AQ106" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AR106" t="n">
         <v>14</v>
@@ -16270,57 +16270,57 @@
         <v>2</v>
       </c>
       <c r="AT106" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AU106" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AV106" t="n">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="AW106" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX106" t="n">
-        <v>2013</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B107" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C107" t="n">
         <v>34</v>
       </c>
       <c r="D107" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E107" t="n">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F107" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G107" t="n">
-        <v>504</v>
+        <v>438</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J107" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K107" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L107" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M107" t="n">
         <v>21</v>
@@ -16329,43 +16329,43 @@
         <v>8</v>
       </c>
       <c r="O107" t="n">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="P107" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="Q107" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="R107" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S107" t="n">
         <v>7</v>
       </c>
       <c r="T107" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V107" t="n">
         <v>1</v>
       </c>
       <c r="W107" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X107" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y107" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Z107" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA107" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB107" t="n">
         <v>4</v>
@@ -16374,10 +16374,10 @@
         <v>4</v>
       </c>
       <c r="AD107" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AE107" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF107" t="n">
         <v>4</v>
@@ -16386,34 +16386,34 @@
         <v>12</v>
       </c>
       <c r="AH107" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI107" t="n">
         <v>1</v>
       </c>
       <c r="AJ107" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK107" t="n">
         <v>0</v>
       </c>
       <c r="AL107" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM107" t="n">
         <v>18</v>
       </c>
-      <c r="AM107" t="n">
-        <v>20</v>
-      </c>
       <c r="AN107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO107" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AP107" t="n">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="AQ107" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AR107" t="n">
         <v>14</v>
@@ -16422,72 +16422,72 @@
         <v>2</v>
       </c>
       <c r="AT107" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AU107" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AV107" t="n">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AW107" t="n">
         <v>8</v>
       </c>
       <c r="AX107" t="n">
-        <v>2202</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B108" t="n">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C108" t="n">
         <v>34</v>
       </c>
       <c r="D108" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E108" t="n">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="F108" t="n">
         <v>44</v>
       </c>
       <c r="G108" t="n">
-        <v>550</v>
+        <v>504</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J108" t="n">
+        <v>63</v>
+      </c>
+      <c r="K108" t="n">
+        <v>12</v>
+      </c>
+      <c r="L108" t="n">
+        <v>36</v>
+      </c>
+      <c r="M108" t="n">
+        <v>21</v>
+      </c>
+      <c r="N108" t="n">
+        <v>8</v>
+      </c>
+      <c r="O108" t="n">
+        <v>180</v>
+      </c>
+      <c r="P108" t="n">
         <v>66</v>
       </c>
-      <c r="K108" t="n">
-        <v>10</v>
-      </c>
-      <c r="L108" t="n">
-        <v>39</v>
-      </c>
-      <c r="M108" t="n">
-        <v>25</v>
-      </c>
-      <c r="N108" t="n">
-        <v>9</v>
-      </c>
-      <c r="O108" t="n">
-        <v>181</v>
-      </c>
-      <c r="P108" t="n">
-        <v>72</v>
-      </c>
       <c r="Q108" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R108" t="n">
         <v>9</v>
@@ -16496,7 +16496,7 @@
         <v>7</v>
       </c>
       <c r="T108" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U108" t="n">
         <v>1</v>
@@ -16505,19 +16505,19 @@
         <v>1</v>
       </c>
       <c r="W108" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X108" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Y108" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="Z108" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA108" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB108" t="n">
         <v>4</v>
@@ -16526,130 +16526,130 @@
         <v>4</v>
       </c>
       <c r="AD108" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE108" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AF108" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG108" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO108" t="n">
         <v>16</v>
       </c>
-      <c r="AH108" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI108" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ108" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL108" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM108" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN108" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO108" t="n">
-        <v>21</v>
-      </c>
       <c r="AP108" t="n">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="AQ108" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AR108" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AS108" t="n">
         <v>2</v>
       </c>
       <c r="AT108" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AU108" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AV108" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AW108" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX108" t="n">
-        <v>2438</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B109" t="n">
         <v>142</v>
       </c>
       <c r="C109" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D109" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E109" t="n">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F109" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G109" t="n">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="H109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I109" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J109" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K109" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L109" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M109" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N109" t="n">
+        <v>9</v>
+      </c>
+      <c r="O109" t="n">
+        <v>181</v>
+      </c>
+      <c r="P109" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>50</v>
+      </c>
+      <c r="R109" t="n">
+        <v>9</v>
+      </c>
+      <c r="S109" t="n">
+        <v>7</v>
+      </c>
+      <c r="T109" t="n">
         <v>6</v>
       </c>
-      <c r="O109" t="n">
-        <v>184</v>
-      </c>
-      <c r="P109" t="n">
-        <v>78</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>61</v>
-      </c>
-      <c r="R109" t="n">
-        <v>12</v>
-      </c>
-      <c r="S109" t="n">
-        <v>8</v>
-      </c>
-      <c r="T109" t="n">
-        <v>1</v>
-      </c>
       <c r="U109" t="n">
         <v>1</v>
       </c>
@@ -16657,7 +16657,7 @@
         <v>1</v>
       </c>
       <c r="W109" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X109" t="n">
         <v>13</v>
@@ -16666,34 +16666,34 @@
         <v>78</v>
       </c>
       <c r="Z109" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA109" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC109" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD109" t="n">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AE109" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AF109" t="n">
         <v>5</v>
       </c>
       <c r="AG109" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AH109" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AI109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ109" t="n">
         <v>22</v>
@@ -16702,177 +16702,177 @@
         <v>0</v>
       </c>
       <c r="AL109" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM109" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AN109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO109" t="n">
         <v>21</v>
       </c>
       <c r="AP109" t="n">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="AQ109" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AR109" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AS109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT109" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AU109" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AV109" t="n">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AW109" t="n">
         <v>9</v>
       </c>
       <c r="AX109" t="n">
-        <v>2545</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B110" t="n">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C110" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D110" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E110" t="n">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F110" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G110" t="n">
-        <v>615</v>
+        <v>567</v>
       </c>
       <c r="H110" t="n">
+        <v>4</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>68</v>
+      </c>
+      <c r="K110" t="n">
         <v>8</v>
       </c>
-      <c r="I110" t="n">
-        <v>2</v>
-      </c>
-      <c r="J110" t="n">
-        <v>72</v>
-      </c>
-      <c r="K110" t="n">
-        <v>12</v>
-      </c>
       <c r="L110" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M110" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N110" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O110" t="n">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="P110" t="n">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="Q110" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R110" t="n">
         <v>12</v>
       </c>
       <c r="S110" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T110" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U110" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V110" t="n">
         <v>1</v>
       </c>
       <c r="W110" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X110" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y110" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Z110" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AA110" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB110" t="n">
         <v>3</v>
       </c>
       <c r="AC110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD110" t="n">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="AE110" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AF110" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG110" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AH110" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI110" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ110" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM110" t="n">
         <v>20</v>
       </c>
-      <c r="AK110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL110" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM110" t="n">
-        <v>24</v>
-      </c>
       <c r="AN110" t="n">
         <v>2</v>
       </c>
       <c r="AO110" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP110" t="n">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AQ110" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AR110" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS110" t="n">
         <v>3</v>
@@ -16881,129 +16881,325 @@
         <v>47</v>
       </c>
       <c r="AU110" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AV110" t="n">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="AW110" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AX110" t="n">
-        <v>2747</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44254</v>
-      </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
-      <c r="Z111" t="inlineStr"/>
-      <c r="AA111" t="inlineStr"/>
-      <c r="AB111" t="inlineStr"/>
-      <c r="AC111" t="inlineStr"/>
-      <c r="AD111" t="inlineStr"/>
-      <c r="AE111" t="inlineStr"/>
-      <c r="AF111" t="inlineStr"/>
-      <c r="AG111" t="inlineStr"/>
-      <c r="AH111" t="inlineStr"/>
-      <c r="AI111" t="inlineStr"/>
-      <c r="AJ111" t="inlineStr"/>
-      <c r="AK111" t="inlineStr"/>
-      <c r="AL111" t="inlineStr"/>
-      <c r="AM111" t="inlineStr"/>
-      <c r="AN111" t="inlineStr"/>
-      <c r="AO111" t="inlineStr"/>
-      <c r="AP111" t="inlineStr"/>
-      <c r="AQ111" t="inlineStr"/>
-      <c r="AR111" t="inlineStr"/>
-      <c r="AS111" t="inlineStr"/>
-      <c r="AT111" t="inlineStr"/>
-      <c r="AU111" t="inlineStr"/>
-      <c r="AV111" t="inlineStr"/>
-      <c r="AW111" t="inlineStr"/>
-      <c r="AX111" t="inlineStr"/>
+        <v>44253</v>
+      </c>
+      <c r="B111" t="n">
+        <v>155</v>
+      </c>
+      <c r="C111" t="n">
+        <v>34</v>
+      </c>
+      <c r="D111" t="n">
+        <v>88</v>
+      </c>
+      <c r="E111" t="n">
+        <v>163</v>
+      </c>
+      <c r="F111" t="n">
+        <v>39</v>
+      </c>
+      <c r="G111" t="n">
+        <v>615</v>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2</v>
+      </c>
+      <c r="J111" t="n">
+        <v>72</v>
+      </c>
+      <c r="K111" t="n">
+        <v>12</v>
+      </c>
+      <c r="L111" t="n">
+        <v>48</v>
+      </c>
+      <c r="M111" t="n">
+        <v>34</v>
+      </c>
+      <c r="N111" t="n">
+        <v>8</v>
+      </c>
+      <c r="O111" t="n">
+        <v>206</v>
+      </c>
+      <c r="P111" t="n">
+        <v>102</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>62</v>
+      </c>
+      <c r="R111" t="n">
+        <v>12</v>
+      </c>
+      <c r="S111" t="n">
+        <v>6</v>
+      </c>
+      <c r="T111" t="n">
+        <v>4</v>
+      </c>
+      <c r="U111" t="n">
+        <v>4</v>
+      </c>
+      <c r="V111" t="n">
+        <v>1</v>
+      </c>
+      <c r="W111" t="n">
+        <v>28</v>
+      </c>
+      <c r="X111" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>73</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>105</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>224</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>47</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>75</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>158</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>2747</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44255</v>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
-      <c r="Z112" t="inlineStr"/>
-      <c r="AA112" t="inlineStr"/>
-      <c r="AB112" t="inlineStr"/>
-      <c r="AC112" t="inlineStr"/>
-      <c r="AD112" t="inlineStr"/>
-      <c r="AE112" t="inlineStr"/>
-      <c r="AF112" t="inlineStr"/>
-      <c r="AG112" t="inlineStr"/>
-      <c r="AH112" t="inlineStr"/>
-      <c r="AI112" t="inlineStr"/>
-      <c r="AJ112" t="inlineStr"/>
-      <c r="AK112" t="inlineStr"/>
-      <c r="AL112" t="inlineStr"/>
-      <c r="AM112" t="inlineStr"/>
-      <c r="AN112" t="inlineStr"/>
-      <c r="AO112" t="inlineStr"/>
-      <c r="AP112" t="inlineStr"/>
-      <c r="AQ112" t="inlineStr"/>
-      <c r="AR112" t="inlineStr"/>
-      <c r="AS112" t="inlineStr"/>
-      <c r="AT112" t="inlineStr"/>
-      <c r="AU112" t="inlineStr"/>
-      <c r="AV112" t="inlineStr"/>
-      <c r="AW112" t="inlineStr"/>
-      <c r="AX112" t="inlineStr"/>
+        <v>44254</v>
+      </c>
+      <c r="B112" t="n">
+        <v>159</v>
+      </c>
+      <c r="C112" t="n">
+        <v>31</v>
+      </c>
+      <c r="D112" t="n">
+        <v>81</v>
+      </c>
+      <c r="E112" t="n">
+        <v>165</v>
+      </c>
+      <c r="F112" t="n">
+        <v>38</v>
+      </c>
+      <c r="G112" t="n">
+        <v>623</v>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>70</v>
+      </c>
+      <c r="K112" t="n">
+        <v>12</v>
+      </c>
+      <c r="L112" t="n">
+        <v>50</v>
+      </c>
+      <c r="M112" t="n">
+        <v>29</v>
+      </c>
+      <c r="N112" t="n">
+        <v>10</v>
+      </c>
+      <c r="O112" t="n">
+        <v>191</v>
+      </c>
+      <c r="P112" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>63</v>
+      </c>
+      <c r="R112" t="n">
+        <v>14</v>
+      </c>
+      <c r="S112" t="n">
+        <v>6</v>
+      </c>
+      <c r="T112" t="n">
+        <v>5</v>
+      </c>
+      <c r="U112" t="n">
+        <v>4</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="n">
+        <v>29</v>
+      </c>
+      <c r="X112" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>76</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>97</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>31</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>31</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>224</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>43</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>77</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>152</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>2730</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
@@ -17055,6 +17251,114 @@
       <c r="AW113" t="inlineStr"/>
       <c r="AX113" t="inlineStr"/>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr"/>
+      <c r="AB114" t="inlineStr"/>
+      <c r="AC114" t="inlineStr"/>
+      <c r="AD114" t="inlineStr"/>
+      <c r="AE114" t="inlineStr"/>
+      <c r="AF114" t="inlineStr"/>
+      <c r="AG114" t="inlineStr"/>
+      <c r="AH114" t="inlineStr"/>
+      <c r="AI114" t="inlineStr"/>
+      <c r="AJ114" t="inlineStr"/>
+      <c r="AK114" t="inlineStr"/>
+      <c r="AL114" t="inlineStr"/>
+      <c r="AM114" t="inlineStr"/>
+      <c r="AN114" t="inlineStr"/>
+      <c r="AO114" t="inlineStr"/>
+      <c r="AP114" t="inlineStr"/>
+      <c r="AQ114" t="inlineStr"/>
+      <c r="AR114" t="inlineStr"/>
+      <c r="AS114" t="inlineStr"/>
+      <c r="AT114" t="inlineStr"/>
+      <c r="AU114" t="inlineStr"/>
+      <c r="AV114" t="inlineStr"/>
+      <c r="AW114" t="inlineStr"/>
+      <c r="AX114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>44257</v>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr"/>
+      <c r="AB115" t="inlineStr"/>
+      <c r="AC115" t="inlineStr"/>
+      <c r="AD115" t="inlineStr"/>
+      <c r="AE115" t="inlineStr"/>
+      <c r="AF115" t="inlineStr"/>
+      <c r="AG115" t="inlineStr"/>
+      <c r="AH115" t="inlineStr"/>
+      <c r="AI115" t="inlineStr"/>
+      <c r="AJ115" t="inlineStr"/>
+      <c r="AK115" t="inlineStr"/>
+      <c r="AL115" t="inlineStr"/>
+      <c r="AM115" t="inlineStr"/>
+      <c r="AN115" t="inlineStr"/>
+      <c r="AO115" t="inlineStr"/>
+      <c r="AP115" t="inlineStr"/>
+      <c r="AQ115" t="inlineStr"/>
+      <c r="AR115" t="inlineStr"/>
+      <c r="AS115" t="inlineStr"/>
+      <c r="AT115" t="inlineStr"/>
+      <c r="AU115" t="inlineStr"/>
+      <c r="AV115" t="inlineStr"/>
+      <c r="AW115" t="inlineStr"/>
+      <c r="AX115" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX184"/>
+  <dimension ref="A1:AX185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27847,6 +27847,158 @@
         <v>0</v>
       </c>
     </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B185" t="n">
+        <v>12</v>
+      </c>
+      <c r="C185" t="n">
+        <v>49</v>
+      </c>
+      <c r="D185" t="n">
+        <v>31</v>
+      </c>
+      <c r="E185" t="n">
+        <v>10</v>
+      </c>
+      <c r="F185" t="n">
+        <v>200</v>
+      </c>
+      <c r="G185" t="n">
+        <v>166</v>
+      </c>
+      <c r="H185" t="n">
+        <v>96</v>
+      </c>
+      <c r="I185" t="n">
+        <v>58</v>
+      </c>
+      <c r="J185" t="n">
+        <v>15</v>
+      </c>
+      <c r="K185" t="n">
+        <v>6</v>
+      </c>
+      <c r="L185" t="n">
+        <v>5</v>
+      </c>
+      <c r="M185" t="n">
+        <v>37</v>
+      </c>
+      <c r="N185" t="n">
+        <v>91</v>
+      </c>
+      <c r="O185" t="n">
+        <v>4</v>
+      </c>
+      <c r="P185" t="n">
+        <v>196</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>3</v>
+      </c>
+      <c r="R185" t="n">
+        <v>28</v>
+      </c>
+      <c r="S185" t="n">
+        <v>16</v>
+      </c>
+      <c r="T185" t="n">
+        <v>77</v>
+      </c>
+      <c r="U185" t="n">
+        <v>39</v>
+      </c>
+      <c r="V185" t="n">
+        <v>9</v>
+      </c>
+      <c r="W185" t="n">
+        <v>34</v>
+      </c>
+      <c r="X185" t="n">
+        <v>671</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>97</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>77</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>79</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>85</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>2923</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX185"/>
+  <dimension ref="A1:AX186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27999,6 +27999,158 @@
         <v>1</v>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>44260</v>
+      </c>
+      <c r="B186" t="n">
+        <v>10</v>
+      </c>
+      <c r="C186" t="n">
+        <v>57</v>
+      </c>
+      <c r="D186" t="n">
+        <v>37</v>
+      </c>
+      <c r="E186" t="n">
+        <v>11</v>
+      </c>
+      <c r="F186" t="n">
+        <v>202</v>
+      </c>
+      <c r="G186" t="n">
+        <v>184</v>
+      </c>
+      <c r="H186" t="n">
+        <v>102</v>
+      </c>
+      <c r="I186" t="n">
+        <v>73</v>
+      </c>
+      <c r="J186" t="n">
+        <v>12</v>
+      </c>
+      <c r="K186" t="n">
+        <v>8</v>
+      </c>
+      <c r="L186" t="n">
+        <v>4</v>
+      </c>
+      <c r="M186" t="n">
+        <v>36</v>
+      </c>
+      <c r="N186" t="n">
+        <v>101</v>
+      </c>
+      <c r="O186" t="n">
+        <v>6</v>
+      </c>
+      <c r="P186" t="n">
+        <v>211</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>7</v>
+      </c>
+      <c r="R186" t="n">
+        <v>20</v>
+      </c>
+      <c r="S186" t="n">
+        <v>18</v>
+      </c>
+      <c r="T186" t="n">
+        <v>83</v>
+      </c>
+      <c r="U186" t="n">
+        <v>48</v>
+      </c>
+      <c r="V186" t="n">
+        <v>14</v>
+      </c>
+      <c r="W186" t="n">
+        <v>31</v>
+      </c>
+      <c r="X186" t="n">
+        <v>694</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>92</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>39</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>248</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>88</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>39</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>102</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>168</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>84</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>3109</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX186"/>
+  <dimension ref="A1:AX187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28151,6 +28151,158 @@
         <v>1</v>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>44261</v>
+      </c>
+      <c r="B187" t="n">
+        <v>15</v>
+      </c>
+      <c r="C187" t="n">
+        <v>53</v>
+      </c>
+      <c r="D187" t="n">
+        <v>44</v>
+      </c>
+      <c r="E187" t="n">
+        <v>12</v>
+      </c>
+      <c r="F187" t="n">
+        <v>215</v>
+      </c>
+      <c r="G187" t="n">
+        <v>182</v>
+      </c>
+      <c r="H187" t="n">
+        <v>110</v>
+      </c>
+      <c r="I187" t="n">
+        <v>76</v>
+      </c>
+      <c r="J187" t="n">
+        <v>12</v>
+      </c>
+      <c r="K187" t="n">
+        <v>8</v>
+      </c>
+      <c r="L187" t="n">
+        <v>5</v>
+      </c>
+      <c r="M187" t="n">
+        <v>39</v>
+      </c>
+      <c r="N187" t="n">
+        <v>106</v>
+      </c>
+      <c r="O187" t="n">
+        <v>6</v>
+      </c>
+      <c r="P187" t="n">
+        <v>209</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>8</v>
+      </c>
+      <c r="R187" t="n">
+        <v>21</v>
+      </c>
+      <c r="S187" t="n">
+        <v>15</v>
+      </c>
+      <c r="T187" t="n">
+        <v>90</v>
+      </c>
+      <c r="U187" t="n">
+        <v>50</v>
+      </c>
+      <c r="V187" t="n">
+        <v>13</v>
+      </c>
+      <c r="W187" t="n">
+        <v>32</v>
+      </c>
+      <c r="X187" t="n">
+        <v>724</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>94</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>246</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>91</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>38</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>115</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>177</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>92</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>3222</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX187"/>
+  <dimension ref="A1:AX188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28303,6 +28303,158 @@
         <v>4</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>44262</v>
+      </c>
+      <c r="B188" t="n">
+        <v>14</v>
+      </c>
+      <c r="C188" t="n">
+        <v>46</v>
+      </c>
+      <c r="D188" t="n">
+        <v>47</v>
+      </c>
+      <c r="E188" t="n">
+        <v>13</v>
+      </c>
+      <c r="F188" t="n">
+        <v>208</v>
+      </c>
+      <c r="G188" t="n">
+        <v>184</v>
+      </c>
+      <c r="H188" t="n">
+        <v>113</v>
+      </c>
+      <c r="I188" t="n">
+        <v>66</v>
+      </c>
+      <c r="J188" t="n">
+        <v>10</v>
+      </c>
+      <c r="K188" t="n">
+        <v>9</v>
+      </c>
+      <c r="L188" t="n">
+        <v>5</v>
+      </c>
+      <c r="M188" t="n">
+        <v>50</v>
+      </c>
+      <c r="N188" t="n">
+        <v>115</v>
+      </c>
+      <c r="O188" t="n">
+        <v>6</v>
+      </c>
+      <c r="P188" t="n">
+        <v>211</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>8</v>
+      </c>
+      <c r="R188" t="n">
+        <v>17</v>
+      </c>
+      <c r="S188" t="n">
+        <v>20</v>
+      </c>
+      <c r="T188" t="n">
+        <v>125</v>
+      </c>
+      <c r="U188" t="n">
+        <v>47</v>
+      </c>
+      <c r="V188" t="n">
+        <v>15</v>
+      </c>
+      <c r="W188" t="n">
+        <v>41</v>
+      </c>
+      <c r="X188" t="n">
+        <v>716</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>87</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>47</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>266</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>89</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>164</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>102</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>3280</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX188"/>
+  <dimension ref="A1:AX189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28455,6 +28455,158 @@
         <v>4</v>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="B189" t="n">
+        <v>11</v>
+      </c>
+      <c r="C189" t="n">
+        <v>45</v>
+      </c>
+      <c r="D189" t="n">
+        <v>43</v>
+      </c>
+      <c r="E189" t="n">
+        <v>11</v>
+      </c>
+      <c r="F189" t="n">
+        <v>205</v>
+      </c>
+      <c r="G189" t="n">
+        <v>188</v>
+      </c>
+      <c r="H189" t="n">
+        <v>96</v>
+      </c>
+      <c r="I189" t="n">
+        <v>63</v>
+      </c>
+      <c r="J189" t="n">
+        <v>11</v>
+      </c>
+      <c r="K189" t="n">
+        <v>8</v>
+      </c>
+      <c r="L189" t="n">
+        <v>2</v>
+      </c>
+      <c r="M189" t="n">
+        <v>56</v>
+      </c>
+      <c r="N189" t="n">
+        <v>128</v>
+      </c>
+      <c r="O189" t="n">
+        <v>3</v>
+      </c>
+      <c r="P189" t="n">
+        <v>241</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>10</v>
+      </c>
+      <c r="R189" t="n">
+        <v>12</v>
+      </c>
+      <c r="S189" t="n">
+        <v>15</v>
+      </c>
+      <c r="T189" t="n">
+        <v>156</v>
+      </c>
+      <c r="U189" t="n">
+        <v>38</v>
+      </c>
+      <c r="V189" t="n">
+        <v>18</v>
+      </c>
+      <c r="W189" t="n">
+        <v>43</v>
+      </c>
+      <c r="X189" t="n">
+        <v>713</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>92</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>277</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>72</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>149</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>102</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>3277</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX189"/>
+  <dimension ref="A1:AX190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28607,6 +28607,158 @@
         <v>4</v>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>44264</v>
+      </c>
+      <c r="B190" t="n">
+        <v>10</v>
+      </c>
+      <c r="C190" t="n">
+        <v>41</v>
+      </c>
+      <c r="D190" t="n">
+        <v>53</v>
+      </c>
+      <c r="E190" t="n">
+        <v>7</v>
+      </c>
+      <c r="F190" t="n">
+        <v>221</v>
+      </c>
+      <c r="G190" t="n">
+        <v>193</v>
+      </c>
+      <c r="H190" t="n">
+        <v>114</v>
+      </c>
+      <c r="I190" t="n">
+        <v>65</v>
+      </c>
+      <c r="J190" t="n">
+        <v>10</v>
+      </c>
+      <c r="K190" t="n">
+        <v>8</v>
+      </c>
+      <c r="L190" t="n">
+        <v>3</v>
+      </c>
+      <c r="M190" t="n">
+        <v>57</v>
+      </c>
+      <c r="N190" t="n">
+        <v>129</v>
+      </c>
+      <c r="O190" t="n">
+        <v>3</v>
+      </c>
+      <c r="P190" t="n">
+        <v>227</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>10</v>
+      </c>
+      <c r="R190" t="n">
+        <v>11</v>
+      </c>
+      <c r="S190" t="n">
+        <v>16</v>
+      </c>
+      <c r="T190" t="n">
+        <v>156</v>
+      </c>
+      <c r="U190" t="n">
+        <v>46</v>
+      </c>
+      <c r="V190" t="n">
+        <v>19</v>
+      </c>
+      <c r="W190" t="n">
+        <v>42</v>
+      </c>
+      <c r="X190" t="n">
+        <v>750</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>62</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>59</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>76</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>122</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>163</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>106</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>3381</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX190"/>
+  <dimension ref="A1:AX191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28759,6 +28759,158 @@
         <v>5</v>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="B191" t="n">
+        <v>10</v>
+      </c>
+      <c r="C191" t="n">
+        <v>40</v>
+      </c>
+      <c r="D191" t="n">
+        <v>55</v>
+      </c>
+      <c r="E191" t="n">
+        <v>7</v>
+      </c>
+      <c r="F191" t="n">
+        <v>217</v>
+      </c>
+      <c r="G191" t="n">
+        <v>185</v>
+      </c>
+      <c r="H191" t="n">
+        <v>115</v>
+      </c>
+      <c r="I191" t="n">
+        <v>63</v>
+      </c>
+      <c r="J191" t="n">
+        <v>9</v>
+      </c>
+      <c r="K191" t="n">
+        <v>8</v>
+      </c>
+      <c r="L191" t="n">
+        <v>3</v>
+      </c>
+      <c r="M191" t="n">
+        <v>57</v>
+      </c>
+      <c r="N191" t="n">
+        <v>112</v>
+      </c>
+      <c r="O191" t="n">
+        <v>3</v>
+      </c>
+      <c r="P191" t="n">
+        <v>206</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>8</v>
+      </c>
+      <c r="R191" t="n">
+        <v>11</v>
+      </c>
+      <c r="S191" t="n">
+        <v>16</v>
+      </c>
+      <c r="T191" t="n">
+        <v>148</v>
+      </c>
+      <c r="U191" t="n">
+        <v>46</v>
+      </c>
+      <c r="V191" t="n">
+        <v>19</v>
+      </c>
+      <c r="W191" t="n">
+        <v>40</v>
+      </c>
+      <c r="X191" t="n">
+        <v>745</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>63</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>59</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>38</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>159</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>103</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>3261</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX191"/>
+  <dimension ref="A1:AX192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28911,6 +28911,158 @@
         <v>5</v>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B192" t="n">
+        <v>10</v>
+      </c>
+      <c r="C192" t="n">
+        <v>44</v>
+      </c>
+      <c r="D192" t="n">
+        <v>50</v>
+      </c>
+      <c r="E192" t="n">
+        <v>7</v>
+      </c>
+      <c r="F192" t="n">
+        <v>212</v>
+      </c>
+      <c r="G192" t="n">
+        <v>187</v>
+      </c>
+      <c r="H192" t="n">
+        <v>116</v>
+      </c>
+      <c r="I192" t="n">
+        <v>73</v>
+      </c>
+      <c r="J192" t="n">
+        <v>10</v>
+      </c>
+      <c r="K192" t="n">
+        <v>8</v>
+      </c>
+      <c r="L192" t="n">
+        <v>3</v>
+      </c>
+      <c r="M192" t="n">
+        <v>64</v>
+      </c>
+      <c r="N192" t="n">
+        <v>104</v>
+      </c>
+      <c r="O192" t="n">
+        <v>2</v>
+      </c>
+      <c r="P192" t="n">
+        <v>193</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>7</v>
+      </c>
+      <c r="R192" t="n">
+        <v>10</v>
+      </c>
+      <c r="S192" t="n">
+        <v>16</v>
+      </c>
+      <c r="T192" t="n">
+        <v>146</v>
+      </c>
+      <c r="U192" t="n">
+        <v>45</v>
+      </c>
+      <c r="V192" t="n">
+        <v>20</v>
+      </c>
+      <c r="W192" t="n">
+        <v>39</v>
+      </c>
+      <c r="X192" t="n">
+        <v>770</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>76</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>59</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>212</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>66</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>119</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>152</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>101</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>3208</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX192"/>
+  <dimension ref="A1:AX193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29063,6 +29063,158 @@
         <v>7</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>44267</v>
+      </c>
+      <c r="B193" t="n">
+        <v>14</v>
+      </c>
+      <c r="C193" t="n">
+        <v>27</v>
+      </c>
+      <c r="D193" t="n">
+        <v>52</v>
+      </c>
+      <c r="E193" t="n">
+        <v>6</v>
+      </c>
+      <c r="F193" t="n">
+        <v>214</v>
+      </c>
+      <c r="G193" t="n">
+        <v>162</v>
+      </c>
+      <c r="H193" t="n">
+        <v>110</v>
+      </c>
+      <c r="I193" t="n">
+        <v>65</v>
+      </c>
+      <c r="J193" t="n">
+        <v>9</v>
+      </c>
+      <c r="K193" t="n">
+        <v>6</v>
+      </c>
+      <c r="L193" t="n">
+        <v>4</v>
+      </c>
+      <c r="M193" t="n">
+        <v>53</v>
+      </c>
+      <c r="N193" t="n">
+        <v>95</v>
+      </c>
+      <c r="O193" t="n">
+        <v>2</v>
+      </c>
+      <c r="P193" t="n">
+        <v>173</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>3</v>
+      </c>
+      <c r="R193" t="n">
+        <v>11</v>
+      </c>
+      <c r="S193" t="n">
+        <v>11</v>
+      </c>
+      <c r="T193" t="n">
+        <v>149</v>
+      </c>
+      <c r="U193" t="n">
+        <v>39</v>
+      </c>
+      <c r="V193" t="n">
+        <v>15</v>
+      </c>
+      <c r="W193" t="n">
+        <v>36</v>
+      </c>
+      <c r="X193" t="n">
+        <v>768</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>64</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>57</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>212</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>44</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>105</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>143</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>95</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>3021</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX193"/>
+  <dimension ref="A1:AX194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29215,6 +29215,158 @@
         <v>7</v>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>44268</v>
+      </c>
+      <c r="B194" t="n">
+        <v>15</v>
+      </c>
+      <c r="C194" t="n">
+        <v>32</v>
+      </c>
+      <c r="D194" t="n">
+        <v>43</v>
+      </c>
+      <c r="E194" t="n">
+        <v>5</v>
+      </c>
+      <c r="F194" t="n">
+        <v>190</v>
+      </c>
+      <c r="G194" t="n">
+        <v>161</v>
+      </c>
+      <c r="H194" t="n">
+        <v>99</v>
+      </c>
+      <c r="I194" t="n">
+        <v>57</v>
+      </c>
+      <c r="J194" t="n">
+        <v>11</v>
+      </c>
+      <c r="K194" t="n">
+        <v>8</v>
+      </c>
+      <c r="L194" t="n">
+        <v>3</v>
+      </c>
+      <c r="M194" t="n">
+        <v>75</v>
+      </c>
+      <c r="N194" t="n">
+        <v>83</v>
+      </c>
+      <c r="O194" t="n">
+        <v>4</v>
+      </c>
+      <c r="P194" t="n">
+        <v>159</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>2</v>
+      </c>
+      <c r="R194" t="n">
+        <v>8</v>
+      </c>
+      <c r="S194" t="n">
+        <v>9</v>
+      </c>
+      <c r="T194" t="n">
+        <v>146</v>
+      </c>
+      <c r="U194" t="n">
+        <v>34</v>
+      </c>
+      <c r="V194" t="n">
+        <v>23</v>
+      </c>
+      <c r="W194" t="n">
+        <v>45</v>
+      </c>
+      <c r="X194" t="n">
+        <v>744</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>52</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>53</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>189</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>98</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>140</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>95</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>2920</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX194"/>
+  <dimension ref="A1:AX195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29367,6 +29367,158 @@
         <v>6</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>44269</v>
+      </c>
+      <c r="B195" t="n">
+        <v>15</v>
+      </c>
+      <c r="C195" t="n">
+        <v>29</v>
+      </c>
+      <c r="D195" t="n">
+        <v>44</v>
+      </c>
+      <c r="E195" t="n">
+        <v>3</v>
+      </c>
+      <c r="F195" t="n">
+        <v>219</v>
+      </c>
+      <c r="G195" t="n">
+        <v>140</v>
+      </c>
+      <c r="H195" t="n">
+        <v>88</v>
+      </c>
+      <c r="I195" t="n">
+        <v>59</v>
+      </c>
+      <c r="J195" t="n">
+        <v>13</v>
+      </c>
+      <c r="K195" t="n">
+        <v>6</v>
+      </c>
+      <c r="L195" t="n">
+        <v>3</v>
+      </c>
+      <c r="M195" t="n">
+        <v>73</v>
+      </c>
+      <c r="N195" t="n">
+        <v>74</v>
+      </c>
+      <c r="O195" t="n">
+        <v>5</v>
+      </c>
+      <c r="P195" t="n">
+        <v>163</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>8</v>
+      </c>
+      <c r="R195" t="n">
+        <v>8</v>
+      </c>
+      <c r="S195" t="n">
+        <v>7</v>
+      </c>
+      <c r="T195" t="n">
+        <v>126</v>
+      </c>
+      <c r="U195" t="n">
+        <v>36</v>
+      </c>
+      <c r="V195" t="n">
+        <v>22</v>
+      </c>
+      <c r="W195" t="n">
+        <v>42</v>
+      </c>
+      <c r="X195" t="n">
+        <v>755</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>54</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>56</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>59</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>198</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>98</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>138</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>86</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>2910</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX195"/>
+  <dimension ref="A1:AX196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29519,6 +29519,158 @@
         <v>6</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>44270</v>
+      </c>
+      <c r="B196" t="n">
+        <v>14</v>
+      </c>
+      <c r="C196" t="n">
+        <v>32</v>
+      </c>
+      <c r="D196" t="n">
+        <v>45</v>
+      </c>
+      <c r="E196" t="n">
+        <v>4</v>
+      </c>
+      <c r="F196" t="n">
+        <v>230</v>
+      </c>
+      <c r="G196" t="n">
+        <v>140</v>
+      </c>
+      <c r="H196" t="n">
+        <v>89</v>
+      </c>
+      <c r="I196" t="n">
+        <v>68</v>
+      </c>
+      <c r="J196" t="n">
+        <v>12</v>
+      </c>
+      <c r="K196" t="n">
+        <v>7</v>
+      </c>
+      <c r="L196" t="n">
+        <v>3</v>
+      </c>
+      <c r="M196" t="n">
+        <v>71</v>
+      </c>
+      <c r="N196" t="n">
+        <v>66</v>
+      </c>
+      <c r="O196" t="n">
+        <v>5</v>
+      </c>
+      <c r="P196" t="n">
+        <v>143</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>8</v>
+      </c>
+      <c r="R196" t="n">
+        <v>13</v>
+      </c>
+      <c r="S196" t="n">
+        <v>9</v>
+      </c>
+      <c r="T196" t="n">
+        <v>116</v>
+      </c>
+      <c r="U196" t="n">
+        <v>41</v>
+      </c>
+      <c r="V196" t="n">
+        <v>21</v>
+      </c>
+      <c r="W196" t="n">
+        <v>43</v>
+      </c>
+      <c r="X196" t="n">
+        <v>764</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>47</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>219</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>53</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>156</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>79</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>2955</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX196"/>
+  <dimension ref="A1:AX197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29671,6 +29671,158 @@
         <v>9</v>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>44271</v>
+      </c>
+      <c r="B197" t="n">
+        <v>16</v>
+      </c>
+      <c r="C197" t="n">
+        <v>37</v>
+      </c>
+      <c r="D197" t="n">
+        <v>38</v>
+      </c>
+      <c r="E197" t="n">
+        <v>5</v>
+      </c>
+      <c r="F197" t="n">
+        <v>231</v>
+      </c>
+      <c r="G197" t="n">
+        <v>137</v>
+      </c>
+      <c r="H197" t="n">
+        <v>78</v>
+      </c>
+      <c r="I197" t="n">
+        <v>69</v>
+      </c>
+      <c r="J197" t="n">
+        <v>11</v>
+      </c>
+      <c r="K197" t="n">
+        <v>9</v>
+      </c>
+      <c r="L197" t="n">
+        <v>2</v>
+      </c>
+      <c r="M197" t="n">
+        <v>67</v>
+      </c>
+      <c r="N197" t="n">
+        <v>67</v>
+      </c>
+      <c r="O197" t="n">
+        <v>6</v>
+      </c>
+      <c r="P197" t="n">
+        <v>139</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>8</v>
+      </c>
+      <c r="R197" t="n">
+        <v>13</v>
+      </c>
+      <c r="S197" t="n">
+        <v>9</v>
+      </c>
+      <c r="T197" t="n">
+        <v>116</v>
+      </c>
+      <c r="U197" t="n">
+        <v>33</v>
+      </c>
+      <c r="V197" t="n">
+        <v>20</v>
+      </c>
+      <c r="W197" t="n">
+        <v>40</v>
+      </c>
+      <c r="X197" t="n">
+        <v>793</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>53</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>49</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>57</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>233</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>48</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>58</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>152</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>83</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>2960</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX197"/>
+  <dimension ref="A1:AX198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29823,6 +29823,158 @@
         <v>8</v>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="B198" t="n">
+        <v>16</v>
+      </c>
+      <c r="C198" t="n">
+        <v>38</v>
+      </c>
+      <c r="D198" t="n">
+        <v>36</v>
+      </c>
+      <c r="E198" t="n">
+        <v>10</v>
+      </c>
+      <c r="F198" t="n">
+        <v>247</v>
+      </c>
+      <c r="G198" t="n">
+        <v>144</v>
+      </c>
+      <c r="H198" t="n">
+        <v>80</v>
+      </c>
+      <c r="I198" t="n">
+        <v>70</v>
+      </c>
+      <c r="J198" t="n">
+        <v>13</v>
+      </c>
+      <c r="K198" t="n">
+        <v>10</v>
+      </c>
+      <c r="L198" t="n">
+        <v>2</v>
+      </c>
+      <c r="M198" t="n">
+        <v>79</v>
+      </c>
+      <c r="N198" t="n">
+        <v>75</v>
+      </c>
+      <c r="O198" t="n">
+        <v>6</v>
+      </c>
+      <c r="P198" t="n">
+        <v>149</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>9</v>
+      </c>
+      <c r="R198" t="n">
+        <v>13</v>
+      </c>
+      <c r="S198" t="n">
+        <v>8</v>
+      </c>
+      <c r="T198" t="n">
+        <v>123</v>
+      </c>
+      <c r="U198" t="n">
+        <v>36</v>
+      </c>
+      <c r="V198" t="n">
+        <v>21</v>
+      </c>
+      <c r="W198" t="n">
+        <v>55</v>
+      </c>
+      <c r="X198" t="n">
+        <v>781</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>58</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>63</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>89</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>158</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>80</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>3066</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX198"/>
+  <dimension ref="A1:AX199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29975,6 +29975,158 @@
         <v>8</v>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B199" t="n">
+        <v>22</v>
+      </c>
+      <c r="C199" t="n">
+        <v>29</v>
+      </c>
+      <c r="D199" t="n">
+        <v>33</v>
+      </c>
+      <c r="E199" t="n">
+        <v>14</v>
+      </c>
+      <c r="F199" t="n">
+        <v>252</v>
+      </c>
+      <c r="G199" t="n">
+        <v>143</v>
+      </c>
+      <c r="H199" t="n">
+        <v>73</v>
+      </c>
+      <c r="I199" t="n">
+        <v>62</v>
+      </c>
+      <c r="J199" t="n">
+        <v>13</v>
+      </c>
+      <c r="K199" t="n">
+        <v>10</v>
+      </c>
+      <c r="L199" t="n">
+        <v>4</v>
+      </c>
+      <c r="M199" t="n">
+        <v>75</v>
+      </c>
+      <c r="N199" t="n">
+        <v>80</v>
+      </c>
+      <c r="O199" t="n">
+        <v>6</v>
+      </c>
+      <c r="P199" t="n">
+        <v>138</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>9</v>
+      </c>
+      <c r="R199" t="n">
+        <v>13</v>
+      </c>
+      <c r="S199" t="n">
+        <v>9</v>
+      </c>
+      <c r="T199" t="n">
+        <v>131</v>
+      </c>
+      <c r="U199" t="n">
+        <v>37</v>
+      </c>
+      <c r="V199" t="n">
+        <v>24</v>
+      </c>
+      <c r="W199" t="n">
+        <v>57</v>
+      </c>
+      <c r="X199" t="n">
+        <v>753</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>57</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>54</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>52</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>59</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>84</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>3050</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX199"/>
+  <dimension ref="A1:AX200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30127,6 +30127,158 @@
         <v>5</v>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="B200" t="n">
+        <v>18</v>
+      </c>
+      <c r="C200" t="n">
+        <v>39</v>
+      </c>
+      <c r="D200" t="n">
+        <v>26</v>
+      </c>
+      <c r="E200" t="n">
+        <v>16</v>
+      </c>
+      <c r="F200" t="n">
+        <v>246</v>
+      </c>
+      <c r="G200" t="n">
+        <v>155</v>
+      </c>
+      <c r="H200" t="n">
+        <v>59</v>
+      </c>
+      <c r="I200" t="n">
+        <v>53</v>
+      </c>
+      <c r="J200" t="n">
+        <v>14</v>
+      </c>
+      <c r="K200" t="n">
+        <v>12</v>
+      </c>
+      <c r="L200" t="n">
+        <v>4</v>
+      </c>
+      <c r="M200" t="n">
+        <v>102</v>
+      </c>
+      <c r="N200" t="n">
+        <v>75</v>
+      </c>
+      <c r="O200" t="n">
+        <v>4</v>
+      </c>
+      <c r="P200" t="n">
+        <v>144</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>10</v>
+      </c>
+      <c r="R200" t="n">
+        <v>9</v>
+      </c>
+      <c r="S200" t="n">
+        <v>11</v>
+      </c>
+      <c r="T200" t="n">
+        <v>123</v>
+      </c>
+      <c r="U200" t="n">
+        <v>29</v>
+      </c>
+      <c r="V200" t="n">
+        <v>29</v>
+      </c>
+      <c r="W200" t="n">
+        <v>78</v>
+      </c>
+      <c r="X200" t="n">
+        <v>741</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>57</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>254</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>59</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>69</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>159</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>89</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>3069</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX201"/>
+  <dimension ref="A1:AX203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30431,6 +30431,310 @@
         <v>5</v>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>44276</v>
+      </c>
+      <c r="B202" t="n">
+        <v>43</v>
+      </c>
+      <c r="C202" t="n">
+        <v>21</v>
+      </c>
+      <c r="D202" t="n">
+        <v>20</v>
+      </c>
+      <c r="E202" t="n">
+        <v>241</v>
+      </c>
+      <c r="F202" t="n">
+        <v>170</v>
+      </c>
+      <c r="G202" t="n">
+        <v>61</v>
+      </c>
+      <c r="H202" t="n">
+        <v>61</v>
+      </c>
+      <c r="I202" t="n">
+        <v>9</v>
+      </c>
+      <c r="J202" t="n">
+        <v>13</v>
+      </c>
+      <c r="K202" t="n">
+        <v>8</v>
+      </c>
+      <c r="L202" t="n">
+        <v>82</v>
+      </c>
+      <c r="M202" t="n">
+        <v>62</v>
+      </c>
+      <c r="N202" t="n">
+        <v>114</v>
+      </c>
+      <c r="O202" t="n">
+        <v>7</v>
+      </c>
+      <c r="P202" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>11</v>
+      </c>
+      <c r="R202" t="n">
+        <v>114</v>
+      </c>
+      <c r="S202" t="n">
+        <v>32</v>
+      </c>
+      <c r="T202" t="n">
+        <v>25</v>
+      </c>
+      <c r="U202" t="n">
+        <v>67</v>
+      </c>
+      <c r="V202" t="n">
+        <v>712</v>
+      </c>
+      <c r="W202" t="n">
+        <v>53</v>
+      </c>
+      <c r="X202" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>63</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>56</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>82</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>179</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>77</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>2918</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="B203" t="n">
+        <v>37</v>
+      </c>
+      <c r="C203" t="n">
+        <v>17</v>
+      </c>
+      <c r="D203" t="n">
+        <v>19</v>
+      </c>
+      <c r="E203" t="n">
+        <v>210</v>
+      </c>
+      <c r="F203" t="n">
+        <v>156</v>
+      </c>
+      <c r="G203" t="n">
+        <v>50</v>
+      </c>
+      <c r="H203" t="n">
+        <v>50</v>
+      </c>
+      <c r="I203" t="n">
+        <v>10</v>
+      </c>
+      <c r="J203" t="n">
+        <v>13</v>
+      </c>
+      <c r="K203" t="n">
+        <v>8</v>
+      </c>
+      <c r="L203" t="n">
+        <v>90</v>
+      </c>
+      <c r="M203" t="n">
+        <v>50</v>
+      </c>
+      <c r="N203" t="n">
+        <v>102</v>
+      </c>
+      <c r="O203" t="n">
+        <v>5</v>
+      </c>
+      <c r="P203" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>10</v>
+      </c>
+      <c r="R203" t="n">
+        <v>91</v>
+      </c>
+      <c r="S203" t="n">
+        <v>21</v>
+      </c>
+      <c r="T203" t="n">
+        <v>25</v>
+      </c>
+      <c r="U203" t="n">
+        <v>66</v>
+      </c>
+      <c r="V203" t="n">
+        <v>683</v>
+      </c>
+      <c r="W203" t="n">
+        <v>41</v>
+      </c>
+      <c r="X203" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>160</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>59</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>149</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>78</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>2653</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX203"/>
+  <dimension ref="A1:AX204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30735,6 +30735,158 @@
         <v>2</v>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B204" t="n">
+        <v>29</v>
+      </c>
+      <c r="C204" t="n">
+        <v>14</v>
+      </c>
+      <c r="D204" t="n">
+        <v>16</v>
+      </c>
+      <c r="E204" t="n">
+        <v>216</v>
+      </c>
+      <c r="F204" t="n">
+        <v>144</v>
+      </c>
+      <c r="G204" t="n">
+        <v>44</v>
+      </c>
+      <c r="H204" t="n">
+        <v>43</v>
+      </c>
+      <c r="I204" t="n">
+        <v>11</v>
+      </c>
+      <c r="J204" t="n">
+        <v>12</v>
+      </c>
+      <c r="K204" t="n">
+        <v>8</v>
+      </c>
+      <c r="L204" t="n">
+        <v>94</v>
+      </c>
+      <c r="M204" t="n">
+        <v>48</v>
+      </c>
+      <c r="N204" t="n">
+        <v>109</v>
+      </c>
+      <c r="O204" t="n">
+        <v>5</v>
+      </c>
+      <c r="P204" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>9</v>
+      </c>
+      <c r="R204" t="n">
+        <v>89</v>
+      </c>
+      <c r="S204" t="n">
+        <v>20</v>
+      </c>
+      <c r="T204" t="n">
+        <v>26</v>
+      </c>
+      <c r="U204" t="n">
+        <v>66</v>
+      </c>
+      <c r="V204" t="n">
+        <v>653</v>
+      </c>
+      <c r="W204" t="n">
+        <v>38</v>
+      </c>
+      <c r="X204" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>156</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>139</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>79</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>2530</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX204"/>
+  <dimension ref="A1:AX206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30887,6 +30887,310 @@
         <v>3</v>
       </c>
     </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="B205" t="n">
+        <v>29</v>
+      </c>
+      <c r="C205" t="n">
+        <v>14</v>
+      </c>
+      <c r="D205" t="n">
+        <v>11</v>
+      </c>
+      <c r="E205" t="n">
+        <v>200</v>
+      </c>
+      <c r="F205" t="n">
+        <v>140</v>
+      </c>
+      <c r="G205" t="n">
+        <v>45</v>
+      </c>
+      <c r="H205" t="n">
+        <v>46</v>
+      </c>
+      <c r="I205" t="n">
+        <v>11</v>
+      </c>
+      <c r="J205" t="n">
+        <v>11</v>
+      </c>
+      <c r="K205" t="n">
+        <v>8</v>
+      </c>
+      <c r="L205" t="n">
+        <v>82</v>
+      </c>
+      <c r="M205" t="n">
+        <v>45</v>
+      </c>
+      <c r="N205" t="n">
+        <v>100</v>
+      </c>
+      <c r="O205" t="n">
+        <v>5</v>
+      </c>
+      <c r="P205" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>8</v>
+      </c>
+      <c r="R205" t="n">
+        <v>82</v>
+      </c>
+      <c r="S205" t="n">
+        <v>18</v>
+      </c>
+      <c r="T205" t="n">
+        <v>26</v>
+      </c>
+      <c r="U205" t="n">
+        <v>51</v>
+      </c>
+      <c r="V205" t="n">
+        <v>649</v>
+      </c>
+      <c r="W205" t="n">
+        <v>37</v>
+      </c>
+      <c r="X205" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>148</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>72</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>156</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>73</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>2485</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B206" t="n">
+        <v>29</v>
+      </c>
+      <c r="C206" t="n">
+        <v>15</v>
+      </c>
+      <c r="D206" t="n">
+        <v>7</v>
+      </c>
+      <c r="E206" t="n">
+        <v>197</v>
+      </c>
+      <c r="F206" t="n">
+        <v>127</v>
+      </c>
+      <c r="G206" t="n">
+        <v>43</v>
+      </c>
+      <c r="H206" t="n">
+        <v>44</v>
+      </c>
+      <c r="I206" t="n">
+        <v>9</v>
+      </c>
+      <c r="J206" t="n">
+        <v>13</v>
+      </c>
+      <c r="K206" t="n">
+        <v>8</v>
+      </c>
+      <c r="L206" t="n">
+        <v>85</v>
+      </c>
+      <c r="M206" t="n">
+        <v>49</v>
+      </c>
+      <c r="N206" t="n">
+        <v>94</v>
+      </c>
+      <c r="O206" t="n">
+        <v>5</v>
+      </c>
+      <c r="P206" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>6</v>
+      </c>
+      <c r="R206" t="n">
+        <v>82</v>
+      </c>
+      <c r="S206" t="n">
+        <v>14</v>
+      </c>
+      <c r="T206" t="n">
+        <v>25</v>
+      </c>
+      <c r="U206" t="n">
+        <v>48</v>
+      </c>
+      <c r="V206" t="n">
+        <v>662</v>
+      </c>
+      <c r="W206" t="n">
+        <v>34</v>
+      </c>
+      <c r="X206" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>135</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>47</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>138</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>68</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>2421</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX206"/>
+  <dimension ref="A1:AX207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31191,6 +31191,158 @@
         <v>5</v>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>44281</v>
+      </c>
+      <c r="B207" t="n">
+        <v>22</v>
+      </c>
+      <c r="C207" t="n">
+        <v>11</v>
+      </c>
+      <c r="D207" t="n">
+        <v>5</v>
+      </c>
+      <c r="E207" t="n">
+        <v>183</v>
+      </c>
+      <c r="F207" t="n">
+        <v>100</v>
+      </c>
+      <c r="G207" t="n">
+        <v>48</v>
+      </c>
+      <c r="H207" t="n">
+        <v>47</v>
+      </c>
+      <c r="I207" t="n">
+        <v>11</v>
+      </c>
+      <c r="J207" t="n">
+        <v>11</v>
+      </c>
+      <c r="K207" t="n">
+        <v>7</v>
+      </c>
+      <c r="L207" t="n">
+        <v>78</v>
+      </c>
+      <c r="M207" t="n">
+        <v>52</v>
+      </c>
+      <c r="N207" t="n">
+        <v>84</v>
+      </c>
+      <c r="O207" t="n">
+        <v>4</v>
+      </c>
+      <c r="P207" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>7</v>
+      </c>
+      <c r="R207" t="n">
+        <v>89</v>
+      </c>
+      <c r="S207" t="n">
+        <v>12</v>
+      </c>
+      <c r="T207" t="n">
+        <v>26</v>
+      </c>
+      <c r="U207" t="n">
+        <v>28</v>
+      </c>
+      <c r="V207" t="n">
+        <v>613</v>
+      </c>
+      <c r="W207" t="n">
+        <v>30</v>
+      </c>
+      <c r="X207" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>153</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>137</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX207"/>
+  <dimension ref="A1:AX210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31343,6 +31343,462 @@
         <v>4</v>
       </c>
     </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>44282</v>
+      </c>
+      <c r="B208" t="n">
+        <v>24</v>
+      </c>
+      <c r="C208" t="n">
+        <v>12</v>
+      </c>
+      <c r="D208" t="n">
+        <v>5</v>
+      </c>
+      <c r="E208" t="n">
+        <v>181</v>
+      </c>
+      <c r="F208" t="n">
+        <v>92</v>
+      </c>
+      <c r="G208" t="n">
+        <v>49</v>
+      </c>
+      <c r="H208" t="n">
+        <v>43</v>
+      </c>
+      <c r="I208" t="n">
+        <v>14</v>
+      </c>
+      <c r="J208" t="n">
+        <v>11</v>
+      </c>
+      <c r="K208" t="n">
+        <v>7</v>
+      </c>
+      <c r="L208" t="n">
+        <v>79</v>
+      </c>
+      <c r="M208" t="n">
+        <v>48</v>
+      </c>
+      <c r="N208" t="n">
+        <v>92</v>
+      </c>
+      <c r="O208" t="n">
+        <v>2</v>
+      </c>
+      <c r="P208" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>6</v>
+      </c>
+      <c r="R208" t="n">
+        <v>75</v>
+      </c>
+      <c r="S208" t="n">
+        <v>13</v>
+      </c>
+      <c r="T208" t="n">
+        <v>29</v>
+      </c>
+      <c r="U208" t="n">
+        <v>30</v>
+      </c>
+      <c r="V208" t="n">
+        <v>619</v>
+      </c>
+      <c r="W208" t="n">
+        <v>27</v>
+      </c>
+      <c r="X208" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>68</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>124</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>63</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>2264</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>44283</v>
+      </c>
+      <c r="B209" t="n">
+        <v>28</v>
+      </c>
+      <c r="C209" t="n">
+        <v>11</v>
+      </c>
+      <c r="D209" t="n">
+        <v>2</v>
+      </c>
+      <c r="E209" t="n">
+        <v>179</v>
+      </c>
+      <c r="F209" t="n">
+        <v>82</v>
+      </c>
+      <c r="G209" t="n">
+        <v>52</v>
+      </c>
+      <c r="H209" t="n">
+        <v>36</v>
+      </c>
+      <c r="I209" t="n">
+        <v>14</v>
+      </c>
+      <c r="J209" t="n">
+        <v>10</v>
+      </c>
+      <c r="K209" t="n">
+        <v>4</v>
+      </c>
+      <c r="L209" t="n">
+        <v>83</v>
+      </c>
+      <c r="M209" t="n">
+        <v>43</v>
+      </c>
+      <c r="N209" t="n">
+        <v>90</v>
+      </c>
+      <c r="O209" t="n">
+        <v>2</v>
+      </c>
+      <c r="P209" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>7</v>
+      </c>
+      <c r="R209" t="n">
+        <v>73</v>
+      </c>
+      <c r="S209" t="n">
+        <v>9</v>
+      </c>
+      <c r="T209" t="n">
+        <v>28</v>
+      </c>
+      <c r="U209" t="n">
+        <v>34</v>
+      </c>
+      <c r="V209" t="n">
+        <v>575</v>
+      </c>
+      <c r="W209" t="n">
+        <v>23</v>
+      </c>
+      <c r="X209" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>141</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>39</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>66</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>103</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>63</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>2162</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="B210" t="n">
+        <v>27</v>
+      </c>
+      <c r="C210" t="n">
+        <v>13</v>
+      </c>
+      <c r="D210" t="n">
+        <v>3</v>
+      </c>
+      <c r="E210" t="n">
+        <v>177</v>
+      </c>
+      <c r="F210" t="n">
+        <v>72</v>
+      </c>
+      <c r="G210" t="n">
+        <v>55</v>
+      </c>
+      <c r="H210" t="n">
+        <v>36</v>
+      </c>
+      <c r="I210" t="n">
+        <v>15</v>
+      </c>
+      <c r="J210" t="n">
+        <v>9</v>
+      </c>
+      <c r="K210" t="n">
+        <v>5</v>
+      </c>
+      <c r="L210" t="n">
+        <v>73</v>
+      </c>
+      <c r="M210" t="n">
+        <v>51</v>
+      </c>
+      <c r="N210" t="n">
+        <v>84</v>
+      </c>
+      <c r="O210" t="n">
+        <v>3</v>
+      </c>
+      <c r="P210" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>7</v>
+      </c>
+      <c r="R210" t="n">
+        <v>77</v>
+      </c>
+      <c r="S210" t="n">
+        <v>9</v>
+      </c>
+      <c r="T210" t="n">
+        <v>30</v>
+      </c>
+      <c r="U210" t="n">
+        <v>33</v>
+      </c>
+      <c r="V210" t="n">
+        <v>571</v>
+      </c>
+      <c r="W210" t="n">
+        <v>22</v>
+      </c>
+      <c r="X210" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>58</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>163</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>49</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>66</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>106</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>62</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>2164</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX210"/>
+  <dimension ref="A1:AX212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31799,6 +31799,310 @@
         <v>4</v>
       </c>
     </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>44285</v>
+      </c>
+      <c r="B211" t="n">
+        <v>28</v>
+      </c>
+      <c r="C211" t="n">
+        <v>15</v>
+      </c>
+      <c r="D211" t="n">
+        <v>3</v>
+      </c>
+      <c r="E211" t="n">
+        <v>167</v>
+      </c>
+      <c r="F211" t="n">
+        <v>74</v>
+      </c>
+      <c r="G211" t="n">
+        <v>57</v>
+      </c>
+      <c r="H211" t="n">
+        <v>46</v>
+      </c>
+      <c r="I211" t="n">
+        <v>14</v>
+      </c>
+      <c r="J211" t="n">
+        <v>11</v>
+      </c>
+      <c r="K211" t="n">
+        <v>6</v>
+      </c>
+      <c r="L211" t="n">
+        <v>72</v>
+      </c>
+      <c r="M211" t="n">
+        <v>45</v>
+      </c>
+      <c r="N211" t="n">
+        <v>73</v>
+      </c>
+      <c r="O211" t="n">
+        <v>3</v>
+      </c>
+      <c r="P211" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>7</v>
+      </c>
+      <c r="R211" t="n">
+        <v>69</v>
+      </c>
+      <c r="S211" t="n">
+        <v>13</v>
+      </c>
+      <c r="T211" t="n">
+        <v>27</v>
+      </c>
+      <c r="U211" t="n">
+        <v>39</v>
+      </c>
+      <c r="V211" t="n">
+        <v>541</v>
+      </c>
+      <c r="W211" t="n">
+        <v>21</v>
+      </c>
+      <c r="X211" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>33</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>108</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>2117</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B212" t="n">
+        <v>28</v>
+      </c>
+      <c r="C212" t="n">
+        <v>15</v>
+      </c>
+      <c r="D212" t="n">
+        <v>3</v>
+      </c>
+      <c r="E212" t="n">
+        <v>171</v>
+      </c>
+      <c r="F212" t="n">
+        <v>70</v>
+      </c>
+      <c r="G212" t="n">
+        <v>53</v>
+      </c>
+      <c r="H212" t="n">
+        <v>44</v>
+      </c>
+      <c r="I212" t="n">
+        <v>12</v>
+      </c>
+      <c r="J212" t="n">
+        <v>12</v>
+      </c>
+      <c r="K212" t="n">
+        <v>6</v>
+      </c>
+      <c r="L212" t="n">
+        <v>75</v>
+      </c>
+      <c r="M212" t="n">
+        <v>48</v>
+      </c>
+      <c r="N212" t="n">
+        <v>76</v>
+      </c>
+      <c r="O212" t="n">
+        <v>2</v>
+      </c>
+      <c r="P212" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>7</v>
+      </c>
+      <c r="R212" t="n">
+        <v>65</v>
+      </c>
+      <c r="S212" t="n">
+        <v>12</v>
+      </c>
+      <c r="T212" t="n">
+        <v>26</v>
+      </c>
+      <c r="U212" t="n">
+        <v>40</v>
+      </c>
+      <c r="V212" t="n">
+        <v>549</v>
+      </c>
+      <c r="W212" t="n">
+        <v>19</v>
+      </c>
+      <c r="X212" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>33</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>140</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>52</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>58</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>84</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>56</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>2060</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX212"/>
+  <dimension ref="A1:AX214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32103,6 +32103,310 @@
         <v>3</v>
       </c>
     </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B213" t="n">
+        <v>30</v>
+      </c>
+      <c r="C213" t="n">
+        <v>13</v>
+      </c>
+      <c r="D213" t="n">
+        <v>3</v>
+      </c>
+      <c r="E213" t="n">
+        <v>156</v>
+      </c>
+      <c r="F213" t="n">
+        <v>69</v>
+      </c>
+      <c r="G213" t="n">
+        <v>51</v>
+      </c>
+      <c r="H213" t="n">
+        <v>46</v>
+      </c>
+      <c r="I213" t="n">
+        <v>11</v>
+      </c>
+      <c r="J213" t="n">
+        <v>15</v>
+      </c>
+      <c r="K213" t="n">
+        <v>6</v>
+      </c>
+      <c r="L213" t="n">
+        <v>70</v>
+      </c>
+      <c r="M213" t="n">
+        <v>47</v>
+      </c>
+      <c r="N213" t="n">
+        <v>79</v>
+      </c>
+      <c r="O213" t="n">
+        <v>4</v>
+      </c>
+      <c r="P213" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>9</v>
+      </c>
+      <c r="R213" t="n">
+        <v>54</v>
+      </c>
+      <c r="S213" t="n">
+        <v>13</v>
+      </c>
+      <c r="T213" t="n">
+        <v>23</v>
+      </c>
+      <c r="U213" t="n">
+        <v>42</v>
+      </c>
+      <c r="V213" t="n">
+        <v>510</v>
+      </c>
+      <c r="W213" t="n">
+        <v>20</v>
+      </c>
+      <c r="X213" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>146</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>57</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>43</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>56</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>2005</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>44288</v>
+      </c>
+      <c r="B214" t="n">
+        <v>30</v>
+      </c>
+      <c r="C214" t="n">
+        <v>16</v>
+      </c>
+      <c r="D214" t="n">
+        <v>5</v>
+      </c>
+      <c r="E214" t="n">
+        <v>154</v>
+      </c>
+      <c r="F214" t="n">
+        <v>79</v>
+      </c>
+      <c r="G214" t="n">
+        <v>55</v>
+      </c>
+      <c r="H214" t="n">
+        <v>44</v>
+      </c>
+      <c r="I214" t="n">
+        <v>8</v>
+      </c>
+      <c r="J214" t="n">
+        <v>17</v>
+      </c>
+      <c r="K214" t="n">
+        <v>9</v>
+      </c>
+      <c r="L214" t="n">
+        <v>64</v>
+      </c>
+      <c r="M214" t="n">
+        <v>39</v>
+      </c>
+      <c r="N214" t="n">
+        <v>76</v>
+      </c>
+      <c r="O214" t="n">
+        <v>4</v>
+      </c>
+      <c r="P214" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>8</v>
+      </c>
+      <c r="R214" t="n">
+        <v>40</v>
+      </c>
+      <c r="S214" t="n">
+        <v>15</v>
+      </c>
+      <c r="T214" t="n">
+        <v>20</v>
+      </c>
+      <c r="U214" t="n">
+        <v>42</v>
+      </c>
+      <c r="V214" t="n">
+        <v>528</v>
+      </c>
+      <c r="W214" t="n">
+        <v>25</v>
+      </c>
+      <c r="X214" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>54</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>112</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>59</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>78</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1937</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX214"/>
+  <dimension ref="A1:AX218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32407,6 +32407,614 @@
         <v>1</v>
       </c>
     </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>44289</v>
+      </c>
+      <c r="B215" t="n">
+        <v>27</v>
+      </c>
+      <c r="C215" t="n">
+        <v>17</v>
+      </c>
+      <c r="D215" t="n">
+        <v>5</v>
+      </c>
+      <c r="E215" t="n">
+        <v>167</v>
+      </c>
+      <c r="F215" t="n">
+        <v>82</v>
+      </c>
+      <c r="G215" t="n">
+        <v>50</v>
+      </c>
+      <c r="H215" t="n">
+        <v>44</v>
+      </c>
+      <c r="I215" t="n">
+        <v>5</v>
+      </c>
+      <c r="J215" t="n">
+        <v>15</v>
+      </c>
+      <c r="K215" t="n">
+        <v>11</v>
+      </c>
+      <c r="L215" t="n">
+        <v>58</v>
+      </c>
+      <c r="M215" t="n">
+        <v>40</v>
+      </c>
+      <c r="N215" t="n">
+        <v>56</v>
+      </c>
+      <c r="O215" t="n">
+        <v>4</v>
+      </c>
+      <c r="P215" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>8</v>
+      </c>
+      <c r="R215" t="n">
+        <v>38</v>
+      </c>
+      <c r="S215" t="n">
+        <v>11</v>
+      </c>
+      <c r="T215" t="n">
+        <v>16</v>
+      </c>
+      <c r="U215" t="n">
+        <v>37</v>
+      </c>
+      <c r="V215" t="n">
+        <v>464</v>
+      </c>
+      <c r="W215" t="n">
+        <v>23</v>
+      </c>
+      <c r="X215" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>114</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>74</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>47</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>1806</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>44290</v>
+      </c>
+      <c r="B216" t="n">
+        <v>18</v>
+      </c>
+      <c r="C216" t="n">
+        <v>21</v>
+      </c>
+      <c r="D216" t="n">
+        <v>5</v>
+      </c>
+      <c r="E216" t="n">
+        <v>167</v>
+      </c>
+      <c r="F216" t="n">
+        <v>74</v>
+      </c>
+      <c r="G216" t="n">
+        <v>48</v>
+      </c>
+      <c r="H216" t="n">
+        <v>47</v>
+      </c>
+      <c r="I216" t="n">
+        <v>7</v>
+      </c>
+      <c r="J216" t="n">
+        <v>13</v>
+      </c>
+      <c r="K216" t="n">
+        <v>12</v>
+      </c>
+      <c r="L216" t="n">
+        <v>46</v>
+      </c>
+      <c r="M216" t="n">
+        <v>43</v>
+      </c>
+      <c r="N216" t="n">
+        <v>54</v>
+      </c>
+      <c r="O216" t="n">
+        <v>8</v>
+      </c>
+      <c r="P216" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>7</v>
+      </c>
+      <c r="R216" t="n">
+        <v>35</v>
+      </c>
+      <c r="S216" t="n">
+        <v>12</v>
+      </c>
+      <c r="T216" t="n">
+        <v>15</v>
+      </c>
+      <c r="U216" t="n">
+        <v>37</v>
+      </c>
+      <c r="V216" t="n">
+        <v>520</v>
+      </c>
+      <c r="W216" t="n">
+        <v>20</v>
+      </c>
+      <c r="X216" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>54</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>72</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>48</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1842</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="B217" t="n">
+        <v>19</v>
+      </c>
+      <c r="C217" t="n">
+        <v>18</v>
+      </c>
+      <c r="D217" t="n">
+        <v>7</v>
+      </c>
+      <c r="E217" t="n">
+        <v>180</v>
+      </c>
+      <c r="F217" t="n">
+        <v>69</v>
+      </c>
+      <c r="G217" t="n">
+        <v>43</v>
+      </c>
+      <c r="H217" t="n">
+        <v>47</v>
+      </c>
+      <c r="I217" t="n">
+        <v>4</v>
+      </c>
+      <c r="J217" t="n">
+        <v>14</v>
+      </c>
+      <c r="K217" t="n">
+        <v>11</v>
+      </c>
+      <c r="L217" t="n">
+        <v>47</v>
+      </c>
+      <c r="M217" t="n">
+        <v>38</v>
+      </c>
+      <c r="N217" t="n">
+        <v>55</v>
+      </c>
+      <c r="O217" t="n">
+        <v>7</v>
+      </c>
+      <c r="P217" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>8</v>
+      </c>
+      <c r="R217" t="n">
+        <v>38</v>
+      </c>
+      <c r="S217" t="n">
+        <v>11</v>
+      </c>
+      <c r="T217" t="n">
+        <v>16</v>
+      </c>
+      <c r="U217" t="n">
+        <v>42</v>
+      </c>
+      <c r="V217" t="n">
+        <v>526</v>
+      </c>
+      <c r="W217" t="n">
+        <v>23</v>
+      </c>
+      <c r="X217" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>52</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>63</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>31</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>62</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>1818</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>44292</v>
+      </c>
+      <c r="B218" t="n">
+        <v>19</v>
+      </c>
+      <c r="C218" t="n">
+        <v>17</v>
+      </c>
+      <c r="D218" t="n">
+        <v>9</v>
+      </c>
+      <c r="E218" t="n">
+        <v>173</v>
+      </c>
+      <c r="F218" t="n">
+        <v>57</v>
+      </c>
+      <c r="G218" t="n">
+        <v>53</v>
+      </c>
+      <c r="H218" t="n">
+        <v>38</v>
+      </c>
+      <c r="I218" t="n">
+        <v>5</v>
+      </c>
+      <c r="J218" t="n">
+        <v>13</v>
+      </c>
+      <c r="K218" t="n">
+        <v>9</v>
+      </c>
+      <c r="L218" t="n">
+        <v>45</v>
+      </c>
+      <c r="M218" t="n">
+        <v>38</v>
+      </c>
+      <c r="N218" t="n">
+        <v>53</v>
+      </c>
+      <c r="O218" t="n">
+        <v>7</v>
+      </c>
+      <c r="P218" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>10</v>
+      </c>
+      <c r="R218" t="n">
+        <v>43</v>
+      </c>
+      <c r="S218" t="n">
+        <v>9</v>
+      </c>
+      <c r="T218" t="n">
+        <v>14</v>
+      </c>
+      <c r="U218" t="n">
+        <v>36</v>
+      </c>
+      <c r="V218" t="n">
+        <v>508</v>
+      </c>
+      <c r="W218" t="n">
+        <v>20</v>
+      </c>
+      <c r="X218" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>108</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>43</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>63</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>57</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>47</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1748</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX218"/>
+  <dimension ref="A1:AX220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33015,6 +33015,310 @@
         <v>1</v>
       </c>
     </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="B219" t="n">
+        <v>19</v>
+      </c>
+      <c r="C219" t="n">
+        <v>18</v>
+      </c>
+      <c r="D219" t="n">
+        <v>9</v>
+      </c>
+      <c r="E219" t="n">
+        <v>171</v>
+      </c>
+      <c r="F219" t="n">
+        <v>58</v>
+      </c>
+      <c r="G219" t="n">
+        <v>57</v>
+      </c>
+      <c r="H219" t="n">
+        <v>33</v>
+      </c>
+      <c r="I219" t="n">
+        <v>5</v>
+      </c>
+      <c r="J219" t="n">
+        <v>12</v>
+      </c>
+      <c r="K219" t="n">
+        <v>9</v>
+      </c>
+      <c r="L219" t="n">
+        <v>41</v>
+      </c>
+      <c r="M219" t="n">
+        <v>35</v>
+      </c>
+      <c r="N219" t="n">
+        <v>44</v>
+      </c>
+      <c r="O219" t="n">
+        <v>7</v>
+      </c>
+      <c r="P219" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>10</v>
+      </c>
+      <c r="R219" t="n">
+        <v>43</v>
+      </c>
+      <c r="S219" t="n">
+        <v>9</v>
+      </c>
+      <c r="T219" t="n">
+        <v>14</v>
+      </c>
+      <c r="U219" t="n">
+        <v>35</v>
+      </c>
+      <c r="V219" t="n">
+        <v>501</v>
+      </c>
+      <c r="W219" t="n">
+        <v>20</v>
+      </c>
+      <c r="X219" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>106</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>57</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>57</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>44</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1700</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B220" t="n">
+        <v>15</v>
+      </c>
+      <c r="C220" t="n">
+        <v>18</v>
+      </c>
+      <c r="D220" t="n">
+        <v>9</v>
+      </c>
+      <c r="E220" t="n">
+        <v>161</v>
+      </c>
+      <c r="F220" t="n">
+        <v>53</v>
+      </c>
+      <c r="G220" t="n">
+        <v>61</v>
+      </c>
+      <c r="H220" t="n">
+        <v>30</v>
+      </c>
+      <c r="I220" t="n">
+        <v>5</v>
+      </c>
+      <c r="J220" t="n">
+        <v>8</v>
+      </c>
+      <c r="K220" t="n">
+        <v>7</v>
+      </c>
+      <c r="L220" t="n">
+        <v>35</v>
+      </c>
+      <c r="M220" t="n">
+        <v>28</v>
+      </c>
+      <c r="N220" t="n">
+        <v>39</v>
+      </c>
+      <c r="O220" t="n">
+        <v>5</v>
+      </c>
+      <c r="P220" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>8</v>
+      </c>
+      <c r="R220" t="n">
+        <v>42</v>
+      </c>
+      <c r="S220" t="n">
+        <v>7</v>
+      </c>
+      <c r="T220" t="n">
+        <v>14</v>
+      </c>
+      <c r="U220" t="n">
+        <v>32</v>
+      </c>
+      <c r="V220" t="n">
+        <v>432</v>
+      </c>
+      <c r="W220" t="n">
+        <v>18</v>
+      </c>
+      <c r="X220" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>54</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1526</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX220"/>
+  <dimension ref="A1:AX221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33319,6 +33319,158 @@
         <v>1</v>
       </c>
     </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>44295</v>
+      </c>
+      <c r="B221" t="n">
+        <v>11</v>
+      </c>
+      <c r="C221" t="n">
+        <v>15</v>
+      </c>
+      <c r="D221" t="n">
+        <v>9</v>
+      </c>
+      <c r="E221" t="n">
+        <v>152</v>
+      </c>
+      <c r="F221" t="n">
+        <v>41</v>
+      </c>
+      <c r="G221" t="n">
+        <v>52</v>
+      </c>
+      <c r="H221" t="n">
+        <v>23</v>
+      </c>
+      <c r="I221" t="n">
+        <v>5</v>
+      </c>
+      <c r="J221" t="n">
+        <v>5</v>
+      </c>
+      <c r="K221" t="n">
+        <v>4</v>
+      </c>
+      <c r="L221" t="n">
+        <v>27</v>
+      </c>
+      <c r="M221" t="n">
+        <v>32</v>
+      </c>
+      <c r="N221" t="n">
+        <v>46</v>
+      </c>
+      <c r="O221" t="n">
+        <v>5</v>
+      </c>
+      <c r="P221" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>7</v>
+      </c>
+      <c r="R221" t="n">
+        <v>50</v>
+      </c>
+      <c r="S221" t="n">
+        <v>4</v>
+      </c>
+      <c r="T221" t="n">
+        <v>11</v>
+      </c>
+      <c r="U221" t="n">
+        <v>35</v>
+      </c>
+      <c r="V221" t="n">
+        <v>424</v>
+      </c>
+      <c r="W221" t="n">
+        <v>8</v>
+      </c>
+      <c r="X221" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>108</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>57</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>44</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX221"/>
+  <dimension ref="A1:AX224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33471,6 +33471,462 @@
         <v>0</v>
       </c>
     </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>44296</v>
+      </c>
+      <c r="B222" t="n">
+        <v>11</v>
+      </c>
+      <c r="C222" t="n">
+        <v>14</v>
+      </c>
+      <c r="D222" t="n">
+        <v>10</v>
+      </c>
+      <c r="E222" t="n">
+        <v>146</v>
+      </c>
+      <c r="F222" t="n">
+        <v>32</v>
+      </c>
+      <c r="G222" t="n">
+        <v>55</v>
+      </c>
+      <c r="H222" t="n">
+        <v>23</v>
+      </c>
+      <c r="I222" t="n">
+        <v>4</v>
+      </c>
+      <c r="J222" t="n">
+        <v>7</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
+        <v>25</v>
+      </c>
+      <c r="M222" t="n">
+        <v>29</v>
+      </c>
+      <c r="N222" t="n">
+        <v>45</v>
+      </c>
+      <c r="O222" t="n">
+        <v>4</v>
+      </c>
+      <c r="P222" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>8</v>
+      </c>
+      <c r="R222" t="n">
+        <v>48</v>
+      </c>
+      <c r="S222" t="n">
+        <v>5</v>
+      </c>
+      <c r="T222" t="n">
+        <v>11</v>
+      </c>
+      <c r="U222" t="n">
+        <v>39</v>
+      </c>
+      <c r="V222" t="n">
+        <v>439</v>
+      </c>
+      <c r="W222" t="n">
+        <v>11</v>
+      </c>
+      <c r="X222" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>61</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1485</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>44297</v>
+      </c>
+      <c r="B223" t="n">
+        <v>10</v>
+      </c>
+      <c r="C223" t="n">
+        <v>10</v>
+      </c>
+      <c r="D223" t="n">
+        <v>9</v>
+      </c>
+      <c r="E223" t="n">
+        <v>140</v>
+      </c>
+      <c r="F223" t="n">
+        <v>33</v>
+      </c>
+      <c r="G223" t="n">
+        <v>55</v>
+      </c>
+      <c r="H223" t="n">
+        <v>19</v>
+      </c>
+      <c r="I223" t="n">
+        <v>3</v>
+      </c>
+      <c r="J223" t="n">
+        <v>7</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>26</v>
+      </c>
+      <c r="M223" t="n">
+        <v>29</v>
+      </c>
+      <c r="N223" t="n">
+        <v>45</v>
+      </c>
+      <c r="O223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P223" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>6</v>
+      </c>
+      <c r="R223" t="n">
+        <v>47</v>
+      </c>
+      <c r="S223" t="n">
+        <v>3</v>
+      </c>
+      <c r="T223" t="n">
+        <v>10</v>
+      </c>
+      <c r="U223" t="n">
+        <v>38</v>
+      </c>
+      <c r="V223" t="n">
+        <v>360</v>
+      </c>
+      <c r="W223" t="n">
+        <v>14</v>
+      </c>
+      <c r="X223" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>84</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>59</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1354</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>44298</v>
+      </c>
+      <c r="B224" t="n">
+        <v>10</v>
+      </c>
+      <c r="C224" t="n">
+        <v>11</v>
+      </c>
+      <c r="D224" t="n">
+        <v>6</v>
+      </c>
+      <c r="E224" t="n">
+        <v>129</v>
+      </c>
+      <c r="F224" t="n">
+        <v>37</v>
+      </c>
+      <c r="G224" t="n">
+        <v>60</v>
+      </c>
+      <c r="H224" t="n">
+        <v>24</v>
+      </c>
+      <c r="I224" t="n">
+        <v>5</v>
+      </c>
+      <c r="J224" t="n">
+        <v>8</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>21</v>
+      </c>
+      <c r="M224" t="n">
+        <v>25</v>
+      </c>
+      <c r="N224" t="n">
+        <v>43</v>
+      </c>
+      <c r="O224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P224" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>6</v>
+      </c>
+      <c r="R224" t="n">
+        <v>36</v>
+      </c>
+      <c r="S224" t="n">
+        <v>3</v>
+      </c>
+      <c r="T224" t="n">
+        <v>6</v>
+      </c>
+      <c r="U224" t="n">
+        <v>32</v>
+      </c>
+      <c r="V224" t="n">
+        <v>328</v>
+      </c>
+      <c r="W224" t="n">
+        <v>9</v>
+      </c>
+      <c r="X224" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>36</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>1279</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX224"/>
+  <dimension ref="A1:AX226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33927,6 +33927,310 @@
         <v>0</v>
       </c>
     </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>44299</v>
+      </c>
+      <c r="B225" t="n">
+        <v>10</v>
+      </c>
+      <c r="C225" t="n">
+        <v>10</v>
+      </c>
+      <c r="D225" t="n">
+        <v>8</v>
+      </c>
+      <c r="E225" t="n">
+        <v>125</v>
+      </c>
+      <c r="F225" t="n">
+        <v>40</v>
+      </c>
+      <c r="G225" t="n">
+        <v>42</v>
+      </c>
+      <c r="H225" t="n">
+        <v>22</v>
+      </c>
+      <c r="I225" t="n">
+        <v>5</v>
+      </c>
+      <c r="J225" t="n">
+        <v>9</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
+        <v>22</v>
+      </c>
+      <c r="M225" t="n">
+        <v>36</v>
+      </c>
+      <c r="N225" t="n">
+        <v>45</v>
+      </c>
+      <c r="O225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P225" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>5</v>
+      </c>
+      <c r="R225" t="n">
+        <v>38</v>
+      </c>
+      <c r="S225" t="n">
+        <v>1</v>
+      </c>
+      <c r="T225" t="n">
+        <v>6</v>
+      </c>
+      <c r="U225" t="n">
+        <v>34</v>
+      </c>
+      <c r="V225" t="n">
+        <v>299</v>
+      </c>
+      <c r="W225" t="n">
+        <v>8</v>
+      </c>
+      <c r="X225" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>83</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>49</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="B226" t="n">
+        <v>9</v>
+      </c>
+      <c r="C226" t="n">
+        <v>9</v>
+      </c>
+      <c r="D226" t="n">
+        <v>8</v>
+      </c>
+      <c r="E226" t="n">
+        <v>124</v>
+      </c>
+      <c r="F226" t="n">
+        <v>40</v>
+      </c>
+      <c r="G226" t="n">
+        <v>38</v>
+      </c>
+      <c r="H226" t="n">
+        <v>22</v>
+      </c>
+      <c r="I226" t="n">
+        <v>5</v>
+      </c>
+      <c r="J226" t="n">
+        <v>9</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>24</v>
+      </c>
+      <c r="M226" t="n">
+        <v>35</v>
+      </c>
+      <c r="N226" t="n">
+        <v>52</v>
+      </c>
+      <c r="O226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P226" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>5</v>
+      </c>
+      <c r="R226" t="n">
+        <v>40</v>
+      </c>
+      <c r="S226" t="n">
+        <v>1</v>
+      </c>
+      <c r="T226" t="n">
+        <v>6</v>
+      </c>
+      <c r="U226" t="n">
+        <v>34</v>
+      </c>
+      <c r="V226" t="n">
+        <v>291</v>
+      </c>
+      <c r="W226" t="n">
+        <v>8</v>
+      </c>
+      <c r="X226" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>94</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>48</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1262</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX226"/>
+  <dimension ref="A1:AX229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34231,6 +34231,462 @@
         <v>0</v>
       </c>
     </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B227" t="n">
+        <v>10</v>
+      </c>
+      <c r="C227" t="n">
+        <v>10</v>
+      </c>
+      <c r="D227" t="n">
+        <v>8</v>
+      </c>
+      <c r="E227" t="n">
+        <v>126</v>
+      </c>
+      <c r="F227" t="n">
+        <v>51</v>
+      </c>
+      <c r="G227" t="n">
+        <v>33</v>
+      </c>
+      <c r="H227" t="n">
+        <v>24</v>
+      </c>
+      <c r="I227" t="n">
+        <v>9</v>
+      </c>
+      <c r="J227" t="n">
+        <v>9</v>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="n">
+        <v>31</v>
+      </c>
+      <c r="M227" t="n">
+        <v>36</v>
+      </c>
+      <c r="N227" t="n">
+        <v>56</v>
+      </c>
+      <c r="O227" t="n">
+        <v>2</v>
+      </c>
+      <c r="P227" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>5</v>
+      </c>
+      <c r="R227" t="n">
+        <v>40</v>
+      </c>
+      <c r="S227" t="n">
+        <v>1</v>
+      </c>
+      <c r="T227" t="n">
+        <v>7</v>
+      </c>
+      <c r="U227" t="n">
+        <v>38</v>
+      </c>
+      <c r="V227" t="n">
+        <v>333</v>
+      </c>
+      <c r="W227" t="n">
+        <v>7</v>
+      </c>
+      <c r="X227" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>113</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1366</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="B228" t="n">
+        <v>12</v>
+      </c>
+      <c r="C228" t="n">
+        <v>11</v>
+      </c>
+      <c r="D228" t="n">
+        <v>7</v>
+      </c>
+      <c r="E228" t="n">
+        <v>128</v>
+      </c>
+      <c r="F228" t="n">
+        <v>57</v>
+      </c>
+      <c r="G228" t="n">
+        <v>32</v>
+      </c>
+      <c r="H228" t="n">
+        <v>30</v>
+      </c>
+      <c r="I228" t="n">
+        <v>10</v>
+      </c>
+      <c r="J228" t="n">
+        <v>12</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>24</v>
+      </c>
+      <c r="M228" t="n">
+        <v>39</v>
+      </c>
+      <c r="N228" t="n">
+        <v>47</v>
+      </c>
+      <c r="O228" t="n">
+        <v>2</v>
+      </c>
+      <c r="P228" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>4</v>
+      </c>
+      <c r="R228" t="n">
+        <v>29</v>
+      </c>
+      <c r="S228" t="n">
+        <v>3</v>
+      </c>
+      <c r="T228" t="n">
+        <v>10</v>
+      </c>
+      <c r="U228" t="n">
+        <v>42</v>
+      </c>
+      <c r="V228" t="n">
+        <v>266</v>
+      </c>
+      <c r="W228" t="n">
+        <v>12</v>
+      </c>
+      <c r="X228" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>106</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1282</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>44303</v>
+      </c>
+      <c r="B229" t="n">
+        <v>13</v>
+      </c>
+      <c r="C229" t="n">
+        <v>6</v>
+      </c>
+      <c r="D229" t="n">
+        <v>5</v>
+      </c>
+      <c r="E229" t="n">
+        <v>112</v>
+      </c>
+      <c r="F229" t="n">
+        <v>60</v>
+      </c>
+      <c r="G229" t="n">
+        <v>28</v>
+      </c>
+      <c r="H229" t="n">
+        <v>28</v>
+      </c>
+      <c r="I229" t="n">
+        <v>10</v>
+      </c>
+      <c r="J229" t="n">
+        <v>12</v>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="n">
+        <v>21</v>
+      </c>
+      <c r="M229" t="n">
+        <v>43</v>
+      </c>
+      <c r="N229" t="n">
+        <v>48</v>
+      </c>
+      <c r="O229" t="n">
+        <v>2</v>
+      </c>
+      <c r="P229" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>3</v>
+      </c>
+      <c r="R229" t="n">
+        <v>24</v>
+      </c>
+      <c r="S229" t="n">
+        <v>2</v>
+      </c>
+      <c r="T229" t="n">
+        <v>8</v>
+      </c>
+      <c r="U229" t="n">
+        <v>46</v>
+      </c>
+      <c r="V229" t="n">
+        <v>243</v>
+      </c>
+      <c r="W229" t="n">
+        <v>11</v>
+      </c>
+      <c r="X229" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>124</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>36</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1207</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX229"/>
+  <dimension ref="A1:AX233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34687,6 +34687,614 @@
         <v>0</v>
       </c>
     </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>44304</v>
+      </c>
+      <c r="B230" t="n">
+        <v>15</v>
+      </c>
+      <c r="C230" t="n">
+        <v>6</v>
+      </c>
+      <c r="D230" t="n">
+        <v>5</v>
+      </c>
+      <c r="E230" t="n">
+        <v>95</v>
+      </c>
+      <c r="F230" t="n">
+        <v>68</v>
+      </c>
+      <c r="G230" t="n">
+        <v>26</v>
+      </c>
+      <c r="H230" t="n">
+        <v>27</v>
+      </c>
+      <c r="I230" t="n">
+        <v>12</v>
+      </c>
+      <c r="J230" t="n">
+        <v>15</v>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="n">
+        <v>23</v>
+      </c>
+      <c r="M230" t="n">
+        <v>48</v>
+      </c>
+      <c r="N230" t="n">
+        <v>48</v>
+      </c>
+      <c r="O230" t="n">
+        <v>2</v>
+      </c>
+      <c r="P230" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>3</v>
+      </c>
+      <c r="R230" t="n">
+        <v>30</v>
+      </c>
+      <c r="S230" t="n">
+        <v>5</v>
+      </c>
+      <c r="T230" t="n">
+        <v>12</v>
+      </c>
+      <c r="U230" t="n">
+        <v>43</v>
+      </c>
+      <c r="V230" t="n">
+        <v>260</v>
+      </c>
+      <c r="W230" t="n">
+        <v>9</v>
+      </c>
+      <c r="X230" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>33</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>52</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1221</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="B231" t="n">
+        <v>15</v>
+      </c>
+      <c r="C231" t="n">
+        <v>4</v>
+      </c>
+      <c r="D231" t="n">
+        <v>6</v>
+      </c>
+      <c r="E231" t="n">
+        <v>83</v>
+      </c>
+      <c r="F231" t="n">
+        <v>67</v>
+      </c>
+      <c r="G231" t="n">
+        <v>17</v>
+      </c>
+      <c r="H231" t="n">
+        <v>18</v>
+      </c>
+      <c r="I231" t="n">
+        <v>11</v>
+      </c>
+      <c r="J231" t="n">
+        <v>13</v>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="n">
+        <v>21</v>
+      </c>
+      <c r="M231" t="n">
+        <v>58</v>
+      </c>
+      <c r="N231" t="n">
+        <v>48</v>
+      </c>
+      <c r="O231" t="n">
+        <v>2</v>
+      </c>
+      <c r="P231" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>1</v>
+      </c>
+      <c r="R231" t="n">
+        <v>34</v>
+      </c>
+      <c r="S231" t="n">
+        <v>7</v>
+      </c>
+      <c r="T231" t="n">
+        <v>12</v>
+      </c>
+      <c r="U231" t="n">
+        <v>43</v>
+      </c>
+      <c r="V231" t="n">
+        <v>253</v>
+      </c>
+      <c r="W231" t="n">
+        <v>9</v>
+      </c>
+      <c r="X231" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>130</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>49</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1169</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>44306</v>
+      </c>
+      <c r="B232" t="n">
+        <v>15</v>
+      </c>
+      <c r="C232" t="n">
+        <v>5</v>
+      </c>
+      <c r="D232" t="n">
+        <v>2</v>
+      </c>
+      <c r="E232" t="n">
+        <v>79</v>
+      </c>
+      <c r="F232" t="n">
+        <v>70</v>
+      </c>
+      <c r="G232" t="n">
+        <v>16</v>
+      </c>
+      <c r="H232" t="n">
+        <v>22</v>
+      </c>
+      <c r="I232" t="n">
+        <v>10</v>
+      </c>
+      <c r="J232" t="n">
+        <v>12</v>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="n">
+        <v>16</v>
+      </c>
+      <c r="M232" t="n">
+        <v>51</v>
+      </c>
+      <c r="N232" t="n">
+        <v>44</v>
+      </c>
+      <c r="O232" t="n">
+        <v>2</v>
+      </c>
+      <c r="P232" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R232" t="n">
+        <v>29</v>
+      </c>
+      <c r="S232" t="n">
+        <v>7</v>
+      </c>
+      <c r="T232" t="n">
+        <v>12</v>
+      </c>
+      <c r="U232" t="n">
+        <v>39</v>
+      </c>
+      <c r="V232" t="n">
+        <v>260</v>
+      </c>
+      <c r="W232" t="n">
+        <v>9</v>
+      </c>
+      <c r="X232" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>127</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1154</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="B233" t="n">
+        <v>21</v>
+      </c>
+      <c r="C233" t="n">
+        <v>5</v>
+      </c>
+      <c r="D233" t="n">
+        <v>4</v>
+      </c>
+      <c r="E233" t="n">
+        <v>78</v>
+      </c>
+      <c r="F233" t="n">
+        <v>73</v>
+      </c>
+      <c r="G233" t="n">
+        <v>15</v>
+      </c>
+      <c r="H233" t="n">
+        <v>22</v>
+      </c>
+      <c r="I233" t="n">
+        <v>10</v>
+      </c>
+      <c r="J233" t="n">
+        <v>13</v>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="n">
+        <v>15</v>
+      </c>
+      <c r="M233" t="n">
+        <v>52</v>
+      </c>
+      <c r="N233" t="n">
+        <v>40</v>
+      </c>
+      <c r="O233" t="n">
+        <v>2</v>
+      </c>
+      <c r="P233" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" t="n">
+        <v>30</v>
+      </c>
+      <c r="S233" t="n">
+        <v>7</v>
+      </c>
+      <c r="T233" t="n">
+        <v>12</v>
+      </c>
+      <c r="U233" t="n">
+        <v>38</v>
+      </c>
+      <c r="V233" t="n">
+        <v>259</v>
+      </c>
+      <c r="W233" t="n">
+        <v>9</v>
+      </c>
+      <c r="X233" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>37</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>127</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>52</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1165</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX233"/>
+  <dimension ref="A1:AX238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35295,6 +35295,766 @@
         <v>0</v>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>44308</v>
+      </c>
+      <c r="B234" t="n">
+        <v>24</v>
+      </c>
+      <c r="C234" t="n">
+        <v>4</v>
+      </c>
+      <c r="D234" t="n">
+        <v>6</v>
+      </c>
+      <c r="E234" t="n">
+        <v>77</v>
+      </c>
+      <c r="F234" t="n">
+        <v>65</v>
+      </c>
+      <c r="G234" t="n">
+        <v>16</v>
+      </c>
+      <c r="H234" t="n">
+        <v>18</v>
+      </c>
+      <c r="I234" t="n">
+        <v>7</v>
+      </c>
+      <c r="J234" t="n">
+        <v>12</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>9</v>
+      </c>
+      <c r="M234" t="n">
+        <v>53</v>
+      </c>
+      <c r="N234" t="n">
+        <v>43</v>
+      </c>
+      <c r="O234" t="n">
+        <v>1</v>
+      </c>
+      <c r="P234" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R234" t="n">
+        <v>37</v>
+      </c>
+      <c r="S234" t="n">
+        <v>8</v>
+      </c>
+      <c r="T234" t="n">
+        <v>12</v>
+      </c>
+      <c r="U234" t="n">
+        <v>37</v>
+      </c>
+      <c r="V234" t="n">
+        <v>255</v>
+      </c>
+      <c r="W234" t="n">
+        <v>11</v>
+      </c>
+      <c r="X234" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>125</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>49</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1160</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>44309</v>
+      </c>
+      <c r="B235" t="n">
+        <v>23</v>
+      </c>
+      <c r="C235" t="n">
+        <v>4</v>
+      </c>
+      <c r="D235" t="n">
+        <v>5</v>
+      </c>
+      <c r="E235" t="n">
+        <v>62</v>
+      </c>
+      <c r="F235" t="n">
+        <v>69</v>
+      </c>
+      <c r="G235" t="n">
+        <v>14</v>
+      </c>
+      <c r="H235" t="n">
+        <v>14</v>
+      </c>
+      <c r="I235" t="n">
+        <v>7</v>
+      </c>
+      <c r="J235" t="n">
+        <v>10</v>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="n">
+        <v>10</v>
+      </c>
+      <c r="M235" t="n">
+        <v>47</v>
+      </c>
+      <c r="N235" t="n">
+        <v>42</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1</v>
+      </c>
+      <c r="P235" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R235" t="n">
+        <v>48</v>
+      </c>
+      <c r="S235" t="n">
+        <v>7</v>
+      </c>
+      <c r="T235" t="n">
+        <v>8</v>
+      </c>
+      <c r="U235" t="n">
+        <v>32</v>
+      </c>
+      <c r="V235" t="n">
+        <v>260</v>
+      </c>
+      <c r="W235" t="n">
+        <v>7</v>
+      </c>
+      <c r="X235" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>122</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1134</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>44310</v>
+      </c>
+      <c r="B236" t="n">
+        <v>23</v>
+      </c>
+      <c r="C236" t="n">
+        <v>6</v>
+      </c>
+      <c r="D236" t="n">
+        <v>6</v>
+      </c>
+      <c r="E236" t="n">
+        <v>62</v>
+      </c>
+      <c r="F236" t="n">
+        <v>67</v>
+      </c>
+      <c r="G236" t="n">
+        <v>7</v>
+      </c>
+      <c r="H236" t="n">
+        <v>17</v>
+      </c>
+      <c r="I236" t="n">
+        <v>7</v>
+      </c>
+      <c r="J236" t="n">
+        <v>8</v>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="n">
+        <v>9</v>
+      </c>
+      <c r="M236" t="n">
+        <v>49</v>
+      </c>
+      <c r="N236" t="n">
+        <v>41</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1</v>
+      </c>
+      <c r="P236" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>0</v>
+      </c>
+      <c r="R236" t="n">
+        <v>53</v>
+      </c>
+      <c r="S236" t="n">
+        <v>8</v>
+      </c>
+      <c r="T236" t="n">
+        <v>9</v>
+      </c>
+      <c r="U236" t="n">
+        <v>25</v>
+      </c>
+      <c r="V236" t="n">
+        <v>248</v>
+      </c>
+      <c r="W236" t="n">
+        <v>5</v>
+      </c>
+      <c r="X236" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>112</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>31</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1090</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>44311</v>
+      </c>
+      <c r="B237" t="n">
+        <v>26</v>
+      </c>
+      <c r="C237" t="n">
+        <v>7</v>
+      </c>
+      <c r="D237" t="n">
+        <v>11</v>
+      </c>
+      <c r="E237" t="n">
+        <v>70</v>
+      </c>
+      <c r="F237" t="n">
+        <v>58</v>
+      </c>
+      <c r="G237" t="n">
+        <v>6</v>
+      </c>
+      <c r="H237" t="n">
+        <v>16</v>
+      </c>
+      <c r="I237" t="n">
+        <v>5</v>
+      </c>
+      <c r="J237" t="n">
+        <v>8</v>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="n">
+        <v>8</v>
+      </c>
+      <c r="M237" t="n">
+        <v>41</v>
+      </c>
+      <c r="N237" t="n">
+        <v>37</v>
+      </c>
+      <c r="O237" t="n">
+        <v>1</v>
+      </c>
+      <c r="P237" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R237" t="n">
+        <v>44</v>
+      </c>
+      <c r="S237" t="n">
+        <v>6</v>
+      </c>
+      <c r="T237" t="n">
+        <v>7</v>
+      </c>
+      <c r="U237" t="n">
+        <v>25</v>
+      </c>
+      <c r="V237" t="n">
+        <v>252</v>
+      </c>
+      <c r="W237" t="n">
+        <v>6</v>
+      </c>
+      <c r="X237" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>96</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1062</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="B238" t="n">
+        <v>30</v>
+      </c>
+      <c r="C238" t="n">
+        <v>7</v>
+      </c>
+      <c r="D238" t="n">
+        <v>10</v>
+      </c>
+      <c r="E238" t="n">
+        <v>67</v>
+      </c>
+      <c r="F238" t="n">
+        <v>59</v>
+      </c>
+      <c r="G238" t="n">
+        <v>7</v>
+      </c>
+      <c r="H238" t="n">
+        <v>18</v>
+      </c>
+      <c r="I238" t="n">
+        <v>5</v>
+      </c>
+      <c r="J238" t="n">
+        <v>13</v>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="n">
+        <v>9</v>
+      </c>
+      <c r="M238" t="n">
+        <v>35</v>
+      </c>
+      <c r="N238" t="n">
+        <v>39</v>
+      </c>
+      <c r="O238" t="n">
+        <v>1</v>
+      </c>
+      <c r="P238" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R238" t="n">
+        <v>46</v>
+      </c>
+      <c r="S238" t="n">
+        <v>4</v>
+      </c>
+      <c r="T238" t="n">
+        <v>7</v>
+      </c>
+      <c r="U238" t="n">
+        <v>24</v>
+      </c>
+      <c r="V238" t="n">
+        <v>254</v>
+      </c>
+      <c r="W238" t="n">
+        <v>9</v>
+      </c>
+      <c r="X238" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>96</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>61</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1062</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX238"/>
+  <dimension ref="A1:AX244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36055,6 +36055,918 @@
         <v>0</v>
       </c>
     </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>44313</v>
+      </c>
+      <c r="B239" t="n">
+        <v>29</v>
+      </c>
+      <c r="C239" t="n">
+        <v>7</v>
+      </c>
+      <c r="D239" t="n">
+        <v>10</v>
+      </c>
+      <c r="E239" t="n">
+        <v>68</v>
+      </c>
+      <c r="F239" t="n">
+        <v>57</v>
+      </c>
+      <c r="G239" t="n">
+        <v>7</v>
+      </c>
+      <c r="H239" t="n">
+        <v>21</v>
+      </c>
+      <c r="I239" t="n">
+        <v>6</v>
+      </c>
+      <c r="J239" t="n">
+        <v>11</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="n">
+        <v>9</v>
+      </c>
+      <c r="M239" t="n">
+        <v>32</v>
+      </c>
+      <c r="N239" t="n">
+        <v>43</v>
+      </c>
+      <c r="O239" t="n">
+        <v>1</v>
+      </c>
+      <c r="P239" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R239" t="n">
+        <v>55</v>
+      </c>
+      <c r="S239" t="n">
+        <v>6</v>
+      </c>
+      <c r="T239" t="n">
+        <v>9</v>
+      </c>
+      <c r="U239" t="n">
+        <v>28</v>
+      </c>
+      <c r="V239" t="n">
+        <v>249</v>
+      </c>
+      <c r="W239" t="n">
+        <v>9</v>
+      </c>
+      <c r="X239" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>94</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>61</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>1045</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="B240" t="n">
+        <v>23</v>
+      </c>
+      <c r="C240" t="n">
+        <v>7</v>
+      </c>
+      <c r="D240" t="n">
+        <v>8</v>
+      </c>
+      <c r="E240" t="n">
+        <v>68</v>
+      </c>
+      <c r="F240" t="n">
+        <v>53</v>
+      </c>
+      <c r="G240" t="n">
+        <v>8</v>
+      </c>
+      <c r="H240" t="n">
+        <v>21</v>
+      </c>
+      <c r="I240" t="n">
+        <v>6</v>
+      </c>
+      <c r="J240" t="n">
+        <v>12</v>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="n">
+        <v>9</v>
+      </c>
+      <c r="M240" t="n">
+        <v>27</v>
+      </c>
+      <c r="N240" t="n">
+        <v>43</v>
+      </c>
+      <c r="O240" t="n">
+        <v>1</v>
+      </c>
+      <c r="P240" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R240" t="n">
+        <v>49</v>
+      </c>
+      <c r="S240" t="n">
+        <v>6</v>
+      </c>
+      <c r="T240" t="n">
+        <v>9</v>
+      </c>
+      <c r="U240" t="n">
+        <v>29</v>
+      </c>
+      <c r="V240" t="n">
+        <v>258</v>
+      </c>
+      <c r="W240" t="n">
+        <v>10</v>
+      </c>
+      <c r="X240" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>82</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>59</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>1015</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>44315</v>
+      </c>
+      <c r="B241" t="n">
+        <v>24</v>
+      </c>
+      <c r="C241" t="n">
+        <v>9</v>
+      </c>
+      <c r="D241" t="n">
+        <v>6</v>
+      </c>
+      <c r="E241" t="n">
+        <v>71</v>
+      </c>
+      <c r="F241" t="n">
+        <v>54</v>
+      </c>
+      <c r="G241" t="n">
+        <v>7</v>
+      </c>
+      <c r="H241" t="n">
+        <v>21</v>
+      </c>
+      <c r="I241" t="n">
+        <v>6</v>
+      </c>
+      <c r="J241" t="n">
+        <v>13</v>
+      </c>
+      <c r="K241" t="n">
+        <v>2</v>
+      </c>
+      <c r="L241" t="n">
+        <v>14</v>
+      </c>
+      <c r="M241" t="n">
+        <v>28</v>
+      </c>
+      <c r="N241" t="n">
+        <v>42</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P241" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R241" t="n">
+        <v>43</v>
+      </c>
+      <c r="S241" t="n">
+        <v>5</v>
+      </c>
+      <c r="T241" t="n">
+        <v>11</v>
+      </c>
+      <c r="U241" t="n">
+        <v>28</v>
+      </c>
+      <c r="V241" t="n">
+        <v>237</v>
+      </c>
+      <c r="W241" t="n">
+        <v>15</v>
+      </c>
+      <c r="X241" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>78</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>58</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>989</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B242" t="n">
+        <v>31</v>
+      </c>
+      <c r="C242" t="n">
+        <v>8</v>
+      </c>
+      <c r="D242" t="n">
+        <v>6</v>
+      </c>
+      <c r="E242" t="n">
+        <v>92</v>
+      </c>
+      <c r="F242" t="n">
+        <v>44</v>
+      </c>
+      <c r="G242" t="n">
+        <v>8</v>
+      </c>
+      <c r="H242" t="n">
+        <v>21</v>
+      </c>
+      <c r="I242" t="n">
+        <v>9</v>
+      </c>
+      <c r="J242" t="n">
+        <v>13</v>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="n">
+        <v>13</v>
+      </c>
+      <c r="M242" t="n">
+        <v>33</v>
+      </c>
+      <c r="N242" t="n">
+        <v>44</v>
+      </c>
+      <c r="O242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P242" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>1</v>
+      </c>
+      <c r="R242" t="n">
+        <v>31</v>
+      </c>
+      <c r="S242" t="n">
+        <v>5</v>
+      </c>
+      <c r="T242" t="n">
+        <v>12</v>
+      </c>
+      <c r="U242" t="n">
+        <v>27</v>
+      </c>
+      <c r="V242" t="n">
+        <v>241</v>
+      </c>
+      <c r="W242" t="n">
+        <v>19</v>
+      </c>
+      <c r="X242" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>54</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>995</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>44317</v>
+      </c>
+      <c r="B243" t="n">
+        <v>34</v>
+      </c>
+      <c r="C243" t="n">
+        <v>6</v>
+      </c>
+      <c r="D243" t="n">
+        <v>5</v>
+      </c>
+      <c r="E243" t="n">
+        <v>94</v>
+      </c>
+      <c r="F243" t="n">
+        <v>43</v>
+      </c>
+      <c r="G243" t="n">
+        <v>12</v>
+      </c>
+      <c r="H243" t="n">
+        <v>18</v>
+      </c>
+      <c r="I243" t="n">
+        <v>11</v>
+      </c>
+      <c r="J243" t="n">
+        <v>14</v>
+      </c>
+      <c r="K243" t="n">
+        <v>2</v>
+      </c>
+      <c r="L243" t="n">
+        <v>14</v>
+      </c>
+      <c r="M243" t="n">
+        <v>28</v>
+      </c>
+      <c r="N243" t="n">
+        <v>44</v>
+      </c>
+      <c r="O243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P243" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>1</v>
+      </c>
+      <c r="R243" t="n">
+        <v>37</v>
+      </c>
+      <c r="S243" t="n">
+        <v>6</v>
+      </c>
+      <c r="T243" t="n">
+        <v>11</v>
+      </c>
+      <c r="U243" t="n">
+        <v>29</v>
+      </c>
+      <c r="V243" t="n">
+        <v>255</v>
+      </c>
+      <c r="W243" t="n">
+        <v>21</v>
+      </c>
+      <c r="X243" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>71</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>53</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1040</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>44318</v>
+      </c>
+      <c r="B244" t="n">
+        <v>34</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
+      <c r="E244" t="n">
+        <v>94</v>
+      </c>
+      <c r="F244" t="n">
+        <v>39</v>
+      </c>
+      <c r="G244" t="n">
+        <v>10</v>
+      </c>
+      <c r="H244" t="n">
+        <v>20</v>
+      </c>
+      <c r="I244" t="n">
+        <v>13</v>
+      </c>
+      <c r="J244" t="n">
+        <v>12</v>
+      </c>
+      <c r="K244" t="n">
+        <v>3</v>
+      </c>
+      <c r="L244" t="n">
+        <v>14</v>
+      </c>
+      <c r="M244" t="n">
+        <v>33</v>
+      </c>
+      <c r="N244" t="n">
+        <v>45</v>
+      </c>
+      <c r="O244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P244" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>2</v>
+      </c>
+      <c r="R244" t="n">
+        <v>41</v>
+      </c>
+      <c r="S244" t="n">
+        <v>7</v>
+      </c>
+      <c r="T244" t="n">
+        <v>9</v>
+      </c>
+      <c r="U244" t="n">
+        <v>26</v>
+      </c>
+      <c r="V244" t="n">
+        <v>247</v>
+      </c>
+      <c r="W244" t="n">
+        <v>20</v>
+      </c>
+      <c r="X244" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>83</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>1017</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX244"/>
+  <dimension ref="A1:AX247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36967,6 +36967,462 @@
         <v>0</v>
       </c>
     </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="B245" t="n">
+        <v>30</v>
+      </c>
+      <c r="C245" t="n">
+        <v>4</v>
+      </c>
+      <c r="D245" t="n">
+        <v>2</v>
+      </c>
+      <c r="E245" t="n">
+        <v>98</v>
+      </c>
+      <c r="F245" t="n">
+        <v>34</v>
+      </c>
+      <c r="G245" t="n">
+        <v>13</v>
+      </c>
+      <c r="H245" t="n">
+        <v>18</v>
+      </c>
+      <c r="I245" t="n">
+        <v>14</v>
+      </c>
+      <c r="J245" t="n">
+        <v>8</v>
+      </c>
+      <c r="K245" t="n">
+        <v>4</v>
+      </c>
+      <c r="L245" t="n">
+        <v>13</v>
+      </c>
+      <c r="M245" t="n">
+        <v>31</v>
+      </c>
+      <c r="N245" t="n">
+        <v>40</v>
+      </c>
+      <c r="O245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P245" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>3</v>
+      </c>
+      <c r="R245" t="n">
+        <v>34</v>
+      </c>
+      <c r="S245" t="n">
+        <v>7</v>
+      </c>
+      <c r="T245" t="n">
+        <v>11</v>
+      </c>
+      <c r="U245" t="n">
+        <v>27</v>
+      </c>
+      <c r="V245" t="n">
+        <v>217</v>
+      </c>
+      <c r="W245" t="n">
+        <v>17</v>
+      </c>
+      <c r="X245" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>74</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>964</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>44320</v>
+      </c>
+      <c r="B246" t="n">
+        <v>29</v>
+      </c>
+      <c r="C246" t="n">
+        <v>4</v>
+      </c>
+      <c r="D246" t="n">
+        <v>2</v>
+      </c>
+      <c r="E246" t="n">
+        <v>87</v>
+      </c>
+      <c r="F246" t="n">
+        <v>30</v>
+      </c>
+      <c r="G246" t="n">
+        <v>14</v>
+      </c>
+      <c r="H246" t="n">
+        <v>12</v>
+      </c>
+      <c r="I246" t="n">
+        <v>13</v>
+      </c>
+      <c r="J246" t="n">
+        <v>8</v>
+      </c>
+      <c r="K246" t="n">
+        <v>4</v>
+      </c>
+      <c r="L246" t="n">
+        <v>13</v>
+      </c>
+      <c r="M246" t="n">
+        <v>30</v>
+      </c>
+      <c r="N246" t="n">
+        <v>34</v>
+      </c>
+      <c r="O246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P246" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>3</v>
+      </c>
+      <c r="R246" t="n">
+        <v>23</v>
+      </c>
+      <c r="S246" t="n">
+        <v>5</v>
+      </c>
+      <c r="T246" t="n">
+        <v>9</v>
+      </c>
+      <c r="U246" t="n">
+        <v>23</v>
+      </c>
+      <c r="V246" t="n">
+        <v>219</v>
+      </c>
+      <c r="W246" t="n">
+        <v>17</v>
+      </c>
+      <c r="X246" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>70</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>897</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="B247" t="n">
+        <v>29</v>
+      </c>
+      <c r="C247" t="n">
+        <v>4</v>
+      </c>
+      <c r="D247" t="n">
+        <v>2</v>
+      </c>
+      <c r="E247" t="n">
+        <v>86</v>
+      </c>
+      <c r="F247" t="n">
+        <v>29</v>
+      </c>
+      <c r="G247" t="n">
+        <v>14</v>
+      </c>
+      <c r="H247" t="n">
+        <v>14</v>
+      </c>
+      <c r="I247" t="n">
+        <v>14</v>
+      </c>
+      <c r="J247" t="n">
+        <v>6</v>
+      </c>
+      <c r="K247" t="n">
+        <v>4</v>
+      </c>
+      <c r="L247" t="n">
+        <v>12</v>
+      </c>
+      <c r="M247" t="n">
+        <v>32</v>
+      </c>
+      <c r="N247" t="n">
+        <v>32</v>
+      </c>
+      <c r="O247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P247" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>3</v>
+      </c>
+      <c r="R247" t="n">
+        <v>22</v>
+      </c>
+      <c r="S247" t="n">
+        <v>5</v>
+      </c>
+      <c r="T247" t="n">
+        <v>9</v>
+      </c>
+      <c r="U247" t="n">
+        <v>23</v>
+      </c>
+      <c r="V247" t="n">
+        <v>210</v>
+      </c>
+      <c r="W247" t="n">
+        <v>16</v>
+      </c>
+      <c r="X247" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>73</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>883</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX247"/>
+  <dimension ref="A1:AX249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37423,6 +37423,310 @@
         <v>0</v>
       </c>
     </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44322</v>
+      </c>
+      <c r="B248" t="n">
+        <v>29</v>
+      </c>
+      <c r="C248" t="n">
+        <v>3</v>
+      </c>
+      <c r="D248" t="n">
+        <v>2</v>
+      </c>
+      <c r="E248" t="n">
+        <v>87</v>
+      </c>
+      <c r="F248" t="n">
+        <v>40</v>
+      </c>
+      <c r="G248" t="n">
+        <v>13</v>
+      </c>
+      <c r="H248" t="n">
+        <v>15</v>
+      </c>
+      <c r="I248" t="n">
+        <v>16</v>
+      </c>
+      <c r="J248" t="n">
+        <v>9</v>
+      </c>
+      <c r="K248" t="n">
+        <v>4</v>
+      </c>
+      <c r="L248" t="n">
+        <v>8</v>
+      </c>
+      <c r="M248" t="n">
+        <v>33</v>
+      </c>
+      <c r="N248" t="n">
+        <v>29</v>
+      </c>
+      <c r="O248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P248" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>3</v>
+      </c>
+      <c r="R248" t="n">
+        <v>28</v>
+      </c>
+      <c r="S248" t="n">
+        <v>7</v>
+      </c>
+      <c r="T248" t="n">
+        <v>11</v>
+      </c>
+      <c r="U248" t="n">
+        <v>21</v>
+      </c>
+      <c r="V248" t="n">
+        <v>214</v>
+      </c>
+      <c r="W248" t="n">
+        <v>12</v>
+      </c>
+      <c r="X248" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>73</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>913</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="B249" t="n">
+        <v>25</v>
+      </c>
+      <c r="C249" t="n">
+        <v>4</v>
+      </c>
+      <c r="D249" t="n">
+        <v>2</v>
+      </c>
+      <c r="E249" t="n">
+        <v>74</v>
+      </c>
+      <c r="F249" t="n">
+        <v>37</v>
+      </c>
+      <c r="G249" t="n">
+        <v>15</v>
+      </c>
+      <c r="H249" t="n">
+        <v>15</v>
+      </c>
+      <c r="I249" t="n">
+        <v>11</v>
+      </c>
+      <c r="J249" t="n">
+        <v>9</v>
+      </c>
+      <c r="K249" t="n">
+        <v>4</v>
+      </c>
+      <c r="L249" t="n">
+        <v>11</v>
+      </c>
+      <c r="M249" t="n">
+        <v>27</v>
+      </c>
+      <c r="N249" t="n">
+        <v>26</v>
+      </c>
+      <c r="O249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P249" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>2</v>
+      </c>
+      <c r="R249" t="n">
+        <v>33</v>
+      </c>
+      <c r="S249" t="n">
+        <v>7</v>
+      </c>
+      <c r="T249" t="n">
+        <v>10</v>
+      </c>
+      <c r="U249" t="n">
+        <v>19</v>
+      </c>
+      <c r="V249" t="n">
+        <v>231</v>
+      </c>
+      <c r="W249" t="n">
+        <v>8</v>
+      </c>
+      <c r="X249" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>70</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>31</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>894</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX249"/>
+  <dimension ref="A1:AX251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37727,6 +37727,310 @@
         <v>0</v>
       </c>
     </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44324</v>
+      </c>
+      <c r="B250" t="n">
+        <v>19</v>
+      </c>
+      <c r="C250" t="n">
+        <v>4</v>
+      </c>
+      <c r="D250" t="n">
+        <v>2</v>
+      </c>
+      <c r="E250" t="n">
+        <v>70</v>
+      </c>
+      <c r="F250" t="n">
+        <v>42</v>
+      </c>
+      <c r="G250" t="n">
+        <v>13</v>
+      </c>
+      <c r="H250" t="n">
+        <v>14</v>
+      </c>
+      <c r="I250" t="n">
+        <v>12</v>
+      </c>
+      <c r="J250" t="n">
+        <v>8</v>
+      </c>
+      <c r="K250" t="n">
+        <v>3</v>
+      </c>
+      <c r="L250" t="n">
+        <v>10</v>
+      </c>
+      <c r="M250" t="n">
+        <v>25</v>
+      </c>
+      <c r="N250" t="n">
+        <v>24</v>
+      </c>
+      <c r="O250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>2</v>
+      </c>
+      <c r="R250" t="n">
+        <v>28</v>
+      </c>
+      <c r="S250" t="n">
+        <v>5</v>
+      </c>
+      <c r="T250" t="n">
+        <v>9</v>
+      </c>
+      <c r="U250" t="n">
+        <v>17</v>
+      </c>
+      <c r="V250" t="n">
+        <v>205</v>
+      </c>
+      <c r="W250" t="n">
+        <v>8</v>
+      </c>
+      <c r="X250" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>62</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>802</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44325</v>
+      </c>
+      <c r="B251" t="n">
+        <v>16</v>
+      </c>
+      <c r="C251" t="n">
+        <v>4</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1</v>
+      </c>
+      <c r="E251" t="n">
+        <v>67</v>
+      </c>
+      <c r="F251" t="n">
+        <v>43</v>
+      </c>
+      <c r="G251" t="n">
+        <v>12</v>
+      </c>
+      <c r="H251" t="n">
+        <v>15</v>
+      </c>
+      <c r="I251" t="n">
+        <v>10</v>
+      </c>
+      <c r="J251" t="n">
+        <v>7</v>
+      </c>
+      <c r="K251" t="n">
+        <v>3</v>
+      </c>
+      <c r="L251" t="n">
+        <v>7</v>
+      </c>
+      <c r="M251" t="n">
+        <v>20</v>
+      </c>
+      <c r="N251" t="n">
+        <v>22</v>
+      </c>
+      <c r="O251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>1</v>
+      </c>
+      <c r="R251" t="n">
+        <v>25</v>
+      </c>
+      <c r="S251" t="n">
+        <v>5</v>
+      </c>
+      <c r="T251" t="n">
+        <v>8</v>
+      </c>
+      <c r="U251" t="n">
+        <v>21</v>
+      </c>
+      <c r="V251" t="n">
+        <v>203</v>
+      </c>
+      <c r="W251" t="n">
+        <v>8</v>
+      </c>
+      <c r="X251" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>54</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>766</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX251"/>
+  <dimension ref="A1:AX255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38031,6 +38031,614 @@
         <v>0</v>
       </c>
     </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="B252" t="n">
+        <v>17</v>
+      </c>
+      <c r="C252" t="n">
+        <v>4</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" t="n">
+        <v>66</v>
+      </c>
+      <c r="F252" t="n">
+        <v>43</v>
+      </c>
+      <c r="G252" t="n">
+        <v>8</v>
+      </c>
+      <c r="H252" t="n">
+        <v>15</v>
+      </c>
+      <c r="I252" t="n">
+        <v>8</v>
+      </c>
+      <c r="J252" t="n">
+        <v>5</v>
+      </c>
+      <c r="K252" t="n">
+        <v>2</v>
+      </c>
+      <c r="L252" t="n">
+        <v>8</v>
+      </c>
+      <c r="M252" t="n">
+        <v>17</v>
+      </c>
+      <c r="N252" t="n">
+        <v>21</v>
+      </c>
+      <c r="O252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P252" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R252" t="n">
+        <v>26</v>
+      </c>
+      <c r="S252" t="n">
+        <v>5</v>
+      </c>
+      <c r="T252" t="n">
+        <v>10</v>
+      </c>
+      <c r="U252" t="n">
+        <v>16</v>
+      </c>
+      <c r="V252" t="n">
+        <v>211</v>
+      </c>
+      <c r="W252" t="n">
+        <v>8</v>
+      </c>
+      <c r="X252" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>56</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>752</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44327</v>
+      </c>
+      <c r="B253" t="n">
+        <v>18</v>
+      </c>
+      <c r="C253" t="n">
+        <v>3</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0</v>
+      </c>
+      <c r="E253" t="n">
+        <v>72</v>
+      </c>
+      <c r="F253" t="n">
+        <v>40</v>
+      </c>
+      <c r="G253" t="n">
+        <v>7</v>
+      </c>
+      <c r="H253" t="n">
+        <v>16</v>
+      </c>
+      <c r="I253" t="n">
+        <v>8</v>
+      </c>
+      <c r="J253" t="n">
+        <v>6</v>
+      </c>
+      <c r="K253" t="n">
+        <v>3</v>
+      </c>
+      <c r="L253" t="n">
+        <v>8</v>
+      </c>
+      <c r="M253" t="n">
+        <v>17</v>
+      </c>
+      <c r="N253" t="n">
+        <v>22</v>
+      </c>
+      <c r="O253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P253" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R253" t="n">
+        <v>30</v>
+      </c>
+      <c r="S253" t="n">
+        <v>6</v>
+      </c>
+      <c r="T253" t="n">
+        <v>11</v>
+      </c>
+      <c r="U253" t="n">
+        <v>15</v>
+      </c>
+      <c r="V253" t="n">
+        <v>209</v>
+      </c>
+      <c r="W253" t="n">
+        <v>8</v>
+      </c>
+      <c r="X253" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>770</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44328</v>
+      </c>
+      <c r="B254" t="n">
+        <v>18</v>
+      </c>
+      <c r="C254" t="n">
+        <v>3</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="n">
+        <v>71</v>
+      </c>
+      <c r="F254" t="n">
+        <v>41</v>
+      </c>
+      <c r="G254" t="n">
+        <v>6</v>
+      </c>
+      <c r="H254" t="n">
+        <v>14</v>
+      </c>
+      <c r="I254" t="n">
+        <v>7</v>
+      </c>
+      <c r="J254" t="n">
+        <v>6</v>
+      </c>
+      <c r="K254" t="n">
+        <v>3</v>
+      </c>
+      <c r="L254" t="n">
+        <v>8</v>
+      </c>
+      <c r="M254" t="n">
+        <v>14</v>
+      </c>
+      <c r="N254" t="n">
+        <v>24</v>
+      </c>
+      <c r="O254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P254" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>1</v>
+      </c>
+      <c r="R254" t="n">
+        <v>30</v>
+      </c>
+      <c r="S254" t="n">
+        <v>6</v>
+      </c>
+      <c r="T254" t="n">
+        <v>12</v>
+      </c>
+      <c r="U254" t="n">
+        <v>15</v>
+      </c>
+      <c r="V254" t="n">
+        <v>211</v>
+      </c>
+      <c r="W254" t="n">
+        <v>8</v>
+      </c>
+      <c r="X254" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>49</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>759</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B255" t="n">
+        <v>13</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+      <c r="E255" t="n">
+        <v>76</v>
+      </c>
+      <c r="F255" t="n">
+        <v>26</v>
+      </c>
+      <c r="G255" t="n">
+        <v>10</v>
+      </c>
+      <c r="H255" t="n">
+        <v>14</v>
+      </c>
+      <c r="I255" t="n">
+        <v>4</v>
+      </c>
+      <c r="J255" t="n">
+        <v>3</v>
+      </c>
+      <c r="K255" t="n">
+        <v>2</v>
+      </c>
+      <c r="L255" t="n">
+        <v>9</v>
+      </c>
+      <c r="M255" t="n">
+        <v>8</v>
+      </c>
+      <c r="N255" t="n">
+        <v>24</v>
+      </c>
+      <c r="O255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P255" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>1</v>
+      </c>
+      <c r="R255" t="n">
+        <v>23</v>
+      </c>
+      <c r="S255" t="n">
+        <v>4</v>
+      </c>
+      <c r="T255" t="n">
+        <v>8</v>
+      </c>
+      <c r="U255" t="n">
+        <v>16</v>
+      </c>
+      <c r="V255" t="n">
+        <v>223</v>
+      </c>
+      <c r="W255" t="n">
+        <v>6</v>
+      </c>
+      <c r="X255" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>695</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX255"/>
+  <dimension ref="A1:AX269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38639,6 +38639,2134 @@
         <v>0</v>
       </c>
     </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44330</v>
+      </c>
+      <c r="B256" t="n">
+        <v>11</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" t="n">
+        <v>66</v>
+      </c>
+      <c r="F256" t="n">
+        <v>28</v>
+      </c>
+      <c r="G256" t="n">
+        <v>8</v>
+      </c>
+      <c r="H256" t="n">
+        <v>12</v>
+      </c>
+      <c r="I256" t="n">
+        <v>7</v>
+      </c>
+      <c r="J256" t="n">
+        <v>7</v>
+      </c>
+      <c r="K256" t="n">
+        <v>2</v>
+      </c>
+      <c r="L256" t="n">
+        <v>6</v>
+      </c>
+      <c r="M256" t="n">
+        <v>9</v>
+      </c>
+      <c r="N256" t="n">
+        <v>23</v>
+      </c>
+      <c r="O256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P256" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>1</v>
+      </c>
+      <c r="R256" t="n">
+        <v>16</v>
+      </c>
+      <c r="S256" t="n">
+        <v>3</v>
+      </c>
+      <c r="T256" t="n">
+        <v>9</v>
+      </c>
+      <c r="U256" t="n">
+        <v>16</v>
+      </c>
+      <c r="V256" t="n">
+        <v>204</v>
+      </c>
+      <c r="W256" t="n">
+        <v>5</v>
+      </c>
+      <c r="X256" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>43</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL256" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>627</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44331</v>
+      </c>
+      <c r="B257" t="n">
+        <v>14</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+      <c r="E257" t="n">
+        <v>59</v>
+      </c>
+      <c r="F257" t="n">
+        <v>20</v>
+      </c>
+      <c r="G257" t="n">
+        <v>6</v>
+      </c>
+      <c r="H257" t="n">
+        <v>10</v>
+      </c>
+      <c r="I257" t="n">
+        <v>4</v>
+      </c>
+      <c r="J257" t="n">
+        <v>8</v>
+      </c>
+      <c r="K257" t="n">
+        <v>2</v>
+      </c>
+      <c r="L257" t="n">
+        <v>6</v>
+      </c>
+      <c r="M257" t="n">
+        <v>11</v>
+      </c>
+      <c r="N257" t="n">
+        <v>21</v>
+      </c>
+      <c r="O257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P257" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>1</v>
+      </c>
+      <c r="R257" t="n">
+        <v>10</v>
+      </c>
+      <c r="S257" t="n">
+        <v>4</v>
+      </c>
+      <c r="T257" t="n">
+        <v>9</v>
+      </c>
+      <c r="U257" t="n">
+        <v>12</v>
+      </c>
+      <c r="V257" t="n">
+        <v>207</v>
+      </c>
+      <c r="W257" t="n">
+        <v>3</v>
+      </c>
+      <c r="X257" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI257" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK257" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL257" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP257" t="n">
+        <v>599</v>
+      </c>
+      <c r="AQ257" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW257" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44332</v>
+      </c>
+      <c r="B258" t="n">
+        <v>14</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" t="n">
+        <v>61</v>
+      </c>
+      <c r="F258" t="n">
+        <v>19</v>
+      </c>
+      <c r="G258" t="n">
+        <v>7</v>
+      </c>
+      <c r="H258" t="n">
+        <v>8</v>
+      </c>
+      <c r="I258" t="n">
+        <v>3</v>
+      </c>
+      <c r="J258" t="n">
+        <v>10</v>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="n">
+        <v>8</v>
+      </c>
+      <c r="M258" t="n">
+        <v>10</v>
+      </c>
+      <c r="N258" t="n">
+        <v>22</v>
+      </c>
+      <c r="O258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P258" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>1</v>
+      </c>
+      <c r="R258" t="n">
+        <v>8</v>
+      </c>
+      <c r="S258" t="n">
+        <v>3</v>
+      </c>
+      <c r="T258" t="n">
+        <v>9</v>
+      </c>
+      <c r="U258" t="n">
+        <v>7</v>
+      </c>
+      <c r="V258" t="n">
+        <v>213</v>
+      </c>
+      <c r="W258" t="n">
+        <v>3</v>
+      </c>
+      <c r="X258" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>589</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW258" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44333</v>
+      </c>
+      <c r="B259" t="n">
+        <v>12</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+      <c r="E259" t="n">
+        <v>56</v>
+      </c>
+      <c r="F259" t="n">
+        <v>20</v>
+      </c>
+      <c r="G259" t="n">
+        <v>6</v>
+      </c>
+      <c r="H259" t="n">
+        <v>8</v>
+      </c>
+      <c r="I259" t="n">
+        <v>3</v>
+      </c>
+      <c r="J259" t="n">
+        <v>12</v>
+      </c>
+      <c r="K259" t="n">
+        <v>2</v>
+      </c>
+      <c r="L259" t="n">
+        <v>7</v>
+      </c>
+      <c r="M259" t="n">
+        <v>10</v>
+      </c>
+      <c r="N259" t="n">
+        <v>31</v>
+      </c>
+      <c r="O259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P259" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>1</v>
+      </c>
+      <c r="R259" t="n">
+        <v>9</v>
+      </c>
+      <c r="S259" t="n">
+        <v>3</v>
+      </c>
+      <c r="T259" t="n">
+        <v>4</v>
+      </c>
+      <c r="U259" t="n">
+        <v>9</v>
+      </c>
+      <c r="V259" t="n">
+        <v>210</v>
+      </c>
+      <c r="W259" t="n">
+        <v>3</v>
+      </c>
+      <c r="X259" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL259" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP259" t="n">
+        <v>584</v>
+      </c>
+      <c r="AQ259" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT259" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW259" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="B260" t="n">
+        <v>11</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="n">
+        <v>50</v>
+      </c>
+      <c r="F260" t="n">
+        <v>20</v>
+      </c>
+      <c r="G260" t="n">
+        <v>6</v>
+      </c>
+      <c r="H260" t="n">
+        <v>7</v>
+      </c>
+      <c r="I260" t="n">
+        <v>3</v>
+      </c>
+      <c r="J260" t="n">
+        <v>15</v>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="n">
+        <v>6</v>
+      </c>
+      <c r="M260" t="n">
+        <v>10</v>
+      </c>
+      <c r="N260" t="n">
+        <v>32</v>
+      </c>
+      <c r="O260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P260" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>1</v>
+      </c>
+      <c r="R260" t="n">
+        <v>5</v>
+      </c>
+      <c r="S260" t="n">
+        <v>2</v>
+      </c>
+      <c r="T260" t="n">
+        <v>4</v>
+      </c>
+      <c r="U260" t="n">
+        <v>10</v>
+      </c>
+      <c r="V260" t="n">
+        <v>217</v>
+      </c>
+      <c r="W260" t="n">
+        <v>3</v>
+      </c>
+      <c r="X260" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>570</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="B261" t="n">
+        <v>11</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" t="n">
+        <v>50</v>
+      </c>
+      <c r="F261" t="n">
+        <v>19</v>
+      </c>
+      <c r="G261" t="n">
+        <v>7</v>
+      </c>
+      <c r="H261" t="n">
+        <v>8</v>
+      </c>
+      <c r="I261" t="n">
+        <v>4</v>
+      </c>
+      <c r="J261" t="n">
+        <v>15</v>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="n">
+        <v>6</v>
+      </c>
+      <c r="M261" t="n">
+        <v>10</v>
+      </c>
+      <c r="N261" t="n">
+        <v>31</v>
+      </c>
+      <c r="O261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P261" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R261" t="n">
+        <v>6</v>
+      </c>
+      <c r="S261" t="n">
+        <v>2</v>
+      </c>
+      <c r="T261" t="n">
+        <v>3</v>
+      </c>
+      <c r="U261" t="n">
+        <v>10</v>
+      </c>
+      <c r="V261" t="n">
+        <v>208</v>
+      </c>
+      <c r="W261" t="n">
+        <v>3</v>
+      </c>
+      <c r="X261" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>565</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B262" t="n">
+        <v>11</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
+      <c r="E262" t="n">
+        <v>54</v>
+      </c>
+      <c r="F262" t="n">
+        <v>18</v>
+      </c>
+      <c r="G262" t="n">
+        <v>3</v>
+      </c>
+      <c r="H262" t="n">
+        <v>5</v>
+      </c>
+      <c r="I262" t="n">
+        <v>4</v>
+      </c>
+      <c r="J262" t="n">
+        <v>14</v>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="n">
+        <v>3</v>
+      </c>
+      <c r="M262" t="n">
+        <v>12</v>
+      </c>
+      <c r="N262" t="n">
+        <v>31</v>
+      </c>
+      <c r="O262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P262" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R262" t="n">
+        <v>9</v>
+      </c>
+      <c r="S262" t="n">
+        <v>2</v>
+      </c>
+      <c r="T262" t="n">
+        <v>5</v>
+      </c>
+      <c r="U262" t="n">
+        <v>8</v>
+      </c>
+      <c r="V262" t="n">
+        <v>203</v>
+      </c>
+      <c r="W262" t="n">
+        <v>2</v>
+      </c>
+      <c r="X262" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>554</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44337</v>
+      </c>
+      <c r="B263" t="n">
+        <v>9</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" t="n">
+        <v>52</v>
+      </c>
+      <c r="F263" t="n">
+        <v>17</v>
+      </c>
+      <c r="G263" t="n">
+        <v>3</v>
+      </c>
+      <c r="H263" t="n">
+        <v>8</v>
+      </c>
+      <c r="I263" t="n">
+        <v>1</v>
+      </c>
+      <c r="J263" t="n">
+        <v>9</v>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="n">
+        <v>5</v>
+      </c>
+      <c r="M263" t="n">
+        <v>9</v>
+      </c>
+      <c r="N263" t="n">
+        <v>28</v>
+      </c>
+      <c r="O263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P263" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R263" t="n">
+        <v>9</v>
+      </c>
+      <c r="S263" t="n">
+        <v>2</v>
+      </c>
+      <c r="T263" t="n">
+        <v>4</v>
+      </c>
+      <c r="U263" t="n">
+        <v>7</v>
+      </c>
+      <c r="V263" t="n">
+        <v>199</v>
+      </c>
+      <c r="W263" t="n">
+        <v>2</v>
+      </c>
+      <c r="X263" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>514</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44338</v>
+      </c>
+      <c r="B264" t="n">
+        <v>5</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" t="n">
+        <v>53</v>
+      </c>
+      <c r="F264" t="n">
+        <v>19</v>
+      </c>
+      <c r="G264" t="n">
+        <v>3</v>
+      </c>
+      <c r="H264" t="n">
+        <v>7</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1</v>
+      </c>
+      <c r="J264" t="n">
+        <v>8</v>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="n">
+        <v>5</v>
+      </c>
+      <c r="M264" t="n">
+        <v>5</v>
+      </c>
+      <c r="N264" t="n">
+        <v>28</v>
+      </c>
+      <c r="O264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P264" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R264" t="n">
+        <v>9</v>
+      </c>
+      <c r="S264" t="n">
+        <v>1</v>
+      </c>
+      <c r="T264" t="n">
+        <v>4</v>
+      </c>
+      <c r="U264" t="n">
+        <v>7</v>
+      </c>
+      <c r="V264" t="n">
+        <v>197</v>
+      </c>
+      <c r="W264" t="n">
+        <v>1</v>
+      </c>
+      <c r="X264" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>495</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44339</v>
+      </c>
+      <c r="B265" t="n">
+        <v>3</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
+      <c r="E265" t="n">
+        <v>40</v>
+      </c>
+      <c r="F265" t="n">
+        <v>14</v>
+      </c>
+      <c r="G265" t="n">
+        <v>3</v>
+      </c>
+      <c r="H265" t="n">
+        <v>5</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1</v>
+      </c>
+      <c r="J265" t="n">
+        <v>6</v>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="n">
+        <v>3</v>
+      </c>
+      <c r="M265" t="n">
+        <v>5</v>
+      </c>
+      <c r="N265" t="n">
+        <v>30</v>
+      </c>
+      <c r="O265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P265" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R265" t="n">
+        <v>9</v>
+      </c>
+      <c r="S265" t="n">
+        <v>0</v>
+      </c>
+      <c r="T265" t="n">
+        <v>4</v>
+      </c>
+      <c r="U265" t="n">
+        <v>7</v>
+      </c>
+      <c r="V265" t="n">
+        <v>162</v>
+      </c>
+      <c r="W265" t="n">
+        <v>0</v>
+      </c>
+      <c r="X265" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>425</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44340</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+      <c r="E266" t="n">
+        <v>42</v>
+      </c>
+      <c r="F266" t="n">
+        <v>15</v>
+      </c>
+      <c r="G266" t="n">
+        <v>3</v>
+      </c>
+      <c r="H266" t="n">
+        <v>5</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1</v>
+      </c>
+      <c r="J266" t="n">
+        <v>4</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>3</v>
+      </c>
+      <c r="M266" t="n">
+        <v>5</v>
+      </c>
+      <c r="N266" t="n">
+        <v>19</v>
+      </c>
+      <c r="O266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R266" t="n">
+        <v>8</v>
+      </c>
+      <c r="S266" t="n">
+        <v>0</v>
+      </c>
+      <c r="T266" t="n">
+        <v>4</v>
+      </c>
+      <c r="U266" t="n">
+        <v>9</v>
+      </c>
+      <c r="V266" t="n">
+        <v>159</v>
+      </c>
+      <c r="W266" t="n">
+        <v>0</v>
+      </c>
+      <c r="X266" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>398</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44341</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+      <c r="E267" t="n">
+        <v>41</v>
+      </c>
+      <c r="F267" t="n">
+        <v>18</v>
+      </c>
+      <c r="G267" t="n">
+        <v>3</v>
+      </c>
+      <c r="H267" t="n">
+        <v>4</v>
+      </c>
+      <c r="I267" t="n">
+        <v>1</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
+        <v>3</v>
+      </c>
+      <c r="M267" t="n">
+        <v>4</v>
+      </c>
+      <c r="N267" t="n">
+        <v>18</v>
+      </c>
+      <c r="O267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R267" t="n">
+        <v>7</v>
+      </c>
+      <c r="S267" t="n">
+        <v>0</v>
+      </c>
+      <c r="T267" t="n">
+        <v>3</v>
+      </c>
+      <c r="U267" t="n">
+        <v>10</v>
+      </c>
+      <c r="V267" t="n">
+        <v>147</v>
+      </c>
+      <c r="W267" t="n">
+        <v>0</v>
+      </c>
+      <c r="X267" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B268" t="n">
+        <v>2</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+      <c r="E268" t="n">
+        <v>43</v>
+      </c>
+      <c r="F268" t="n">
+        <v>19</v>
+      </c>
+      <c r="G268" t="n">
+        <v>2</v>
+      </c>
+      <c r="H268" t="n">
+        <v>4</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>3</v>
+      </c>
+      <c r="M268" t="n">
+        <v>8</v>
+      </c>
+      <c r="N268" t="n">
+        <v>18</v>
+      </c>
+      <c r="O268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R268" t="n">
+        <v>8</v>
+      </c>
+      <c r="S268" t="n">
+        <v>0</v>
+      </c>
+      <c r="T268" t="n">
+        <v>3</v>
+      </c>
+      <c r="U268" t="n">
+        <v>9</v>
+      </c>
+      <c r="V268" t="n">
+        <v>149</v>
+      </c>
+      <c r="W268" t="n">
+        <v>0</v>
+      </c>
+      <c r="X268" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>368</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1</v>
+      </c>
+      <c r="E269" t="n">
+        <v>26</v>
+      </c>
+      <c r="F269" t="n">
+        <v>23</v>
+      </c>
+      <c r="G269" t="n">
+        <v>2</v>
+      </c>
+      <c r="H269" t="n">
+        <v>6</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" t="n">
+        <v>3</v>
+      </c>
+      <c r="M269" t="n">
+        <v>5</v>
+      </c>
+      <c r="N269" t="n">
+        <v>19</v>
+      </c>
+      <c r="O269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R269" t="n">
+        <v>6</v>
+      </c>
+      <c r="S269" t="n">
+        <v>0</v>
+      </c>
+      <c r="T269" t="n">
+        <v>0</v>
+      </c>
+      <c r="U269" t="n">
+        <v>10</v>
+      </c>
+      <c r="V269" t="n">
+        <v>125</v>
+      </c>
+      <c r="W269" t="n">
+        <v>0</v>
+      </c>
+      <c r="X269" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE269" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI269" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK269" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL269" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM269" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN269" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO269" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP269" t="n">
+        <v>308</v>
+      </c>
+      <c r="AQ269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX269" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX301"/>
+  <dimension ref="A1:AX328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45631,6 +45631,4110 @@
         <v>0</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="B302" t="n">
+        <v>1</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1</v>
+      </c>
+      <c r="F302" t="n">
+        <v>2</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N302" t="n">
+        <v>5</v>
+      </c>
+      <c r="O302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R302" t="n">
+        <v>15</v>
+      </c>
+      <c r="S302" t="n">
+        <v>5</v>
+      </c>
+      <c r="T302" t="n">
+        <v>0</v>
+      </c>
+      <c r="U302" t="n">
+        <v>2</v>
+      </c>
+      <c r="V302" t="n">
+        <v>29</v>
+      </c>
+      <c r="W302" t="n">
+        <v>0</v>
+      </c>
+      <c r="X302" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC302" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD302" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE302" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG302" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH302" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI302" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK302" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL302" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM302" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP302" t="n">
+        <v>102</v>
+      </c>
+      <c r="AQ302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV302" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B303" t="n">
+        <v>2</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0</v>
+      </c>
+      <c r="F303" t="n">
+        <v>2</v>
+      </c>
+      <c r="G303" t="n">
+        <v>1</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0</v>
+      </c>
+      <c r="L303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N303" t="n">
+        <v>5</v>
+      </c>
+      <c r="O303" t="n">
+        <v>0</v>
+      </c>
+      <c r="P303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>0</v>
+      </c>
+      <c r="R303" t="n">
+        <v>14</v>
+      </c>
+      <c r="S303" t="n">
+        <v>6</v>
+      </c>
+      <c r="T303" t="n">
+        <v>0</v>
+      </c>
+      <c r="U303" t="n">
+        <v>2</v>
+      </c>
+      <c r="V303" t="n">
+        <v>28</v>
+      </c>
+      <c r="W303" t="n">
+        <v>0</v>
+      </c>
+      <c r="X303" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC303" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD303" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE303" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG303" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH303" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI303" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK303" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL303" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM303" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP303" t="n">
+        <v>99</v>
+      </c>
+      <c r="AQ303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV303" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW303" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="B304" t="n">
+        <v>2</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0</v>
+      </c>
+      <c r="E304" t="n">
+        <v>3</v>
+      </c>
+      <c r="F304" t="n">
+        <v>1</v>
+      </c>
+      <c r="G304" t="n">
+        <v>2</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N304" t="n">
+        <v>5</v>
+      </c>
+      <c r="O304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R304" t="n">
+        <v>9</v>
+      </c>
+      <c r="S304" t="n">
+        <v>5</v>
+      </c>
+      <c r="T304" t="n">
+        <v>0</v>
+      </c>
+      <c r="U304" t="n">
+        <v>1</v>
+      </c>
+      <c r="V304" t="n">
+        <v>29</v>
+      </c>
+      <c r="W304" t="n">
+        <v>0</v>
+      </c>
+      <c r="X304" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC304" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE304" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG304" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH304" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI304" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK304" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL304" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM304" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP304" t="n">
+        <v>93</v>
+      </c>
+      <c r="AQ304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU304" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV304" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>44379</v>
+      </c>
+      <c r="B305" t="n">
+        <v>2</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0</v>
+      </c>
+      <c r="E305" t="n">
+        <v>3</v>
+      </c>
+      <c r="F305" t="n">
+        <v>2</v>
+      </c>
+      <c r="G305" t="n">
+        <v>2</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" t="n">
+        <v>3</v>
+      </c>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" t="n">
+        <v>5</v>
+      </c>
+      <c r="O305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R305" t="n">
+        <v>9</v>
+      </c>
+      <c r="S305" t="n">
+        <v>6</v>
+      </c>
+      <c r="T305" t="n">
+        <v>0</v>
+      </c>
+      <c r="U305" t="n">
+        <v>1</v>
+      </c>
+      <c r="V305" t="n">
+        <v>27</v>
+      </c>
+      <c r="W305" t="n">
+        <v>0</v>
+      </c>
+      <c r="X305" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH305" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI305" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK305" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL305" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM305" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP305" t="n">
+        <v>96</v>
+      </c>
+      <c r="AQ305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU305" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV305" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW305" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>44380</v>
+      </c>
+      <c r="B306" t="n">
+        <v>2</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0</v>
+      </c>
+      <c r="E306" t="n">
+        <v>4</v>
+      </c>
+      <c r="F306" t="n">
+        <v>3</v>
+      </c>
+      <c r="G306" t="n">
+        <v>2</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" t="n">
+        <v>3</v>
+      </c>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N306" t="n">
+        <v>2</v>
+      </c>
+      <c r="O306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R306" t="n">
+        <v>7</v>
+      </c>
+      <c r="S306" t="n">
+        <v>5</v>
+      </c>
+      <c r="T306" t="n">
+        <v>0</v>
+      </c>
+      <c r="U306" t="n">
+        <v>1</v>
+      </c>
+      <c r="V306" t="n">
+        <v>18</v>
+      </c>
+      <c r="W306" t="n">
+        <v>0</v>
+      </c>
+      <c r="X306" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB306" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC306" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE306" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG306" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH306" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK306" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL306" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM306" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP306" t="n">
+        <v>81</v>
+      </c>
+      <c r="AQ306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU306" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV306" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>44381</v>
+      </c>
+      <c r="B307" t="n">
+        <v>2</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
+      <c r="E307" t="n">
+        <v>4</v>
+      </c>
+      <c r="F307" t="n">
+        <v>3</v>
+      </c>
+      <c r="G307" t="n">
+        <v>2</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" t="n">
+        <v>3</v>
+      </c>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N307" t="n">
+        <v>3</v>
+      </c>
+      <c r="O307" t="n">
+        <v>0</v>
+      </c>
+      <c r="P307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R307" t="n">
+        <v>1</v>
+      </c>
+      <c r="S307" t="n">
+        <v>4</v>
+      </c>
+      <c r="T307" t="n">
+        <v>0</v>
+      </c>
+      <c r="U307" t="n">
+        <v>1</v>
+      </c>
+      <c r="V307" t="n">
+        <v>14</v>
+      </c>
+      <c r="W307" t="n">
+        <v>0</v>
+      </c>
+      <c r="X307" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK307" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL307" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM307" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP307" t="n">
+        <v>66</v>
+      </c>
+      <c r="AQ307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU307" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV307" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW307" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>44382</v>
+      </c>
+      <c r="B308" t="n">
+        <v>2</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
+      <c r="E308" t="n">
+        <v>5</v>
+      </c>
+      <c r="F308" t="n">
+        <v>2</v>
+      </c>
+      <c r="G308" t="n">
+        <v>2</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" t="n">
+        <v>3</v>
+      </c>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N308" t="n">
+        <v>2</v>
+      </c>
+      <c r="O308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R308" t="n">
+        <v>1</v>
+      </c>
+      <c r="S308" t="n">
+        <v>5</v>
+      </c>
+      <c r="T308" t="n">
+        <v>0</v>
+      </c>
+      <c r="U308" t="n">
+        <v>0</v>
+      </c>
+      <c r="V308" t="n">
+        <v>10</v>
+      </c>
+      <c r="W308" t="n">
+        <v>0</v>
+      </c>
+      <c r="X308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE308" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG308" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK308" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL308" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM308" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP308" t="n">
+        <v>57</v>
+      </c>
+      <c r="AQ308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU308" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV308" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW308" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="B309" t="n">
+        <v>1</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0</v>
+      </c>
+      <c r="E309" t="n">
+        <v>5</v>
+      </c>
+      <c r="F309" t="n">
+        <v>2</v>
+      </c>
+      <c r="G309" t="n">
+        <v>2</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="n">
+        <v>2</v>
+      </c>
+      <c r="J309" t="n">
+        <v>3</v>
+      </c>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N309" t="n">
+        <v>3</v>
+      </c>
+      <c r="O309" t="n">
+        <v>0</v>
+      </c>
+      <c r="P309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R309" t="n">
+        <v>1</v>
+      </c>
+      <c r="S309" t="n">
+        <v>5</v>
+      </c>
+      <c r="T309" t="n">
+        <v>0</v>
+      </c>
+      <c r="U309" t="n">
+        <v>0</v>
+      </c>
+      <c r="V309" t="n">
+        <v>10</v>
+      </c>
+      <c r="W309" t="n">
+        <v>0</v>
+      </c>
+      <c r="X309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE309" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG309" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL309" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM309" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO309" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP309" t="n">
+        <v>55</v>
+      </c>
+      <c r="AQ309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU309" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV309" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW309" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>44384</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0</v>
+      </c>
+      <c r="E310" t="n">
+        <v>5</v>
+      </c>
+      <c r="F310" t="n">
+        <v>2</v>
+      </c>
+      <c r="G310" t="n">
+        <v>2</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="n">
+        <v>2</v>
+      </c>
+      <c r="J310" t="n">
+        <v>3</v>
+      </c>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N310" t="n">
+        <v>3</v>
+      </c>
+      <c r="O310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R310" t="n">
+        <v>1</v>
+      </c>
+      <c r="S310" t="n">
+        <v>3</v>
+      </c>
+      <c r="T310" t="n">
+        <v>0</v>
+      </c>
+      <c r="U310" t="n">
+        <v>0</v>
+      </c>
+      <c r="V310" t="n">
+        <v>13</v>
+      </c>
+      <c r="W310" t="n">
+        <v>0</v>
+      </c>
+      <c r="X310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB310" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC310" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE310" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG310" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL310" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM310" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO310" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP310" t="n">
+        <v>55</v>
+      </c>
+      <c r="AQ310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU310" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV310" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>44385</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0</v>
+      </c>
+      <c r="E311" t="n">
+        <v>2</v>
+      </c>
+      <c r="F311" t="n">
+        <v>2</v>
+      </c>
+      <c r="G311" t="n">
+        <v>1</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="n">
+        <v>2</v>
+      </c>
+      <c r="J311" t="n">
+        <v>3</v>
+      </c>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N311" t="n">
+        <v>3</v>
+      </c>
+      <c r="O311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R311" t="n">
+        <v>0</v>
+      </c>
+      <c r="S311" t="n">
+        <v>3</v>
+      </c>
+      <c r="T311" t="n">
+        <v>0</v>
+      </c>
+      <c r="U311" t="n">
+        <v>0</v>
+      </c>
+      <c r="V311" t="n">
+        <v>11</v>
+      </c>
+      <c r="W311" t="n">
+        <v>0</v>
+      </c>
+      <c r="X311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC311" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG311" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL311" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM311" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO311" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP311" t="n">
+        <v>48</v>
+      </c>
+      <c r="AQ311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW311" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>44386</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0</v>
+      </c>
+      <c r="E312" t="n">
+        <v>2</v>
+      </c>
+      <c r="F312" t="n">
+        <v>1</v>
+      </c>
+      <c r="G312" t="n">
+        <v>1</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="n">
+        <v>2</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0</v>
+      </c>
+      <c r="L312" t="n">
+        <v>3</v>
+      </c>
+      <c r="M312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N312" t="n">
+        <v>3</v>
+      </c>
+      <c r="O312" t="n">
+        <v>0</v>
+      </c>
+      <c r="P312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>0</v>
+      </c>
+      <c r="R312" t="n">
+        <v>2</v>
+      </c>
+      <c r="S312" t="n">
+        <v>4</v>
+      </c>
+      <c r="T312" t="n">
+        <v>0</v>
+      </c>
+      <c r="U312" t="n">
+        <v>1</v>
+      </c>
+      <c r="V312" t="n">
+        <v>12</v>
+      </c>
+      <c r="W312" t="n">
+        <v>0</v>
+      </c>
+      <c r="X312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL312" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM312" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO312" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP312" t="n">
+        <v>53</v>
+      </c>
+      <c r="AQ312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>44387</v>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0</v>
+      </c>
+      <c r="G313" t="n">
+        <v>1</v>
+      </c>
+      <c r="H313" t="n">
+        <v>2</v>
+      </c>
+      <c r="I313" t="n">
+        <v>2</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0</v>
+      </c>
+      <c r="L313" t="n">
+        <v>3</v>
+      </c>
+      <c r="M313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N313" t="n">
+        <v>3</v>
+      </c>
+      <c r="O313" t="n">
+        <v>0</v>
+      </c>
+      <c r="P313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>0</v>
+      </c>
+      <c r="R313" t="n">
+        <v>2</v>
+      </c>
+      <c r="S313" t="n">
+        <v>4</v>
+      </c>
+      <c r="T313" t="n">
+        <v>0</v>
+      </c>
+      <c r="U313" t="n">
+        <v>1</v>
+      </c>
+      <c r="V313" t="n">
+        <v>14</v>
+      </c>
+      <c r="W313" t="n">
+        <v>0</v>
+      </c>
+      <c r="X313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC313" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG313" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL313" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM313" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO313" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP313" t="n">
+        <v>52</v>
+      </c>
+      <c r="AQ313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>44388</v>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0</v>
+      </c>
+      <c r="E314" t="n">
+        <v>1</v>
+      </c>
+      <c r="F314" t="n">
+        <v>0</v>
+      </c>
+      <c r="G314" t="n">
+        <v>1</v>
+      </c>
+      <c r="H314" t="n">
+        <v>2</v>
+      </c>
+      <c r="I314" t="n">
+        <v>2</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0</v>
+      </c>
+      <c r="L314" t="n">
+        <v>4</v>
+      </c>
+      <c r="M314" t="n">
+        <v>2</v>
+      </c>
+      <c r="N314" t="n">
+        <v>4</v>
+      </c>
+      <c r="O314" t="n">
+        <v>0</v>
+      </c>
+      <c r="P314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R314" t="n">
+        <v>2</v>
+      </c>
+      <c r="S314" t="n">
+        <v>4</v>
+      </c>
+      <c r="T314" t="n">
+        <v>0</v>
+      </c>
+      <c r="U314" t="n">
+        <v>1</v>
+      </c>
+      <c r="V314" t="n">
+        <v>20</v>
+      </c>
+      <c r="W314" t="n">
+        <v>0</v>
+      </c>
+      <c r="X314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG314" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL314" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM314" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO314" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP314" t="n">
+        <v>68</v>
+      </c>
+      <c r="AQ314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>44389</v>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0</v>
+      </c>
+      <c r="E315" t="n">
+        <v>2</v>
+      </c>
+      <c r="F315" t="n">
+        <v>5</v>
+      </c>
+      <c r="G315" t="n">
+        <v>2</v>
+      </c>
+      <c r="H315" t="n">
+        <v>2</v>
+      </c>
+      <c r="I315" t="n">
+        <v>2</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0</v>
+      </c>
+      <c r="L315" t="n">
+        <v>4</v>
+      </c>
+      <c r="M315" t="n">
+        <v>2</v>
+      </c>
+      <c r="N315" t="n">
+        <v>4</v>
+      </c>
+      <c r="O315" t="n">
+        <v>0</v>
+      </c>
+      <c r="P315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>0</v>
+      </c>
+      <c r="R315" t="n">
+        <v>5</v>
+      </c>
+      <c r="S315" t="n">
+        <v>3</v>
+      </c>
+      <c r="T315" t="n">
+        <v>0</v>
+      </c>
+      <c r="U315" t="n">
+        <v>1</v>
+      </c>
+      <c r="V315" t="n">
+        <v>28</v>
+      </c>
+      <c r="W315" t="n">
+        <v>0</v>
+      </c>
+      <c r="X315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG315" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL315" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM315" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO315" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP315" t="n">
+        <v>84</v>
+      </c>
+      <c r="AQ315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>44390</v>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0</v>
+      </c>
+      <c r="E316" t="n">
+        <v>2</v>
+      </c>
+      <c r="F316" t="n">
+        <v>5</v>
+      </c>
+      <c r="G316" t="n">
+        <v>2</v>
+      </c>
+      <c r="H316" t="n">
+        <v>2</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" t="n">
+        <v>1</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0</v>
+      </c>
+      <c r="L316" t="n">
+        <v>4</v>
+      </c>
+      <c r="M316" t="n">
+        <v>2</v>
+      </c>
+      <c r="N316" t="n">
+        <v>3</v>
+      </c>
+      <c r="O316" t="n">
+        <v>0</v>
+      </c>
+      <c r="P316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>0</v>
+      </c>
+      <c r="R316" t="n">
+        <v>7</v>
+      </c>
+      <c r="S316" t="n">
+        <v>3</v>
+      </c>
+      <c r="T316" t="n">
+        <v>0</v>
+      </c>
+      <c r="U316" t="n">
+        <v>1</v>
+      </c>
+      <c r="V316" t="n">
+        <v>30</v>
+      </c>
+      <c r="W316" t="n">
+        <v>0</v>
+      </c>
+      <c r="X316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC316" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG316" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL316" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM316" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO316" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP316" t="n">
+        <v>89</v>
+      </c>
+      <c r="AQ316" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="B317" t="n">
+        <v>2</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0</v>
+      </c>
+      <c r="E317" t="n">
+        <v>3</v>
+      </c>
+      <c r="F317" t="n">
+        <v>5</v>
+      </c>
+      <c r="G317" t="n">
+        <v>1</v>
+      </c>
+      <c r="H317" t="n">
+        <v>2</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="n">
+        <v>1</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0</v>
+      </c>
+      <c r="L317" t="n">
+        <v>4</v>
+      </c>
+      <c r="M317" t="n">
+        <v>2</v>
+      </c>
+      <c r="N317" t="n">
+        <v>3</v>
+      </c>
+      <c r="O317" t="n">
+        <v>0</v>
+      </c>
+      <c r="P317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>0</v>
+      </c>
+      <c r="R317" t="n">
+        <v>7</v>
+      </c>
+      <c r="S317" t="n">
+        <v>3</v>
+      </c>
+      <c r="T317" t="n">
+        <v>0</v>
+      </c>
+      <c r="U317" t="n">
+        <v>1</v>
+      </c>
+      <c r="V317" t="n">
+        <v>30</v>
+      </c>
+      <c r="W317" t="n">
+        <v>0</v>
+      </c>
+      <c r="X317" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z317" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC317" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG317" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH317" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL317" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM317" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO317" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP317" t="n">
+        <v>97</v>
+      </c>
+      <c r="AQ317" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="B318" t="n">
+        <v>3</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0</v>
+      </c>
+      <c r="E318" t="n">
+        <v>4</v>
+      </c>
+      <c r="F318" t="n">
+        <v>5</v>
+      </c>
+      <c r="G318" t="n">
+        <v>1</v>
+      </c>
+      <c r="H318" t="n">
+        <v>2</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0</v>
+      </c>
+      <c r="J318" t="n">
+        <v>1</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0</v>
+      </c>
+      <c r="L318" t="n">
+        <v>4</v>
+      </c>
+      <c r="M318" t="n">
+        <v>2</v>
+      </c>
+      <c r="N318" t="n">
+        <v>2</v>
+      </c>
+      <c r="O318" t="n">
+        <v>0</v>
+      </c>
+      <c r="P318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>0</v>
+      </c>
+      <c r="R318" t="n">
+        <v>7</v>
+      </c>
+      <c r="S318" t="n">
+        <v>3</v>
+      </c>
+      <c r="T318" t="n">
+        <v>0</v>
+      </c>
+      <c r="U318" t="n">
+        <v>1</v>
+      </c>
+      <c r="V318" t="n">
+        <v>34</v>
+      </c>
+      <c r="W318" t="n">
+        <v>0</v>
+      </c>
+      <c r="X318" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z318" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG318" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH318" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL318" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM318" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO318" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP318" t="n">
+        <v>104</v>
+      </c>
+      <c r="AQ318" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>44393</v>
+      </c>
+      <c r="B319" t="n">
+        <v>3</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0</v>
+      </c>
+      <c r="E319" t="n">
+        <v>4</v>
+      </c>
+      <c r="F319" t="n">
+        <v>5</v>
+      </c>
+      <c r="G319" t="n">
+        <v>1</v>
+      </c>
+      <c r="H319" t="n">
+        <v>2</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" t="n">
+        <v>1</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0</v>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="n">
+        <v>3</v>
+      </c>
+      <c r="N319" t="n">
+        <v>3</v>
+      </c>
+      <c r="O319" t="n">
+        <v>0</v>
+      </c>
+      <c r="P319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R319" t="n">
+        <v>5</v>
+      </c>
+      <c r="S319" t="n">
+        <v>1</v>
+      </c>
+      <c r="T319" t="n">
+        <v>0</v>
+      </c>
+      <c r="U319" t="n">
+        <v>0</v>
+      </c>
+      <c r="V319" t="n">
+        <v>44</v>
+      </c>
+      <c r="W319" t="n">
+        <v>0</v>
+      </c>
+      <c r="X319" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE319" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG319" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH319" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL319" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM319" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO319" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP319" t="n">
+        <v>109</v>
+      </c>
+      <c r="AQ319" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>44394</v>
+      </c>
+      <c r="B320" t="n">
+        <v>2</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0</v>
+      </c>
+      <c r="E320" t="n">
+        <v>7</v>
+      </c>
+      <c r="F320" t="n">
+        <v>9</v>
+      </c>
+      <c r="G320" t="n">
+        <v>1</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0</v>
+      </c>
+      <c r="J320" t="n">
+        <v>1</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0</v>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="n">
+        <v>4</v>
+      </c>
+      <c r="N320" t="n">
+        <v>4</v>
+      </c>
+      <c r="O320" t="n">
+        <v>0</v>
+      </c>
+      <c r="P320" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>0</v>
+      </c>
+      <c r="R320" t="n">
+        <v>5</v>
+      </c>
+      <c r="S320" t="n">
+        <v>1</v>
+      </c>
+      <c r="T320" t="n">
+        <v>0</v>
+      </c>
+      <c r="U320" t="n">
+        <v>1</v>
+      </c>
+      <c r="V320" t="n">
+        <v>50</v>
+      </c>
+      <c r="W320" t="n">
+        <v>0</v>
+      </c>
+      <c r="X320" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE320" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG320" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH320" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL320" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO320" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP320" t="n">
+        <v>130</v>
+      </c>
+      <c r="AQ320" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>44395</v>
+      </c>
+      <c r="B321" t="n">
+        <v>2</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0</v>
+      </c>
+      <c r="E321" t="n">
+        <v>7</v>
+      </c>
+      <c r="F321" t="n">
+        <v>10</v>
+      </c>
+      <c r="G321" t="n">
+        <v>2</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0</v>
+      </c>
+      <c r="J321" t="n">
+        <v>1</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0</v>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="n">
+        <v>2</v>
+      </c>
+      <c r="N321" t="n">
+        <v>3</v>
+      </c>
+      <c r="O321" t="n">
+        <v>0</v>
+      </c>
+      <c r="P321" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>0</v>
+      </c>
+      <c r="R321" t="n">
+        <v>5</v>
+      </c>
+      <c r="S321" t="n">
+        <v>1</v>
+      </c>
+      <c r="T321" t="n">
+        <v>1</v>
+      </c>
+      <c r="U321" t="n">
+        <v>2</v>
+      </c>
+      <c r="V321" t="n">
+        <v>63</v>
+      </c>
+      <c r="W321" t="n">
+        <v>0</v>
+      </c>
+      <c r="X321" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z321" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE321" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG321" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH321" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL321" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO321" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP321" t="n">
+        <v>141</v>
+      </c>
+      <c r="AQ321" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>44396</v>
+      </c>
+      <c r="B322" t="n">
+        <v>2</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0</v>
+      </c>
+      <c r="E322" t="n">
+        <v>5</v>
+      </c>
+      <c r="F322" t="n">
+        <v>5</v>
+      </c>
+      <c r="G322" t="n">
+        <v>1</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0</v>
+      </c>
+      <c r="J322" t="n">
+        <v>1</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0</v>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="n">
+        <v>2</v>
+      </c>
+      <c r="N322" t="n">
+        <v>3</v>
+      </c>
+      <c r="O322" t="n">
+        <v>0</v>
+      </c>
+      <c r="P322" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R322" t="n">
+        <v>3</v>
+      </c>
+      <c r="S322" t="n">
+        <v>0</v>
+      </c>
+      <c r="T322" t="n">
+        <v>2</v>
+      </c>
+      <c r="U322" t="n">
+        <v>2</v>
+      </c>
+      <c r="V322" t="n">
+        <v>62</v>
+      </c>
+      <c r="W322" t="n">
+        <v>0</v>
+      </c>
+      <c r="X322" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z322" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE322" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG322" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH322" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK322" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL322" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO322" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP322" t="n">
+        <v>147</v>
+      </c>
+      <c r="AQ322" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>44397</v>
+      </c>
+      <c r="B323" t="n">
+        <v>2</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0</v>
+      </c>
+      <c r="E323" t="n">
+        <v>5</v>
+      </c>
+      <c r="F323" t="n">
+        <v>6</v>
+      </c>
+      <c r="G323" t="n">
+        <v>1</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0</v>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="n">
+        <v>2</v>
+      </c>
+      <c r="N323" t="n">
+        <v>3</v>
+      </c>
+      <c r="O323" t="n">
+        <v>0</v>
+      </c>
+      <c r="P323" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>0</v>
+      </c>
+      <c r="R323" t="n">
+        <v>1</v>
+      </c>
+      <c r="S323" t="n">
+        <v>0</v>
+      </c>
+      <c r="T323" t="n">
+        <v>2</v>
+      </c>
+      <c r="U323" t="n">
+        <v>2</v>
+      </c>
+      <c r="V323" t="n">
+        <v>63</v>
+      </c>
+      <c r="W323" t="n">
+        <v>0</v>
+      </c>
+      <c r="X323" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y323" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z323" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE323" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG323" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH323" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK323" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL323" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO323" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP323" t="n">
+        <v>144</v>
+      </c>
+      <c r="AQ323" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="B324" t="n">
+        <v>1</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0</v>
+      </c>
+      <c r="E324" t="n">
+        <v>4</v>
+      </c>
+      <c r="F324" t="n">
+        <v>6</v>
+      </c>
+      <c r="G324" t="n">
+        <v>1</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0</v>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="n">
+        <v>2</v>
+      </c>
+      <c r="N324" t="n">
+        <v>5</v>
+      </c>
+      <c r="O324" t="n">
+        <v>0</v>
+      </c>
+      <c r="P324" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>0</v>
+      </c>
+      <c r="R324" t="n">
+        <v>4</v>
+      </c>
+      <c r="S324" t="n">
+        <v>0</v>
+      </c>
+      <c r="T324" t="n">
+        <v>2</v>
+      </c>
+      <c r="U324" t="n">
+        <v>2</v>
+      </c>
+      <c r="V324" t="n">
+        <v>64</v>
+      </c>
+      <c r="W324" t="n">
+        <v>0</v>
+      </c>
+      <c r="X324" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y324" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z324" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE324" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG324" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH324" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK324" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL324" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO324" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP324" t="n">
+        <v>144</v>
+      </c>
+      <c r="AQ324" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0</v>
+      </c>
+      <c r="C325" t="n">
+        <v>1</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0</v>
+      </c>
+      <c r="E325" t="n">
+        <v>8</v>
+      </c>
+      <c r="F325" t="n">
+        <v>11</v>
+      </c>
+      <c r="G325" t="n">
+        <v>3</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0</v>
+      </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="n">
+        <v>3</v>
+      </c>
+      <c r="N325" t="n">
+        <v>11</v>
+      </c>
+      <c r="O325" t="n">
+        <v>0</v>
+      </c>
+      <c r="P325" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>0</v>
+      </c>
+      <c r="R325" t="n">
+        <v>7</v>
+      </c>
+      <c r="S325" t="n">
+        <v>0</v>
+      </c>
+      <c r="T325" t="n">
+        <v>2</v>
+      </c>
+      <c r="U325" t="n">
+        <v>2</v>
+      </c>
+      <c r="V325" t="n">
+        <v>79</v>
+      </c>
+      <c r="W325" t="n">
+        <v>0</v>
+      </c>
+      <c r="X325" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y325" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z325" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD325" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE325" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF325" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG325" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH325" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK325" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL325" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO325" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP325" t="n">
+        <v>188</v>
+      </c>
+      <c r="AQ325" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0</v>
+      </c>
+      <c r="C326" t="n">
+        <v>1</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0</v>
+      </c>
+      <c r="E326" t="n">
+        <v>14</v>
+      </c>
+      <c r="F326" t="n">
+        <v>19</v>
+      </c>
+      <c r="G326" t="n">
+        <v>3</v>
+      </c>
+      <c r="H326" t="n">
+        <v>2</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0</v>
+      </c>
+      <c r="L326" t="n">
+        <v>4</v>
+      </c>
+      <c r="M326" t="n">
+        <v>3</v>
+      </c>
+      <c r="N326" t="n">
+        <v>12</v>
+      </c>
+      <c r="O326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P326" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R326" t="n">
+        <v>7</v>
+      </c>
+      <c r="S326" t="n">
+        <v>0</v>
+      </c>
+      <c r="T326" t="n">
+        <v>2</v>
+      </c>
+      <c r="U326" t="n">
+        <v>3</v>
+      </c>
+      <c r="V326" t="n">
+        <v>82</v>
+      </c>
+      <c r="W326" t="n">
+        <v>0</v>
+      </c>
+      <c r="X326" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y326" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z326" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC326" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD326" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE326" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF326" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG326" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH326" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI326" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK326" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL326" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO326" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP326" t="n">
+        <v>218</v>
+      </c>
+      <c r="AQ326" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>44401</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0</v>
+      </c>
+      <c r="C327" t="n">
+        <v>3</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0</v>
+      </c>
+      <c r="E327" t="n">
+        <v>29</v>
+      </c>
+      <c r="F327" t="n">
+        <v>19</v>
+      </c>
+      <c r="G327" t="n">
+        <v>3</v>
+      </c>
+      <c r="H327" t="n">
+        <v>5</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0</v>
+      </c>
+      <c r="L327" t="n">
+        <v>4</v>
+      </c>
+      <c r="M327" t="n">
+        <v>3</v>
+      </c>
+      <c r="N327" t="n">
+        <v>17</v>
+      </c>
+      <c r="O327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P327" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R327" t="n">
+        <v>9</v>
+      </c>
+      <c r="S327" t="n">
+        <v>0</v>
+      </c>
+      <c r="T327" t="n">
+        <v>2</v>
+      </c>
+      <c r="U327" t="n">
+        <v>2</v>
+      </c>
+      <c r="V327" t="n">
+        <v>89</v>
+      </c>
+      <c r="W327" t="n">
+        <v>0</v>
+      </c>
+      <c r="X327" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y327" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z327" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC327" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD327" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE327" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF327" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG327" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH327" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI327" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK327" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL327" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO327" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP327" t="n">
+        <v>259</v>
+      </c>
+      <c r="AQ327" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>44402</v>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+      <c r="C328" t="n">
+        <v>4</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0</v>
+      </c>
+      <c r="E328" t="n">
+        <v>48</v>
+      </c>
+      <c r="F328" t="n">
+        <v>23</v>
+      </c>
+      <c r="G328" t="n">
+        <v>3</v>
+      </c>
+      <c r="H328" t="n">
+        <v>5</v>
+      </c>
+      <c r="I328" t="n">
+        <v>1</v>
+      </c>
+      <c r="J328" t="n">
+        <v>1</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0</v>
+      </c>
+      <c r="L328" t="n">
+        <v>3</v>
+      </c>
+      <c r="M328" t="n">
+        <v>4</v>
+      </c>
+      <c r="N328" t="n">
+        <v>21</v>
+      </c>
+      <c r="O328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P328" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R328" t="n">
+        <v>10</v>
+      </c>
+      <c r="S328" t="n">
+        <v>0</v>
+      </c>
+      <c r="T328" t="n">
+        <v>2</v>
+      </c>
+      <c r="U328" t="n">
+        <v>1</v>
+      </c>
+      <c r="V328" t="n">
+        <v>91</v>
+      </c>
+      <c r="W328" t="n">
+        <v>0</v>
+      </c>
+      <c r="X328" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y328" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z328" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB328" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC328" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD328" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE328" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF328" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG328" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH328" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI328" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK328" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL328" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM328" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO328" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP328" t="n">
+        <v>308</v>
+      </c>
+      <c r="AQ328" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX328" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX328"/>
+  <dimension ref="A1:AX343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49735,6 +49735,2286 @@
         <v>1</v>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>44403</v>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+      <c r="C329" t="n">
+        <v>5</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0</v>
+      </c>
+      <c r="E329" t="n">
+        <v>53</v>
+      </c>
+      <c r="F329" t="n">
+        <v>29</v>
+      </c>
+      <c r="G329" t="n">
+        <v>3</v>
+      </c>
+      <c r="H329" t="n">
+        <v>6</v>
+      </c>
+      <c r="I329" t="n">
+        <v>2</v>
+      </c>
+      <c r="J329" t="n">
+        <v>1</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0</v>
+      </c>
+      <c r="L329" t="n">
+        <v>3</v>
+      </c>
+      <c r="M329" t="n">
+        <v>7</v>
+      </c>
+      <c r="N329" t="n">
+        <v>25</v>
+      </c>
+      <c r="O329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P329" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R329" t="n">
+        <v>10</v>
+      </c>
+      <c r="S329" t="n">
+        <v>0</v>
+      </c>
+      <c r="T329" t="n">
+        <v>1</v>
+      </c>
+      <c r="U329" t="n">
+        <v>1</v>
+      </c>
+      <c r="V329" t="n">
+        <v>90</v>
+      </c>
+      <c r="W329" t="n">
+        <v>0</v>
+      </c>
+      <c r="X329" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z329" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB329" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC329" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD329" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE329" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF329" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG329" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH329" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI329" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK329" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL329" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM329" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO329" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP329" t="n">
+        <v>326</v>
+      </c>
+      <c r="AQ329" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>44404</v>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+      <c r="C330" t="n">
+        <v>6</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" t="n">
+        <v>54</v>
+      </c>
+      <c r="F330" t="n">
+        <v>29</v>
+      </c>
+      <c r="G330" t="n">
+        <v>4</v>
+      </c>
+      <c r="H330" t="n">
+        <v>6</v>
+      </c>
+      <c r="I330" t="n">
+        <v>2</v>
+      </c>
+      <c r="J330" t="n">
+        <v>1</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L330" t="n">
+        <v>4</v>
+      </c>
+      <c r="M330" t="n">
+        <v>8</v>
+      </c>
+      <c r="N330" t="n">
+        <v>27</v>
+      </c>
+      <c r="O330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P330" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R330" t="n">
+        <v>10</v>
+      </c>
+      <c r="S330" t="n">
+        <v>0</v>
+      </c>
+      <c r="T330" t="n">
+        <v>1</v>
+      </c>
+      <c r="U330" t="n">
+        <v>1</v>
+      </c>
+      <c r="V330" t="n">
+        <v>103</v>
+      </c>
+      <c r="W330" t="n">
+        <v>0</v>
+      </c>
+      <c r="X330" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z330" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB330" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC330" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD330" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE330" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF330" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG330" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH330" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI330" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK330" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL330" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM330" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO330" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP330" t="n">
+        <v>345</v>
+      </c>
+      <c r="AQ330" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="B331" t="n">
+        <v>1</v>
+      </c>
+      <c r="C331" t="n">
+        <v>6</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0</v>
+      </c>
+      <c r="E331" t="n">
+        <v>61</v>
+      </c>
+      <c r="F331" t="n">
+        <v>30</v>
+      </c>
+      <c r="G331" t="n">
+        <v>4</v>
+      </c>
+      <c r="H331" t="n">
+        <v>6</v>
+      </c>
+      <c r="I331" t="n">
+        <v>2</v>
+      </c>
+      <c r="J331" t="n">
+        <v>1</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L331" t="n">
+        <v>4</v>
+      </c>
+      <c r="M331" t="n">
+        <v>10</v>
+      </c>
+      <c r="N331" t="n">
+        <v>31</v>
+      </c>
+      <c r="O331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P331" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R331" t="n">
+        <v>7</v>
+      </c>
+      <c r="S331" t="n">
+        <v>0</v>
+      </c>
+      <c r="T331" t="n">
+        <v>1</v>
+      </c>
+      <c r="U331" t="n">
+        <v>2</v>
+      </c>
+      <c r="V331" t="n">
+        <v>109</v>
+      </c>
+      <c r="W331" t="n">
+        <v>0</v>
+      </c>
+      <c r="X331" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z331" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA331" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB331" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC331" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD331" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE331" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF331" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG331" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH331" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI331" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ331" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK331" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL331" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM331" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN331" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO331" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP331" t="n">
+        <v>370</v>
+      </c>
+      <c r="AQ331" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR331" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS331" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT331" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU331" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV331" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW331" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>44406</v>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+      <c r="C332" t="n">
+        <v>6</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0</v>
+      </c>
+      <c r="E332" t="n">
+        <v>68</v>
+      </c>
+      <c r="F332" t="n">
+        <v>26</v>
+      </c>
+      <c r="G332" t="n">
+        <v>4</v>
+      </c>
+      <c r="H332" t="n">
+        <v>8</v>
+      </c>
+      <c r="I332" t="n">
+        <v>2</v>
+      </c>
+      <c r="J332" t="n">
+        <v>1</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L332" t="n">
+        <v>4</v>
+      </c>
+      <c r="M332" t="n">
+        <v>12</v>
+      </c>
+      <c r="N332" t="n">
+        <v>34</v>
+      </c>
+      <c r="O332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P332" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R332" t="n">
+        <v>5</v>
+      </c>
+      <c r="S332" t="n">
+        <v>0</v>
+      </c>
+      <c r="T332" t="n">
+        <v>1</v>
+      </c>
+      <c r="U332" t="n">
+        <v>4</v>
+      </c>
+      <c r="V332" t="n">
+        <v>111</v>
+      </c>
+      <c r="W332" t="n">
+        <v>0</v>
+      </c>
+      <c r="X332" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z332" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA332" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB332" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC332" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD332" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE332" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF332" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG332" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH332" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI332" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ332" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK332" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL332" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM332" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN332" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO332" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP332" t="n">
+        <v>393</v>
+      </c>
+      <c r="AQ332" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR332" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS332" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT332" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU332" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV332" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW332" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B333" t="n">
+        <v>2</v>
+      </c>
+      <c r="C333" t="n">
+        <v>8</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0</v>
+      </c>
+      <c r="E333" t="n">
+        <v>67</v>
+      </c>
+      <c r="F333" t="n">
+        <v>22</v>
+      </c>
+      <c r="G333" t="n">
+        <v>5</v>
+      </c>
+      <c r="H333" t="n">
+        <v>11</v>
+      </c>
+      <c r="I333" t="n">
+        <v>2</v>
+      </c>
+      <c r="J333" t="n">
+        <v>2</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L333" t="n">
+        <v>2</v>
+      </c>
+      <c r="M333" t="n">
+        <v>15</v>
+      </c>
+      <c r="N333" t="n">
+        <v>37</v>
+      </c>
+      <c r="O333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P333" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R333" t="n">
+        <v>7</v>
+      </c>
+      <c r="S333" t="n">
+        <v>2</v>
+      </c>
+      <c r="T333" t="n">
+        <v>1</v>
+      </c>
+      <c r="U333" t="n">
+        <v>7</v>
+      </c>
+      <c r="V333" t="n">
+        <v>120</v>
+      </c>
+      <c r="W333" t="n">
+        <v>0</v>
+      </c>
+      <c r="X333" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z333" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB333" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC333" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD333" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE333" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF333" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG333" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH333" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI333" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK333" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL333" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM333" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO333" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP333" t="n">
+        <v>434</v>
+      </c>
+      <c r="AQ333" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>44408</v>
+      </c>
+      <c r="B334" t="n">
+        <v>3</v>
+      </c>
+      <c r="C334" t="n">
+        <v>6</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0</v>
+      </c>
+      <c r="E334" t="n">
+        <v>69</v>
+      </c>
+      <c r="F334" t="n">
+        <v>21</v>
+      </c>
+      <c r="G334" t="n">
+        <v>5</v>
+      </c>
+      <c r="H334" t="n">
+        <v>8</v>
+      </c>
+      <c r="I334" t="n">
+        <v>2</v>
+      </c>
+      <c r="J334" t="n">
+        <v>2</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L334" t="n">
+        <v>2</v>
+      </c>
+      <c r="M334" t="n">
+        <v>19</v>
+      </c>
+      <c r="N334" t="n">
+        <v>34</v>
+      </c>
+      <c r="O334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P334" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R334" t="n">
+        <v>7</v>
+      </c>
+      <c r="S334" t="n">
+        <v>3</v>
+      </c>
+      <c r="T334" t="n">
+        <v>2</v>
+      </c>
+      <c r="U334" t="n">
+        <v>9</v>
+      </c>
+      <c r="V334" t="n">
+        <v>111</v>
+      </c>
+      <c r="W334" t="n">
+        <v>1</v>
+      </c>
+      <c r="X334" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z334" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB334" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC334" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD334" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE334" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF334" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG334" t="n">
+        <v>37</v>
+      </c>
+      <c r="AH334" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI334" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK334" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL334" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM334" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN334" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO334" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP334" t="n">
+        <v>432</v>
+      </c>
+      <c r="AQ334" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="B335" t="n">
+        <v>3</v>
+      </c>
+      <c r="C335" t="n">
+        <v>5</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0</v>
+      </c>
+      <c r="E335" t="n">
+        <v>51</v>
+      </c>
+      <c r="F335" t="n">
+        <v>20</v>
+      </c>
+      <c r="G335" t="n">
+        <v>7</v>
+      </c>
+      <c r="H335" t="n">
+        <v>9</v>
+      </c>
+      <c r="I335" t="n">
+        <v>1</v>
+      </c>
+      <c r="J335" t="n">
+        <v>1</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L335" t="n">
+        <v>2</v>
+      </c>
+      <c r="M335" t="n">
+        <v>18</v>
+      </c>
+      <c r="N335" t="n">
+        <v>29</v>
+      </c>
+      <c r="O335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P335" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>2</v>
+      </c>
+      <c r="R335" t="n">
+        <v>8</v>
+      </c>
+      <c r="S335" t="n">
+        <v>3</v>
+      </c>
+      <c r="T335" t="n">
+        <v>2</v>
+      </c>
+      <c r="U335" t="n">
+        <v>10</v>
+      </c>
+      <c r="V335" t="n">
+        <v>121</v>
+      </c>
+      <c r="W335" t="n">
+        <v>2</v>
+      </c>
+      <c r="X335" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z335" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC335" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD335" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE335" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF335" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG335" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH335" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI335" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ335" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK335" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL335" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM335" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN335" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO335" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP335" t="n">
+        <v>426</v>
+      </c>
+      <c r="AQ335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>44410</v>
+      </c>
+      <c r="B336" t="n">
+        <v>4</v>
+      </c>
+      <c r="C336" t="n">
+        <v>10</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0</v>
+      </c>
+      <c r="E336" t="n">
+        <v>71</v>
+      </c>
+      <c r="F336" t="n">
+        <v>15</v>
+      </c>
+      <c r="G336" t="n">
+        <v>8</v>
+      </c>
+      <c r="H336" t="n">
+        <v>8</v>
+      </c>
+      <c r="I336" t="n">
+        <v>0</v>
+      </c>
+      <c r="J336" t="n">
+        <v>1</v>
+      </c>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
+      <c r="L336" t="n">
+        <v>2</v>
+      </c>
+      <c r="M336" t="n">
+        <v>18</v>
+      </c>
+      <c r="N336" t="n">
+        <v>30</v>
+      </c>
+      <c r="O336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P336" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>2</v>
+      </c>
+      <c r="R336" t="n">
+        <v>8</v>
+      </c>
+      <c r="S336" t="n">
+        <v>5</v>
+      </c>
+      <c r="T336" t="n">
+        <v>2</v>
+      </c>
+      <c r="U336" t="n">
+        <v>12</v>
+      </c>
+      <c r="V336" t="n">
+        <v>144</v>
+      </c>
+      <c r="W336" t="n">
+        <v>2</v>
+      </c>
+      <c r="X336" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z336" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC336" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD336" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE336" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF336" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG336" t="n">
+        <v>42</v>
+      </c>
+      <c r="AH336" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI336" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ336" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK336" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL336" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM336" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN336" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO336" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP336" t="n">
+        <v>492</v>
+      </c>
+      <c r="AQ336" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>44411</v>
+      </c>
+      <c r="B337" t="n">
+        <v>4</v>
+      </c>
+      <c r="C337" t="n">
+        <v>9</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0</v>
+      </c>
+      <c r="E337" t="n">
+        <v>71</v>
+      </c>
+      <c r="F337" t="n">
+        <v>14</v>
+      </c>
+      <c r="G337" t="n">
+        <v>9</v>
+      </c>
+      <c r="H337" t="n">
+        <v>8</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0</v>
+      </c>
+      <c r="J337" t="n">
+        <v>1</v>
+      </c>
+      <c r="K337" t="n">
+        <v>2</v>
+      </c>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="n">
+        <v>17</v>
+      </c>
+      <c r="N337" t="n">
+        <v>30</v>
+      </c>
+      <c r="O337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P337" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>2</v>
+      </c>
+      <c r="R337" t="n">
+        <v>8</v>
+      </c>
+      <c r="S337" t="n">
+        <v>6</v>
+      </c>
+      <c r="T337" t="n">
+        <v>2</v>
+      </c>
+      <c r="U337" t="n">
+        <v>16</v>
+      </c>
+      <c r="V337" t="n">
+        <v>131</v>
+      </c>
+      <c r="W337" t="n">
+        <v>2</v>
+      </c>
+      <c r="X337" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z337" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC337" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD337" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE337" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF337" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG337" t="n">
+        <v>43</v>
+      </c>
+      <c r="AH337" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI337" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ337" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK337" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL337" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM337" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN337" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO337" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP337" t="n">
+        <v>497</v>
+      </c>
+      <c r="AQ337" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>44412</v>
+      </c>
+      <c r="B338" t="n">
+        <v>4</v>
+      </c>
+      <c r="C338" t="n">
+        <v>9</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0</v>
+      </c>
+      <c r="E338" t="n">
+        <v>66</v>
+      </c>
+      <c r="F338" t="n">
+        <v>13</v>
+      </c>
+      <c r="G338" t="n">
+        <v>9</v>
+      </c>
+      <c r="H338" t="n">
+        <v>9</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0</v>
+      </c>
+      <c r="J338" t="n">
+        <v>1</v>
+      </c>
+      <c r="K338" t="n">
+        <v>3</v>
+      </c>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="n">
+        <v>16</v>
+      </c>
+      <c r="N338" t="n">
+        <v>25</v>
+      </c>
+      <c r="O338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P338" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>2</v>
+      </c>
+      <c r="R338" t="n">
+        <v>10</v>
+      </c>
+      <c r="S338" t="n">
+        <v>8</v>
+      </c>
+      <c r="T338" t="n">
+        <v>2</v>
+      </c>
+      <c r="U338" t="n">
+        <v>17</v>
+      </c>
+      <c r="V338" t="n">
+        <v>139</v>
+      </c>
+      <c r="W338" t="n">
+        <v>2</v>
+      </c>
+      <c r="X338" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z338" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA338" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB338" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC338" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD338" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE338" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF338" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG338" t="n">
+        <v>39</v>
+      </c>
+      <c r="AH338" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI338" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ338" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK338" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL338" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM338" t="n">
+        <v>36</v>
+      </c>
+      <c r="AN338" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO338" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP338" t="n">
+        <v>503</v>
+      </c>
+      <c r="AQ338" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR338" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS338" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT338" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU338" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV338" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW338" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>44413</v>
+      </c>
+      <c r="B339" t="n">
+        <v>7</v>
+      </c>
+      <c r="C339" t="n">
+        <v>9</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0</v>
+      </c>
+      <c r="E339" t="n">
+        <v>64</v>
+      </c>
+      <c r="F339" t="n">
+        <v>22</v>
+      </c>
+      <c r="G339" t="n">
+        <v>9</v>
+      </c>
+      <c r="H339" t="n">
+        <v>11</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0</v>
+      </c>
+      <c r="J339" t="n">
+        <v>1</v>
+      </c>
+      <c r="K339" t="n">
+        <v>4</v>
+      </c>
+      <c r="L339" t="n">
+        <v>2</v>
+      </c>
+      <c r="M339" t="n">
+        <v>15</v>
+      </c>
+      <c r="N339" t="n">
+        <v>20</v>
+      </c>
+      <c r="O339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P339" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>2</v>
+      </c>
+      <c r="R339" t="n">
+        <v>9</v>
+      </c>
+      <c r="S339" t="n">
+        <v>9</v>
+      </c>
+      <c r="T339" t="n">
+        <v>3</v>
+      </c>
+      <c r="U339" t="n">
+        <v>15</v>
+      </c>
+      <c r="V339" t="n">
+        <v>146</v>
+      </c>
+      <c r="W339" t="n">
+        <v>3</v>
+      </c>
+      <c r="X339" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y339" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z339" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA339" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB339" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC339" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD339" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE339" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF339" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG339" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH339" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI339" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ339" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK339" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL339" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM339" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN339" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO339" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP339" t="n">
+        <v>534</v>
+      </c>
+      <c r="AQ339" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR339" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS339" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT339" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU339" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV339" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW339" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>44414</v>
+      </c>
+      <c r="B340" t="n">
+        <v>6</v>
+      </c>
+      <c r="C340" t="n">
+        <v>7</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0</v>
+      </c>
+      <c r="E340" t="n">
+        <v>72</v>
+      </c>
+      <c r="F340" t="n">
+        <v>18</v>
+      </c>
+      <c r="G340" t="n">
+        <v>11</v>
+      </c>
+      <c r="H340" t="n">
+        <v>7</v>
+      </c>
+      <c r="I340" t="n">
+        <v>1</v>
+      </c>
+      <c r="J340" t="n">
+        <v>1</v>
+      </c>
+      <c r="K340" t="n">
+        <v>6</v>
+      </c>
+      <c r="L340" t="n">
+        <v>2</v>
+      </c>
+      <c r="M340" t="n">
+        <v>15</v>
+      </c>
+      <c r="N340" t="n">
+        <v>20</v>
+      </c>
+      <c r="O340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P340" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>2</v>
+      </c>
+      <c r="R340" t="n">
+        <v>10</v>
+      </c>
+      <c r="S340" t="n">
+        <v>8</v>
+      </c>
+      <c r="T340" t="n">
+        <v>5</v>
+      </c>
+      <c r="U340" t="n">
+        <v>13</v>
+      </c>
+      <c r="V340" t="n">
+        <v>138</v>
+      </c>
+      <c r="W340" t="n">
+        <v>3</v>
+      </c>
+      <c r="X340" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y340" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z340" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA340" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB340" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC340" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD340" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE340" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF340" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG340" t="n">
+        <v>39</v>
+      </c>
+      <c r="AH340" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI340" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ340" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK340" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL340" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM340" t="n">
+        <v>42</v>
+      </c>
+      <c r="AN340" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO340" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP340" t="n">
+        <v>533</v>
+      </c>
+      <c r="AQ340" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR340" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS340" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT340" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU340" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV340" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW340" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>44415</v>
+      </c>
+      <c r="B341" t="n">
+        <v>5</v>
+      </c>
+      <c r="C341" t="n">
+        <v>8</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0</v>
+      </c>
+      <c r="E341" t="n">
+        <v>70</v>
+      </c>
+      <c r="F341" t="n">
+        <v>20</v>
+      </c>
+      <c r="G341" t="n">
+        <v>12</v>
+      </c>
+      <c r="H341" t="n">
+        <v>11</v>
+      </c>
+      <c r="I341" t="n">
+        <v>1</v>
+      </c>
+      <c r="J341" t="n">
+        <v>3</v>
+      </c>
+      <c r="K341" t="n">
+        <v>10</v>
+      </c>
+      <c r="L341" t="n">
+        <v>2</v>
+      </c>
+      <c r="M341" t="n">
+        <v>14</v>
+      </c>
+      <c r="N341" t="n">
+        <v>26</v>
+      </c>
+      <c r="O341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P341" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>2</v>
+      </c>
+      <c r="R341" t="n">
+        <v>12</v>
+      </c>
+      <c r="S341" t="n">
+        <v>7</v>
+      </c>
+      <c r="T341" t="n">
+        <v>5</v>
+      </c>
+      <c r="U341" t="n">
+        <v>13</v>
+      </c>
+      <c r="V341" t="n">
+        <v>144</v>
+      </c>
+      <c r="W341" t="n">
+        <v>3</v>
+      </c>
+      <c r="X341" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y341" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z341" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA341" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB341" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC341" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD341" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE341" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF341" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG341" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH341" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI341" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ341" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK341" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL341" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM341" t="n">
+        <v>43</v>
+      </c>
+      <c r="AN341" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO341" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP341" t="n">
+        <v>568</v>
+      </c>
+      <c r="AQ341" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR341" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS341" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT341" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU341" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV341" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW341" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>44416</v>
+      </c>
+      <c r="B342" t="n">
+        <v>4</v>
+      </c>
+      <c r="C342" t="n">
+        <v>10</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0</v>
+      </c>
+      <c r="E342" t="n">
+        <v>74</v>
+      </c>
+      <c r="F342" t="n">
+        <v>16</v>
+      </c>
+      <c r="G342" t="n">
+        <v>10</v>
+      </c>
+      <c r="H342" t="n">
+        <v>16</v>
+      </c>
+      <c r="I342" t="n">
+        <v>3</v>
+      </c>
+      <c r="J342" t="n">
+        <v>4</v>
+      </c>
+      <c r="K342" t="n">
+        <v>17</v>
+      </c>
+      <c r="L342" t="n">
+        <v>4</v>
+      </c>
+      <c r="M342" t="n">
+        <v>19</v>
+      </c>
+      <c r="N342" t="n">
+        <v>36</v>
+      </c>
+      <c r="O342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P342" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R342" t="n">
+        <v>12</v>
+      </c>
+      <c r="S342" t="n">
+        <v>7</v>
+      </c>
+      <c r="T342" t="n">
+        <v>8</v>
+      </c>
+      <c r="U342" t="n">
+        <v>21</v>
+      </c>
+      <c r="V342" t="n">
+        <v>136</v>
+      </c>
+      <c r="W342" t="n">
+        <v>2</v>
+      </c>
+      <c r="X342" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y342" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z342" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB342" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC342" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD342" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE342" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF342" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG342" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH342" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI342" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ342" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK342" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL342" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM342" t="n">
+        <v>39</v>
+      </c>
+      <c r="AN342" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO342" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP342" t="n">
+        <v>614</v>
+      </c>
+      <c r="AQ342" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW342" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX342" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>44417</v>
+      </c>
+      <c r="B343" t="n">
+        <v>7</v>
+      </c>
+      <c r="C343" t="n">
+        <v>5</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0</v>
+      </c>
+      <c r="E343" t="n">
+        <v>66</v>
+      </c>
+      <c r="F343" t="n">
+        <v>18</v>
+      </c>
+      <c r="G343" t="n">
+        <v>12</v>
+      </c>
+      <c r="H343" t="n">
+        <v>18</v>
+      </c>
+      <c r="I343" t="n">
+        <v>4</v>
+      </c>
+      <c r="J343" t="n">
+        <v>4</v>
+      </c>
+      <c r="K343" t="n">
+        <v>17</v>
+      </c>
+      <c r="L343" t="n">
+        <v>4</v>
+      </c>
+      <c r="M343" t="n">
+        <v>21</v>
+      </c>
+      <c r="N343" t="n">
+        <v>35</v>
+      </c>
+      <c r="O343" t="n">
+        <v>0</v>
+      </c>
+      <c r="P343" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R343" t="n">
+        <v>11</v>
+      </c>
+      <c r="S343" t="n">
+        <v>8</v>
+      </c>
+      <c r="T343" t="n">
+        <v>11</v>
+      </c>
+      <c r="U343" t="n">
+        <v>20</v>
+      </c>
+      <c r="V343" t="n">
+        <v>123</v>
+      </c>
+      <c r="W343" t="n">
+        <v>3</v>
+      </c>
+      <c r="X343" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y343" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z343" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB343" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC343" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD343" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE343" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF343" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG343" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH343" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI343" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ343" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK343" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL343" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM343" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN343" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO343" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP343" t="n">
+        <v>602</v>
+      </c>
+      <c r="AQ343" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR343" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW343" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX343" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX343"/>
+  <dimension ref="A1:AX357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52015,6 +52015,2134 @@
         <v>2</v>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="B344" t="n">
+        <v>8</v>
+      </c>
+      <c r="C344" t="n">
+        <v>6</v>
+      </c>
+      <c r="D344" t="n">
+        <v>1</v>
+      </c>
+      <c r="E344" t="n">
+        <v>68</v>
+      </c>
+      <c r="F344" t="n">
+        <v>19</v>
+      </c>
+      <c r="G344" t="n">
+        <v>11</v>
+      </c>
+      <c r="H344" t="n">
+        <v>21</v>
+      </c>
+      <c r="I344" t="n">
+        <v>4</v>
+      </c>
+      <c r="J344" t="n">
+        <v>5</v>
+      </c>
+      <c r="K344" t="n">
+        <v>18</v>
+      </c>
+      <c r="L344" t="n">
+        <v>4</v>
+      </c>
+      <c r="M344" t="n">
+        <v>27</v>
+      </c>
+      <c r="N344" t="n">
+        <v>39</v>
+      </c>
+      <c r="O344" t="n">
+        <v>0</v>
+      </c>
+      <c r="P344" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R344" t="n">
+        <v>11</v>
+      </c>
+      <c r="S344" t="n">
+        <v>7</v>
+      </c>
+      <c r="T344" t="n">
+        <v>13</v>
+      </c>
+      <c r="U344" t="n">
+        <v>18</v>
+      </c>
+      <c r="V344" t="n">
+        <v>138</v>
+      </c>
+      <c r="W344" t="n">
+        <v>3</v>
+      </c>
+      <c r="X344" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y344" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z344" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA344" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB344" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC344" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD344" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE344" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF344" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG344" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH344" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI344" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ344" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK344" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL344" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM344" t="n">
+        <v>43</v>
+      </c>
+      <c r="AN344" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO344" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP344" t="n">
+        <v>656</v>
+      </c>
+      <c r="AQ344" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR344" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW344" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX344" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B345" t="n">
+        <v>8</v>
+      </c>
+      <c r="C345" t="n">
+        <v>6</v>
+      </c>
+      <c r="D345" t="n">
+        <v>1</v>
+      </c>
+      <c r="E345" t="n">
+        <v>71</v>
+      </c>
+      <c r="F345" t="n">
+        <v>19</v>
+      </c>
+      <c r="G345" t="n">
+        <v>14</v>
+      </c>
+      <c r="H345" t="n">
+        <v>22</v>
+      </c>
+      <c r="I345" t="n">
+        <v>4</v>
+      </c>
+      <c r="J345" t="n">
+        <v>5</v>
+      </c>
+      <c r="K345" t="n">
+        <v>18</v>
+      </c>
+      <c r="L345" t="n">
+        <v>4</v>
+      </c>
+      <c r="M345" t="n">
+        <v>26</v>
+      </c>
+      <c r="N345" t="n">
+        <v>38</v>
+      </c>
+      <c r="O345" t="n">
+        <v>0</v>
+      </c>
+      <c r="P345" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R345" t="n">
+        <v>11</v>
+      </c>
+      <c r="S345" t="n">
+        <v>5</v>
+      </c>
+      <c r="T345" t="n">
+        <v>13</v>
+      </c>
+      <c r="U345" t="n">
+        <v>17</v>
+      </c>
+      <c r="V345" t="n">
+        <v>125</v>
+      </c>
+      <c r="W345" t="n">
+        <v>3</v>
+      </c>
+      <c r="X345" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y345" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z345" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA345" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB345" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC345" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD345" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE345" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF345" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG345" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH345" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI345" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ345" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK345" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL345" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM345" t="n">
+        <v>44</v>
+      </c>
+      <c r="AN345" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO345" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP345" t="n">
+        <v>645</v>
+      </c>
+      <c r="AQ345" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR345" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS345" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT345" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU345" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV345" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW345" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX345" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B346" t="n">
+        <v>10</v>
+      </c>
+      <c r="C346" t="n">
+        <v>5</v>
+      </c>
+      <c r="D346" t="n">
+        <v>1</v>
+      </c>
+      <c r="E346" t="n">
+        <v>78</v>
+      </c>
+      <c r="F346" t="n">
+        <v>13</v>
+      </c>
+      <c r="G346" t="n">
+        <v>18</v>
+      </c>
+      <c r="H346" t="n">
+        <v>20</v>
+      </c>
+      <c r="I346" t="n">
+        <v>4</v>
+      </c>
+      <c r="J346" t="n">
+        <v>5</v>
+      </c>
+      <c r="K346" t="n">
+        <v>19</v>
+      </c>
+      <c r="L346" t="n">
+        <v>4</v>
+      </c>
+      <c r="M346" t="n">
+        <v>27</v>
+      </c>
+      <c r="N346" t="n">
+        <v>40</v>
+      </c>
+      <c r="O346" t="n">
+        <v>0</v>
+      </c>
+      <c r="P346" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R346" t="n">
+        <v>12</v>
+      </c>
+      <c r="S346" t="n">
+        <v>6</v>
+      </c>
+      <c r="T346" t="n">
+        <v>12</v>
+      </c>
+      <c r="U346" t="n">
+        <v>20</v>
+      </c>
+      <c r="V346" t="n">
+        <v>114</v>
+      </c>
+      <c r="W346" t="n">
+        <v>3</v>
+      </c>
+      <c r="X346" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y346" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z346" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA346" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB346" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC346" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD346" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE346" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF346" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG346" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH346" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI346" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ346" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK346" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL346" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM346" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN346" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO346" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP346" t="n">
+        <v>651</v>
+      </c>
+      <c r="AQ346" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR346" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS346" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT346" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU346" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV346" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW346" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX346" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>44421</v>
+      </c>
+      <c r="B347" t="n">
+        <v>10</v>
+      </c>
+      <c r="C347" t="n">
+        <v>5</v>
+      </c>
+      <c r="D347" t="n">
+        <v>1</v>
+      </c>
+      <c r="E347" t="n">
+        <v>70</v>
+      </c>
+      <c r="F347" t="n">
+        <v>14</v>
+      </c>
+      <c r="G347" t="n">
+        <v>20</v>
+      </c>
+      <c r="H347" t="n">
+        <v>23</v>
+      </c>
+      <c r="I347" t="n">
+        <v>4</v>
+      </c>
+      <c r="J347" t="n">
+        <v>6</v>
+      </c>
+      <c r="K347" t="n">
+        <v>19</v>
+      </c>
+      <c r="L347" t="n">
+        <v>6</v>
+      </c>
+      <c r="M347" t="n">
+        <v>28</v>
+      </c>
+      <c r="N347" t="n">
+        <v>42</v>
+      </c>
+      <c r="O347" t="n">
+        <v>0</v>
+      </c>
+      <c r="P347" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R347" t="n">
+        <v>11</v>
+      </c>
+      <c r="S347" t="n">
+        <v>6</v>
+      </c>
+      <c r="T347" t="n">
+        <v>16</v>
+      </c>
+      <c r="U347" t="n">
+        <v>29</v>
+      </c>
+      <c r="V347" t="n">
+        <v>127</v>
+      </c>
+      <c r="W347" t="n">
+        <v>4</v>
+      </c>
+      <c r="X347" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y347" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z347" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA347" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB347" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC347" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD347" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE347" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF347" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG347" t="n">
+        <v>37</v>
+      </c>
+      <c r="AH347" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI347" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ347" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK347" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL347" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM347" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN347" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO347" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP347" t="n">
+        <v>689</v>
+      </c>
+      <c r="AQ347" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR347" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS347" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT347" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU347" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV347" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW347" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX347" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>44422</v>
+      </c>
+      <c r="B348" t="n">
+        <v>10</v>
+      </c>
+      <c r="C348" t="n">
+        <v>5</v>
+      </c>
+      <c r="D348" t="n">
+        <v>2</v>
+      </c>
+      <c r="E348" t="n">
+        <v>77</v>
+      </c>
+      <c r="F348" t="n">
+        <v>12</v>
+      </c>
+      <c r="G348" t="n">
+        <v>21</v>
+      </c>
+      <c r="H348" t="n">
+        <v>21</v>
+      </c>
+      <c r="I348" t="n">
+        <v>4</v>
+      </c>
+      <c r="J348" t="n">
+        <v>4</v>
+      </c>
+      <c r="K348" t="n">
+        <v>15</v>
+      </c>
+      <c r="L348" t="n">
+        <v>9</v>
+      </c>
+      <c r="M348" t="n">
+        <v>29</v>
+      </c>
+      <c r="N348" t="n">
+        <v>41</v>
+      </c>
+      <c r="O348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P348" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R348" t="n">
+        <v>13</v>
+      </c>
+      <c r="S348" t="n">
+        <v>6</v>
+      </c>
+      <c r="T348" t="n">
+        <v>15</v>
+      </c>
+      <c r="U348" t="n">
+        <v>30</v>
+      </c>
+      <c r="V348" t="n">
+        <v>134</v>
+      </c>
+      <c r="W348" t="n">
+        <v>3</v>
+      </c>
+      <c r="X348" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y348" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z348" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA348" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB348" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC348" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD348" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE348" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF348" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG348" t="n">
+        <v>37</v>
+      </c>
+      <c r="AH348" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI348" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ348" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK348" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL348" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM348" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN348" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO348" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP348" t="n">
+        <v>702</v>
+      </c>
+      <c r="AQ348" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR348" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS348" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT348" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU348" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV348" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW348" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX348" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>44423</v>
+      </c>
+      <c r="B349" t="n">
+        <v>10</v>
+      </c>
+      <c r="C349" t="n">
+        <v>3</v>
+      </c>
+      <c r="D349" t="n">
+        <v>3</v>
+      </c>
+      <c r="E349" t="n">
+        <v>74</v>
+      </c>
+      <c r="F349" t="n">
+        <v>13</v>
+      </c>
+      <c r="G349" t="n">
+        <v>20</v>
+      </c>
+      <c r="H349" t="n">
+        <v>15</v>
+      </c>
+      <c r="I349" t="n">
+        <v>2</v>
+      </c>
+      <c r="J349" t="n">
+        <v>3</v>
+      </c>
+      <c r="K349" t="n">
+        <v>8</v>
+      </c>
+      <c r="L349" t="n">
+        <v>8</v>
+      </c>
+      <c r="M349" t="n">
+        <v>26</v>
+      </c>
+      <c r="N349" t="n">
+        <v>38</v>
+      </c>
+      <c r="O349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P349" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R349" t="n">
+        <v>11</v>
+      </c>
+      <c r="S349" t="n">
+        <v>6</v>
+      </c>
+      <c r="T349" t="n">
+        <v>11</v>
+      </c>
+      <c r="U349" t="n">
+        <v>22</v>
+      </c>
+      <c r="V349" t="n">
+        <v>133</v>
+      </c>
+      <c r="W349" t="n">
+        <v>3</v>
+      </c>
+      <c r="X349" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y349" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z349" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA349" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB349" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC349" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD349" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE349" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF349" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG349" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH349" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI349" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ349" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK349" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL349" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM349" t="n">
+        <v>48</v>
+      </c>
+      <c r="AN349" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO349" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP349" t="n">
+        <v>661</v>
+      </c>
+      <c r="AQ349" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR349" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS349" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT349" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU349" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV349" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW349" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX349" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>44424</v>
+      </c>
+      <c r="B350" t="n">
+        <v>12</v>
+      </c>
+      <c r="C350" t="n">
+        <v>5</v>
+      </c>
+      <c r="D350" t="n">
+        <v>4</v>
+      </c>
+      <c r="E350" t="n">
+        <v>72</v>
+      </c>
+      <c r="F350" t="n">
+        <v>16</v>
+      </c>
+      <c r="G350" t="n">
+        <v>18</v>
+      </c>
+      <c r="H350" t="n">
+        <v>14</v>
+      </c>
+      <c r="I350" t="n">
+        <v>1</v>
+      </c>
+      <c r="J350" t="n">
+        <v>3</v>
+      </c>
+      <c r="K350" t="n">
+        <v>9</v>
+      </c>
+      <c r="L350" t="n">
+        <v>9</v>
+      </c>
+      <c r="M350" t="n">
+        <v>22</v>
+      </c>
+      <c r="N350" t="n">
+        <v>39</v>
+      </c>
+      <c r="O350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P350" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>1</v>
+      </c>
+      <c r="R350" t="n">
+        <v>14</v>
+      </c>
+      <c r="S350" t="n">
+        <v>5</v>
+      </c>
+      <c r="T350" t="n">
+        <v>8</v>
+      </c>
+      <c r="U350" t="n">
+        <v>22</v>
+      </c>
+      <c r="V350" t="n">
+        <v>135</v>
+      </c>
+      <c r="W350" t="n">
+        <v>2</v>
+      </c>
+      <c r="X350" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y350" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z350" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA350" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB350" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC350" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD350" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE350" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF350" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG350" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH350" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI350" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ350" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK350" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL350" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM350" t="n">
+        <v>44</v>
+      </c>
+      <c r="AN350" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO350" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP350" t="n">
+        <v>671</v>
+      </c>
+      <c r="AQ350" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR350" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS350" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT350" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU350" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV350" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW350" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX350" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="B351" t="n">
+        <v>11</v>
+      </c>
+      <c r="C351" t="n">
+        <v>5</v>
+      </c>
+      <c r="D351" t="n">
+        <v>3</v>
+      </c>
+      <c r="E351" t="n">
+        <v>75</v>
+      </c>
+      <c r="F351" t="n">
+        <v>16</v>
+      </c>
+      <c r="G351" t="n">
+        <v>22</v>
+      </c>
+      <c r="H351" t="n">
+        <v>12</v>
+      </c>
+      <c r="I351" t="n">
+        <v>2</v>
+      </c>
+      <c r="J351" t="n">
+        <v>2</v>
+      </c>
+      <c r="K351" t="n">
+        <v>10</v>
+      </c>
+      <c r="L351" t="n">
+        <v>11</v>
+      </c>
+      <c r="M351" t="n">
+        <v>18</v>
+      </c>
+      <c r="N351" t="n">
+        <v>40</v>
+      </c>
+      <c r="O351" t="n">
+        <v>0</v>
+      </c>
+      <c r="P351" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>4</v>
+      </c>
+      <c r="R351" t="n">
+        <v>16</v>
+      </c>
+      <c r="S351" t="n">
+        <v>5</v>
+      </c>
+      <c r="T351" t="n">
+        <v>6</v>
+      </c>
+      <c r="U351" t="n">
+        <v>24</v>
+      </c>
+      <c r="V351" t="n">
+        <v>134</v>
+      </c>
+      <c r="W351" t="n">
+        <v>2</v>
+      </c>
+      <c r="X351" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y351" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z351" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA351" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB351" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC351" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD351" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE351" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF351" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG351" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH351" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI351" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ351" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK351" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL351" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM351" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN351" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO351" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP351" t="n">
+        <v>679</v>
+      </c>
+      <c r="AQ351" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR351" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS351" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT351" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU351" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV351" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW351" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX351" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="B352" t="n">
+        <v>11</v>
+      </c>
+      <c r="C352" t="n">
+        <v>5</v>
+      </c>
+      <c r="D352" t="n">
+        <v>3</v>
+      </c>
+      <c r="E352" t="n">
+        <v>78</v>
+      </c>
+      <c r="F352" t="n">
+        <v>17</v>
+      </c>
+      <c r="G352" t="n">
+        <v>20</v>
+      </c>
+      <c r="H352" t="n">
+        <v>10</v>
+      </c>
+      <c r="I352" t="n">
+        <v>2</v>
+      </c>
+      <c r="J352" t="n">
+        <v>2</v>
+      </c>
+      <c r="K352" t="n">
+        <v>11</v>
+      </c>
+      <c r="L352" t="n">
+        <v>11</v>
+      </c>
+      <c r="M352" t="n">
+        <v>18</v>
+      </c>
+      <c r="N352" t="n">
+        <v>41</v>
+      </c>
+      <c r="O352" t="n">
+        <v>0</v>
+      </c>
+      <c r="P352" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>4</v>
+      </c>
+      <c r="R352" t="n">
+        <v>15</v>
+      </c>
+      <c r="S352" t="n">
+        <v>5</v>
+      </c>
+      <c r="T352" t="n">
+        <v>6</v>
+      </c>
+      <c r="U352" t="n">
+        <v>23</v>
+      </c>
+      <c r="V352" t="n">
+        <v>140</v>
+      </c>
+      <c r="W352" t="n">
+        <v>2</v>
+      </c>
+      <c r="X352" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y352" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z352" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA352" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB352" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC352" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD352" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE352" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF352" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG352" t="n">
+        <v>37</v>
+      </c>
+      <c r="AH352" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI352" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ352" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK352" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL352" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM352" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN352" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO352" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP352" t="n">
+        <v>686</v>
+      </c>
+      <c r="AQ352" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR352" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS352" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT352" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU352" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV352" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW352" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX352" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>44427</v>
+      </c>
+      <c r="B353" t="n">
+        <v>7</v>
+      </c>
+      <c r="C353" t="n">
+        <v>6</v>
+      </c>
+      <c r="D353" t="n">
+        <v>3</v>
+      </c>
+      <c r="E353" t="n">
+        <v>72</v>
+      </c>
+      <c r="F353" t="n">
+        <v>13</v>
+      </c>
+      <c r="G353" t="n">
+        <v>15</v>
+      </c>
+      <c r="H353" t="n">
+        <v>9</v>
+      </c>
+      <c r="I353" t="n">
+        <v>2</v>
+      </c>
+      <c r="J353" t="n">
+        <v>2</v>
+      </c>
+      <c r="K353" t="n">
+        <v>12</v>
+      </c>
+      <c r="L353" t="n">
+        <v>10</v>
+      </c>
+      <c r="M353" t="n">
+        <v>20</v>
+      </c>
+      <c r="N353" t="n">
+        <v>40</v>
+      </c>
+      <c r="O353" t="n">
+        <v>0</v>
+      </c>
+      <c r="P353" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>4</v>
+      </c>
+      <c r="R353" t="n">
+        <v>15</v>
+      </c>
+      <c r="S353" t="n">
+        <v>5</v>
+      </c>
+      <c r="T353" t="n">
+        <v>6</v>
+      </c>
+      <c r="U353" t="n">
+        <v>21</v>
+      </c>
+      <c r="V353" t="n">
+        <v>149</v>
+      </c>
+      <c r="W353" t="n">
+        <v>1</v>
+      </c>
+      <c r="X353" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y353" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z353" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA353" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB353" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC353" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD353" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE353" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF353" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG353" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH353" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI353" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ353" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK353" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL353" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM353" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN353" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO353" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP353" t="n">
+        <v>662</v>
+      </c>
+      <c r="AQ353" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR353" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS353" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT353" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU353" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV353" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW353" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX353" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>44428</v>
+      </c>
+      <c r="B354" t="n">
+        <v>11</v>
+      </c>
+      <c r="C354" t="n">
+        <v>6</v>
+      </c>
+      <c r="D354" t="n">
+        <v>4</v>
+      </c>
+      <c r="E354" t="n">
+        <v>72</v>
+      </c>
+      <c r="F354" t="n">
+        <v>22</v>
+      </c>
+      <c r="G354" t="n">
+        <v>12</v>
+      </c>
+      <c r="H354" t="n">
+        <v>6</v>
+      </c>
+      <c r="I354" t="n">
+        <v>1</v>
+      </c>
+      <c r="J354" t="n">
+        <v>1</v>
+      </c>
+      <c r="K354" t="n">
+        <v>11</v>
+      </c>
+      <c r="L354" t="n">
+        <v>12</v>
+      </c>
+      <c r="M354" t="n">
+        <v>17</v>
+      </c>
+      <c r="N354" t="n">
+        <v>40</v>
+      </c>
+      <c r="O354" t="n">
+        <v>0</v>
+      </c>
+      <c r="P354" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>5</v>
+      </c>
+      <c r="R354" t="n">
+        <v>17</v>
+      </c>
+      <c r="S354" t="n">
+        <v>5</v>
+      </c>
+      <c r="T354" t="n">
+        <v>1</v>
+      </c>
+      <c r="U354" t="n">
+        <v>14</v>
+      </c>
+      <c r="V354" t="n">
+        <v>148</v>
+      </c>
+      <c r="W354" t="n">
+        <v>0</v>
+      </c>
+      <c r="X354" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y354" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z354" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA354" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB354" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC354" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD354" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE354" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF354" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG354" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH354" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI354" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ354" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK354" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL354" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM354" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN354" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO354" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP354" t="n">
+        <v>657</v>
+      </c>
+      <c r="AQ354" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR354" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS354" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT354" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU354" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV354" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW354" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX354" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>44429</v>
+      </c>
+      <c r="B355" t="n">
+        <v>12</v>
+      </c>
+      <c r="C355" t="n">
+        <v>7</v>
+      </c>
+      <c r="D355" t="n">
+        <v>3</v>
+      </c>
+      <c r="E355" t="n">
+        <v>63</v>
+      </c>
+      <c r="F355" t="n">
+        <v>22</v>
+      </c>
+      <c r="G355" t="n">
+        <v>11</v>
+      </c>
+      <c r="H355" t="n">
+        <v>7</v>
+      </c>
+      <c r="I355" t="n">
+        <v>1</v>
+      </c>
+      <c r="J355" t="n">
+        <v>1</v>
+      </c>
+      <c r="K355" t="n">
+        <v>11</v>
+      </c>
+      <c r="L355" t="n">
+        <v>9</v>
+      </c>
+      <c r="M355" t="n">
+        <v>13</v>
+      </c>
+      <c r="N355" t="n">
+        <v>32</v>
+      </c>
+      <c r="O355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P355" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>5</v>
+      </c>
+      <c r="R355" t="n">
+        <v>15</v>
+      </c>
+      <c r="S355" t="n">
+        <v>6</v>
+      </c>
+      <c r="T355" t="n">
+        <v>1</v>
+      </c>
+      <c r="U355" t="n">
+        <v>11</v>
+      </c>
+      <c r="V355" t="n">
+        <v>169</v>
+      </c>
+      <c r="W355" t="n">
+        <v>0</v>
+      </c>
+      <c r="X355" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y355" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z355" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA355" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB355" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC355" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD355" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE355" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF355" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG355" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH355" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI355" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ355" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK355" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL355" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM355" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN355" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO355" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP355" t="n">
+        <v>652</v>
+      </c>
+      <c r="AQ355" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR355" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS355" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT355" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU355" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV355" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW355" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX355" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>44430</v>
+      </c>
+      <c r="B356" t="n">
+        <v>12</v>
+      </c>
+      <c r="C356" t="n">
+        <v>9</v>
+      </c>
+      <c r="D356" t="n">
+        <v>2</v>
+      </c>
+      <c r="E356" t="n">
+        <v>67</v>
+      </c>
+      <c r="F356" t="n">
+        <v>23</v>
+      </c>
+      <c r="G356" t="n">
+        <v>12</v>
+      </c>
+      <c r="H356" t="n">
+        <v>9</v>
+      </c>
+      <c r="I356" t="n">
+        <v>2</v>
+      </c>
+      <c r="J356" t="n">
+        <v>1</v>
+      </c>
+      <c r="K356" t="n">
+        <v>11</v>
+      </c>
+      <c r="L356" t="n">
+        <v>13</v>
+      </c>
+      <c r="M356" t="n">
+        <v>12</v>
+      </c>
+      <c r="N356" t="n">
+        <v>30</v>
+      </c>
+      <c r="O356" t="n">
+        <v>0</v>
+      </c>
+      <c r="P356" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>6</v>
+      </c>
+      <c r="R356" t="n">
+        <v>16</v>
+      </c>
+      <c r="S356" t="n">
+        <v>6</v>
+      </c>
+      <c r="T356" t="n">
+        <v>3</v>
+      </c>
+      <c r="U356" t="n">
+        <v>17</v>
+      </c>
+      <c r="V356" t="n">
+        <v>154</v>
+      </c>
+      <c r="W356" t="n">
+        <v>0</v>
+      </c>
+      <c r="X356" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y356" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z356" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA356" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB356" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC356" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD356" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE356" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF356" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG356" t="n">
+        <v>39</v>
+      </c>
+      <c r="AH356" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI356" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ356" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK356" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL356" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM356" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN356" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO356" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP356" t="n">
+        <v>664</v>
+      </c>
+      <c r="AQ356" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR356" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS356" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT356" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU356" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV356" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW356" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX356" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>44431</v>
+      </c>
+      <c r="B357" t="n">
+        <v>7</v>
+      </c>
+      <c r="C357" t="n">
+        <v>6</v>
+      </c>
+      <c r="D357" t="n">
+        <v>1</v>
+      </c>
+      <c r="E357" t="n">
+        <v>64</v>
+      </c>
+      <c r="F357" t="n">
+        <v>24</v>
+      </c>
+      <c r="G357" t="n">
+        <v>11</v>
+      </c>
+      <c r="H357" t="n">
+        <v>8</v>
+      </c>
+      <c r="I357" t="n">
+        <v>2</v>
+      </c>
+      <c r="J357" t="n">
+        <v>1</v>
+      </c>
+      <c r="K357" t="n">
+        <v>11</v>
+      </c>
+      <c r="L357" t="n">
+        <v>12</v>
+      </c>
+      <c r="M357" t="n">
+        <v>14</v>
+      </c>
+      <c r="N357" t="n">
+        <v>27</v>
+      </c>
+      <c r="O357" t="n">
+        <v>0</v>
+      </c>
+      <c r="P357" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>6</v>
+      </c>
+      <c r="R357" t="n">
+        <v>14</v>
+      </c>
+      <c r="S357" t="n">
+        <v>5</v>
+      </c>
+      <c r="T357" t="n">
+        <v>3</v>
+      </c>
+      <c r="U357" t="n">
+        <v>16</v>
+      </c>
+      <c r="V357" t="n">
+        <v>167</v>
+      </c>
+      <c r="W357" t="n">
+        <v>0</v>
+      </c>
+      <c r="X357" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y357" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z357" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA357" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB357" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC357" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD357" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE357" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF357" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG357" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH357" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI357" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ357" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK357" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL357" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM357" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN357" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO357" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP357" t="n">
+        <v>639</v>
+      </c>
+      <c r="AQ357" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR357" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS357" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT357" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU357" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV357" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW357" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX357" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX357"/>
+  <dimension ref="A1:AX366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54143,6 +54143,1374 @@
         <v>7</v>
       </c>
     </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="B358" t="n">
+        <v>7</v>
+      </c>
+      <c r="C358" t="n">
+        <v>6</v>
+      </c>
+      <c r="D358" t="n">
+        <v>2</v>
+      </c>
+      <c r="E358" t="n">
+        <v>61</v>
+      </c>
+      <c r="F358" t="n">
+        <v>23</v>
+      </c>
+      <c r="G358" t="n">
+        <v>8</v>
+      </c>
+      <c r="H358" t="n">
+        <v>8</v>
+      </c>
+      <c r="I358" t="n">
+        <v>1</v>
+      </c>
+      <c r="J358" t="n">
+        <v>2</v>
+      </c>
+      <c r="K358" t="n">
+        <v>8</v>
+      </c>
+      <c r="L358" t="n">
+        <v>10</v>
+      </c>
+      <c r="M358" t="n">
+        <v>12</v>
+      </c>
+      <c r="N358" t="n">
+        <v>21</v>
+      </c>
+      <c r="O358" t="n">
+        <v>0</v>
+      </c>
+      <c r="P358" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>3</v>
+      </c>
+      <c r="R358" t="n">
+        <v>15</v>
+      </c>
+      <c r="S358" t="n">
+        <v>5</v>
+      </c>
+      <c r="T358" t="n">
+        <v>5</v>
+      </c>
+      <c r="U358" t="n">
+        <v>17</v>
+      </c>
+      <c r="V358" t="n">
+        <v>190</v>
+      </c>
+      <c r="W358" t="n">
+        <v>0</v>
+      </c>
+      <c r="X358" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y358" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z358" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA358" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB358" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC358" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD358" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE358" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF358" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG358" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH358" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI358" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ358" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK358" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL358" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM358" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN358" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO358" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP358" t="n">
+        <v>631</v>
+      </c>
+      <c r="AQ358" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR358" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS358" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT358" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU358" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV358" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW358" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX358" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="B359" t="n">
+        <v>8</v>
+      </c>
+      <c r="C359" t="n">
+        <v>8</v>
+      </c>
+      <c r="D359" t="n">
+        <v>2</v>
+      </c>
+      <c r="E359" t="n">
+        <v>54</v>
+      </c>
+      <c r="F359" t="n">
+        <v>23</v>
+      </c>
+      <c r="G359" t="n">
+        <v>8</v>
+      </c>
+      <c r="H359" t="n">
+        <v>8</v>
+      </c>
+      <c r="I359" t="n">
+        <v>1</v>
+      </c>
+      <c r="J359" t="n">
+        <v>2</v>
+      </c>
+      <c r="K359" t="n">
+        <v>6</v>
+      </c>
+      <c r="L359" t="n">
+        <v>10</v>
+      </c>
+      <c r="M359" t="n">
+        <v>14</v>
+      </c>
+      <c r="N359" t="n">
+        <v>20</v>
+      </c>
+      <c r="O359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P359" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>3</v>
+      </c>
+      <c r="R359" t="n">
+        <v>16</v>
+      </c>
+      <c r="S359" t="n">
+        <v>6</v>
+      </c>
+      <c r="T359" t="n">
+        <v>5</v>
+      </c>
+      <c r="U359" t="n">
+        <v>17</v>
+      </c>
+      <c r="V359" t="n">
+        <v>199</v>
+      </c>
+      <c r="W359" t="n">
+        <v>0</v>
+      </c>
+      <c r="X359" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y359" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z359" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA359" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB359" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC359" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD359" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE359" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF359" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG359" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH359" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI359" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ359" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK359" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL359" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM359" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN359" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO359" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP359" t="n">
+        <v>633</v>
+      </c>
+      <c r="AQ359" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR359" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS359" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT359" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU359" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV359" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW359" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX359" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>44434</v>
+      </c>
+      <c r="B360" t="n">
+        <v>7</v>
+      </c>
+      <c r="C360" t="n">
+        <v>7</v>
+      </c>
+      <c r="D360" t="n">
+        <v>2</v>
+      </c>
+      <c r="E360" t="n">
+        <v>61</v>
+      </c>
+      <c r="F360" t="n">
+        <v>24</v>
+      </c>
+      <c r="G360" t="n">
+        <v>7</v>
+      </c>
+      <c r="H360" t="n">
+        <v>8</v>
+      </c>
+      <c r="I360" t="n">
+        <v>1</v>
+      </c>
+      <c r="J360" t="n">
+        <v>2</v>
+      </c>
+      <c r="K360" t="n">
+        <v>3</v>
+      </c>
+      <c r="L360" t="n">
+        <v>10</v>
+      </c>
+      <c r="M360" t="n">
+        <v>13</v>
+      </c>
+      <c r="N360" t="n">
+        <v>23</v>
+      </c>
+      <c r="O360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P360" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>3</v>
+      </c>
+      <c r="R360" t="n">
+        <v>17</v>
+      </c>
+      <c r="S360" t="n">
+        <v>4</v>
+      </c>
+      <c r="T360" t="n">
+        <v>6</v>
+      </c>
+      <c r="U360" t="n">
+        <v>17</v>
+      </c>
+      <c r="V360" t="n">
+        <v>179</v>
+      </c>
+      <c r="W360" t="n">
+        <v>0</v>
+      </c>
+      <c r="X360" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y360" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z360" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA360" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB360" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC360" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD360" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE360" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF360" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG360" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH360" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI360" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ360" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK360" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL360" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM360" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN360" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO360" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP360" t="n">
+        <v>604</v>
+      </c>
+      <c r="AQ360" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR360" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS360" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT360" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU360" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV360" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW360" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX360" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>44435</v>
+      </c>
+      <c r="B361" t="n">
+        <v>5</v>
+      </c>
+      <c r="C361" t="n">
+        <v>8</v>
+      </c>
+      <c r="D361" t="n">
+        <v>1</v>
+      </c>
+      <c r="E361" t="n">
+        <v>67</v>
+      </c>
+      <c r="F361" t="n">
+        <v>26</v>
+      </c>
+      <c r="G361" t="n">
+        <v>7</v>
+      </c>
+      <c r="H361" t="n">
+        <v>10</v>
+      </c>
+      <c r="I361" t="n">
+        <v>3</v>
+      </c>
+      <c r="J361" t="n">
+        <v>1</v>
+      </c>
+      <c r="K361" t="n">
+        <v>2</v>
+      </c>
+      <c r="L361" t="n">
+        <v>8</v>
+      </c>
+      <c r="M361" t="n">
+        <v>13</v>
+      </c>
+      <c r="N361" t="n">
+        <v>20</v>
+      </c>
+      <c r="O361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P361" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>2</v>
+      </c>
+      <c r="R361" t="n">
+        <v>17</v>
+      </c>
+      <c r="S361" t="n">
+        <v>4</v>
+      </c>
+      <c r="T361" t="n">
+        <v>5</v>
+      </c>
+      <c r="U361" t="n">
+        <v>16</v>
+      </c>
+      <c r="V361" t="n">
+        <v>186</v>
+      </c>
+      <c r="W361" t="n">
+        <v>0</v>
+      </c>
+      <c r="X361" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y361" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z361" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA361" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB361" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC361" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD361" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE361" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF361" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG361" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH361" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI361" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ361" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK361" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL361" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM361" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN361" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO361" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP361" t="n">
+        <v>622</v>
+      </c>
+      <c r="AQ361" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR361" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS361" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT361" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU361" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV361" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW361" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX361" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>44436</v>
+      </c>
+      <c r="B362" t="n">
+        <v>4</v>
+      </c>
+      <c r="C362" t="n">
+        <v>11</v>
+      </c>
+      <c r="D362" t="n">
+        <v>1</v>
+      </c>
+      <c r="E362" t="n">
+        <v>72</v>
+      </c>
+      <c r="F362" t="n">
+        <v>24</v>
+      </c>
+      <c r="G362" t="n">
+        <v>6</v>
+      </c>
+      <c r="H362" t="n">
+        <v>8</v>
+      </c>
+      <c r="I362" t="n">
+        <v>3</v>
+      </c>
+      <c r="J362" t="n">
+        <v>1</v>
+      </c>
+      <c r="K362" t="n">
+        <v>3</v>
+      </c>
+      <c r="L362" t="n">
+        <v>9</v>
+      </c>
+      <c r="M362" t="n">
+        <v>13</v>
+      </c>
+      <c r="N362" t="n">
+        <v>20</v>
+      </c>
+      <c r="O362" t="n">
+        <v>0</v>
+      </c>
+      <c r="P362" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q362" t="n">
+        <v>2</v>
+      </c>
+      <c r="R362" t="n">
+        <v>15</v>
+      </c>
+      <c r="S362" t="n">
+        <v>4</v>
+      </c>
+      <c r="T362" t="n">
+        <v>6</v>
+      </c>
+      <c r="U362" t="n">
+        <v>16</v>
+      </c>
+      <c r="V362" t="n">
+        <v>173</v>
+      </c>
+      <c r="W362" t="n">
+        <v>0</v>
+      </c>
+      <c r="X362" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y362" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z362" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA362" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB362" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC362" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD362" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE362" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF362" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG362" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH362" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI362" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ362" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK362" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL362" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM362" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN362" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO362" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP362" t="n">
+        <v>627</v>
+      </c>
+      <c r="AQ362" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR362" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS362" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT362" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU362" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV362" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW362" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX362" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>44437</v>
+      </c>
+      <c r="B363" t="n">
+        <v>11</v>
+      </c>
+      <c r="C363" t="n">
+        <v>9</v>
+      </c>
+      <c r="D363" t="n">
+        <v>6</v>
+      </c>
+      <c r="E363" t="n">
+        <v>70</v>
+      </c>
+      <c r="F363" t="n">
+        <v>35</v>
+      </c>
+      <c r="G363" t="n">
+        <v>5</v>
+      </c>
+      <c r="H363" t="n">
+        <v>7</v>
+      </c>
+      <c r="I363" t="n">
+        <v>3</v>
+      </c>
+      <c r="J363" t="n">
+        <v>1</v>
+      </c>
+      <c r="K363" t="n">
+        <v>4</v>
+      </c>
+      <c r="L363" t="n">
+        <v>14</v>
+      </c>
+      <c r="M363" t="n">
+        <v>19</v>
+      </c>
+      <c r="N363" t="n">
+        <v>18</v>
+      </c>
+      <c r="O363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>1</v>
+      </c>
+      <c r="R363" t="n">
+        <v>14</v>
+      </c>
+      <c r="S363" t="n">
+        <v>4</v>
+      </c>
+      <c r="T363" t="n">
+        <v>4</v>
+      </c>
+      <c r="U363" t="n">
+        <v>14</v>
+      </c>
+      <c r="V363" t="n">
+        <v>188</v>
+      </c>
+      <c r="W363" t="n">
+        <v>0</v>
+      </c>
+      <c r="X363" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y363" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z363" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA363" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB363" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC363" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD363" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE363" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF363" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG363" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH363" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI363" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ363" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK363" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL363" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM363" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO363" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP363" t="n">
+        <v>665</v>
+      </c>
+      <c r="AQ363" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR363" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU363" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV363" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW363" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX363" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>44438</v>
+      </c>
+      <c r="B364" t="n">
+        <v>12</v>
+      </c>
+      <c r="C364" t="n">
+        <v>12</v>
+      </c>
+      <c r="D364" t="n">
+        <v>6</v>
+      </c>
+      <c r="E364" t="n">
+        <v>107</v>
+      </c>
+      <c r="F364" t="n">
+        <v>38</v>
+      </c>
+      <c r="G364" t="n">
+        <v>6</v>
+      </c>
+      <c r="H364" t="n">
+        <v>9</v>
+      </c>
+      <c r="I364" t="n">
+        <v>3</v>
+      </c>
+      <c r="J364" t="n">
+        <v>1</v>
+      </c>
+      <c r="K364" t="n">
+        <v>2</v>
+      </c>
+      <c r="L364" t="n">
+        <v>14</v>
+      </c>
+      <c r="M364" t="n">
+        <v>20</v>
+      </c>
+      <c r="N364" t="n">
+        <v>16</v>
+      </c>
+      <c r="O364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R364" t="n">
+        <v>18</v>
+      </c>
+      <c r="S364" t="n">
+        <v>4</v>
+      </c>
+      <c r="T364" t="n">
+        <v>4</v>
+      </c>
+      <c r="U364" t="n">
+        <v>15</v>
+      </c>
+      <c r="V364" t="n">
+        <v>183</v>
+      </c>
+      <c r="W364" t="n">
+        <v>2</v>
+      </c>
+      <c r="X364" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y364" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z364" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA364" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB364" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC364" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD364" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE364" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF364" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG364" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH364" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI364" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ364" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK364" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL364" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM364" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN364" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO364" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP364" t="n">
+        <v>740</v>
+      </c>
+      <c r="AQ364" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR364" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS364" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT364" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU364" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV364" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW364" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX364" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B365" t="n">
+        <v>13</v>
+      </c>
+      <c r="C365" t="n">
+        <v>11</v>
+      </c>
+      <c r="D365" t="n">
+        <v>5</v>
+      </c>
+      <c r="E365" t="n">
+        <v>113</v>
+      </c>
+      <c r="F365" t="n">
+        <v>38</v>
+      </c>
+      <c r="G365" t="n">
+        <v>6</v>
+      </c>
+      <c r="H365" t="n">
+        <v>9</v>
+      </c>
+      <c r="I365" t="n">
+        <v>5</v>
+      </c>
+      <c r="J365" t="n">
+        <v>2</v>
+      </c>
+      <c r="K365" t="n">
+        <v>5</v>
+      </c>
+      <c r="L365" t="n">
+        <v>24</v>
+      </c>
+      <c r="M365" t="n">
+        <v>30</v>
+      </c>
+      <c r="N365" t="n">
+        <v>15</v>
+      </c>
+      <c r="O365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R365" t="n">
+        <v>15</v>
+      </c>
+      <c r="S365" t="n">
+        <v>4</v>
+      </c>
+      <c r="T365" t="n">
+        <v>2</v>
+      </c>
+      <c r="U365" t="n">
+        <v>14</v>
+      </c>
+      <c r="V365" t="n">
+        <v>169</v>
+      </c>
+      <c r="W365" t="n">
+        <v>2</v>
+      </c>
+      <c r="X365" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y365" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z365" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA365" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB365" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC365" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD365" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE365" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF365" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG365" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH365" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI365" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ365" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK365" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL365" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM365" t="n">
+        <v>33</v>
+      </c>
+      <c r="AN365" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO365" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP365" t="n">
+        <v>755</v>
+      </c>
+      <c r="AQ365" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR365" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS365" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT365" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU365" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV365" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW365" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX365" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B366" t="n">
+        <v>13</v>
+      </c>
+      <c r="C366" t="n">
+        <v>9</v>
+      </c>
+      <c r="D366" t="n">
+        <v>5</v>
+      </c>
+      <c r="E366" t="n">
+        <v>114</v>
+      </c>
+      <c r="F366" t="n">
+        <v>37</v>
+      </c>
+      <c r="G366" t="n">
+        <v>5</v>
+      </c>
+      <c r="H366" t="n">
+        <v>9</v>
+      </c>
+      <c r="I366" t="n">
+        <v>6</v>
+      </c>
+      <c r="J366" t="n">
+        <v>2</v>
+      </c>
+      <c r="K366" t="n">
+        <v>5</v>
+      </c>
+      <c r="L366" t="n">
+        <v>24</v>
+      </c>
+      <c r="M366" t="n">
+        <v>28</v>
+      </c>
+      <c r="N366" t="n">
+        <v>15</v>
+      </c>
+      <c r="O366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R366" t="n">
+        <v>13</v>
+      </c>
+      <c r="S366" t="n">
+        <v>3</v>
+      </c>
+      <c r="T366" t="n">
+        <v>2</v>
+      </c>
+      <c r="U366" t="n">
+        <v>14</v>
+      </c>
+      <c r="V366" t="n">
+        <v>161</v>
+      </c>
+      <c r="W366" t="n">
+        <v>2</v>
+      </c>
+      <c r="X366" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y366" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z366" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA366" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB366" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC366" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD366" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE366" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF366" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG366" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH366" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI366" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ366" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK366" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL366" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM366" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN366" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO366" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP366" t="n">
+        <v>736</v>
+      </c>
+      <c r="AQ366" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR366" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS366" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT366" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU366" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV366" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW366" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX366" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX366"/>
+  <dimension ref="A1:AX374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55511,6 +55511,1222 @@
         <v>5</v>
       </c>
     </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>44441</v>
+      </c>
+      <c r="B367" t="n">
+        <v>14</v>
+      </c>
+      <c r="C367" t="n">
+        <v>10</v>
+      </c>
+      <c r="D367" t="n">
+        <v>5</v>
+      </c>
+      <c r="E367" t="n">
+        <v>118</v>
+      </c>
+      <c r="F367" t="n">
+        <v>43</v>
+      </c>
+      <c r="G367" t="n">
+        <v>6</v>
+      </c>
+      <c r="H367" t="n">
+        <v>14</v>
+      </c>
+      <c r="I367" t="n">
+        <v>6</v>
+      </c>
+      <c r="J367" t="n">
+        <v>5</v>
+      </c>
+      <c r="K367" t="n">
+        <v>5</v>
+      </c>
+      <c r="L367" t="n">
+        <v>24</v>
+      </c>
+      <c r="M367" t="n">
+        <v>27</v>
+      </c>
+      <c r="N367" t="n">
+        <v>10</v>
+      </c>
+      <c r="O367" t="n">
+        <v>1</v>
+      </c>
+      <c r="P367" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R367" t="n">
+        <v>15</v>
+      </c>
+      <c r="S367" t="n">
+        <v>4</v>
+      </c>
+      <c r="T367" t="n">
+        <v>1</v>
+      </c>
+      <c r="U367" t="n">
+        <v>13</v>
+      </c>
+      <c r="V367" t="n">
+        <v>176</v>
+      </c>
+      <c r="W367" t="n">
+        <v>2</v>
+      </c>
+      <c r="X367" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y367" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z367" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA367" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB367" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC367" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD367" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE367" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF367" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG367" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH367" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI367" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ367" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK367" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL367" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM367" t="n">
+        <v>39</v>
+      </c>
+      <c r="AN367" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO367" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP367" t="n">
+        <v>786</v>
+      </c>
+      <c r="AQ367" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR367" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS367" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT367" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU367" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV367" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW367" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX367" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>44442</v>
+      </c>
+      <c r="B368" t="n">
+        <v>12</v>
+      </c>
+      <c r="C368" t="n">
+        <v>10</v>
+      </c>
+      <c r="D368" t="n">
+        <v>5</v>
+      </c>
+      <c r="E368" t="n">
+        <v>112</v>
+      </c>
+      <c r="F368" t="n">
+        <v>33</v>
+      </c>
+      <c r="G368" t="n">
+        <v>8</v>
+      </c>
+      <c r="H368" t="n">
+        <v>11</v>
+      </c>
+      <c r="I368" t="n">
+        <v>7</v>
+      </c>
+      <c r="J368" t="n">
+        <v>6</v>
+      </c>
+      <c r="K368" t="n">
+        <v>5</v>
+      </c>
+      <c r="L368" t="n">
+        <v>30</v>
+      </c>
+      <c r="M368" t="n">
+        <v>29</v>
+      </c>
+      <c r="N368" t="n">
+        <v>8</v>
+      </c>
+      <c r="O368" t="n">
+        <v>1</v>
+      </c>
+      <c r="P368" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R368" t="n">
+        <v>14</v>
+      </c>
+      <c r="S368" t="n">
+        <v>4</v>
+      </c>
+      <c r="T368" t="n">
+        <v>1</v>
+      </c>
+      <c r="U368" t="n">
+        <v>19</v>
+      </c>
+      <c r="V368" t="n">
+        <v>187</v>
+      </c>
+      <c r="W368" t="n">
+        <v>4</v>
+      </c>
+      <c r="X368" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y368" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z368" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA368" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB368" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC368" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD368" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE368" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF368" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG368" t="n">
+        <v>37</v>
+      </c>
+      <c r="AH368" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI368" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ368" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK368" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL368" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM368" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN368" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO368" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP368" t="n">
+        <v>775</v>
+      </c>
+      <c r="AQ368" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR368" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS368" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT368" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU368" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV368" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW368" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX368" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>44443</v>
+      </c>
+      <c r="B369" t="n">
+        <v>16</v>
+      </c>
+      <c r="C369" t="n">
+        <v>7</v>
+      </c>
+      <c r="D369" t="n">
+        <v>5</v>
+      </c>
+      <c r="E369" t="n">
+        <v>105</v>
+      </c>
+      <c r="F369" t="n">
+        <v>35</v>
+      </c>
+      <c r="G369" t="n">
+        <v>8</v>
+      </c>
+      <c r="H369" t="n">
+        <v>10</v>
+      </c>
+      <c r="I369" t="n">
+        <v>7</v>
+      </c>
+      <c r="J369" t="n">
+        <v>6</v>
+      </c>
+      <c r="K369" t="n">
+        <v>4</v>
+      </c>
+      <c r="L369" t="n">
+        <v>32</v>
+      </c>
+      <c r="M369" t="n">
+        <v>33</v>
+      </c>
+      <c r="N369" t="n">
+        <v>9</v>
+      </c>
+      <c r="O369" t="n">
+        <v>1</v>
+      </c>
+      <c r="P369" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>0</v>
+      </c>
+      <c r="R369" t="n">
+        <v>14</v>
+      </c>
+      <c r="S369" t="n">
+        <v>3</v>
+      </c>
+      <c r="T369" t="n">
+        <v>0</v>
+      </c>
+      <c r="U369" t="n">
+        <v>22</v>
+      </c>
+      <c r="V369" t="n">
+        <v>183</v>
+      </c>
+      <c r="W369" t="n">
+        <v>6</v>
+      </c>
+      <c r="X369" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y369" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z369" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA369" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB369" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC369" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD369" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE369" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF369" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG369" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH369" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI369" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ369" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK369" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL369" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM369" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN369" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO369" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP369" t="n">
+        <v>750</v>
+      </c>
+      <c r="AQ369" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR369" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS369" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT369" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU369" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV369" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW369" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX369" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>44444</v>
+      </c>
+      <c r="B370" t="n">
+        <v>9</v>
+      </c>
+      <c r="C370" t="n">
+        <v>7</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0</v>
+      </c>
+      <c r="E370" t="n">
+        <v>103</v>
+      </c>
+      <c r="F370" t="n">
+        <v>28</v>
+      </c>
+      <c r="G370" t="n">
+        <v>8</v>
+      </c>
+      <c r="H370" t="n">
+        <v>9</v>
+      </c>
+      <c r="I370" t="n">
+        <v>6</v>
+      </c>
+      <c r="J370" t="n">
+        <v>6</v>
+      </c>
+      <c r="K370" t="n">
+        <v>3</v>
+      </c>
+      <c r="L370" t="n">
+        <v>25</v>
+      </c>
+      <c r="M370" t="n">
+        <v>26</v>
+      </c>
+      <c r="N370" t="n">
+        <v>7</v>
+      </c>
+      <c r="O370" t="n">
+        <v>1</v>
+      </c>
+      <c r="P370" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R370" t="n">
+        <v>16</v>
+      </c>
+      <c r="S370" t="n">
+        <v>3</v>
+      </c>
+      <c r="T370" t="n">
+        <v>0</v>
+      </c>
+      <c r="U370" t="n">
+        <v>18</v>
+      </c>
+      <c r="V370" t="n">
+        <v>186</v>
+      </c>
+      <c r="W370" t="n">
+        <v>6</v>
+      </c>
+      <c r="X370" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y370" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z370" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA370" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB370" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC370" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD370" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE370" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF370" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG370" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH370" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI370" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ370" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK370" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL370" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM370" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN370" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO370" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP370" t="n">
+        <v>683</v>
+      </c>
+      <c r="AQ370" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR370" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS370" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT370" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU370" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV370" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW370" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>44445</v>
+      </c>
+      <c r="B371" t="n">
+        <v>9</v>
+      </c>
+      <c r="C371" t="n">
+        <v>5</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0</v>
+      </c>
+      <c r="E371" t="n">
+        <v>76</v>
+      </c>
+      <c r="F371" t="n">
+        <v>28</v>
+      </c>
+      <c r="G371" t="n">
+        <v>9</v>
+      </c>
+      <c r="H371" t="n">
+        <v>7</v>
+      </c>
+      <c r="I371" t="n">
+        <v>7</v>
+      </c>
+      <c r="J371" t="n">
+        <v>6</v>
+      </c>
+      <c r="K371" t="n">
+        <v>4</v>
+      </c>
+      <c r="L371" t="n">
+        <v>25</v>
+      </c>
+      <c r="M371" t="n">
+        <v>25</v>
+      </c>
+      <c r="N371" t="n">
+        <v>8</v>
+      </c>
+      <c r="O371" t="n">
+        <v>1</v>
+      </c>
+      <c r="P371" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>0</v>
+      </c>
+      <c r="R371" t="n">
+        <v>13</v>
+      </c>
+      <c r="S371" t="n">
+        <v>2</v>
+      </c>
+      <c r="T371" t="n">
+        <v>0</v>
+      </c>
+      <c r="U371" t="n">
+        <v>23</v>
+      </c>
+      <c r="V371" t="n">
+        <v>215</v>
+      </c>
+      <c r="W371" t="n">
+        <v>5</v>
+      </c>
+      <c r="X371" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y371" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z371" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA371" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB371" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC371" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD371" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE371" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF371" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG371" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH371" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI371" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ371" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK371" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL371" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM371" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN371" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO371" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP371" t="n">
+        <v>666</v>
+      </c>
+      <c r="AQ371" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR371" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS371" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT371" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU371" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV371" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW371" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>44446</v>
+      </c>
+      <c r="B372" t="n">
+        <v>8</v>
+      </c>
+      <c r="C372" t="n">
+        <v>7</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0</v>
+      </c>
+      <c r="E372" t="n">
+        <v>72</v>
+      </c>
+      <c r="F372" t="n">
+        <v>31</v>
+      </c>
+      <c r="G372" t="n">
+        <v>7</v>
+      </c>
+      <c r="H372" t="n">
+        <v>6</v>
+      </c>
+      <c r="I372" t="n">
+        <v>7</v>
+      </c>
+      <c r="J372" t="n">
+        <v>4</v>
+      </c>
+      <c r="K372" t="n">
+        <v>1</v>
+      </c>
+      <c r="L372" t="n">
+        <v>18</v>
+      </c>
+      <c r="M372" t="n">
+        <v>15</v>
+      </c>
+      <c r="N372" t="n">
+        <v>8</v>
+      </c>
+      <c r="O372" t="n">
+        <v>1</v>
+      </c>
+      <c r="P372" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>0</v>
+      </c>
+      <c r="R372" t="n">
+        <v>13</v>
+      </c>
+      <c r="S372" t="n">
+        <v>2</v>
+      </c>
+      <c r="T372" t="n">
+        <v>0</v>
+      </c>
+      <c r="U372" t="n">
+        <v>24</v>
+      </c>
+      <c r="V372" t="n">
+        <v>205</v>
+      </c>
+      <c r="W372" t="n">
+        <v>5</v>
+      </c>
+      <c r="X372" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y372" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z372" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA372" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB372" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC372" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD372" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE372" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF372" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG372" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH372" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI372" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ372" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK372" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL372" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM372" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN372" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO372" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP372" t="n">
+        <v>630</v>
+      </c>
+      <c r="AQ372" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR372" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS372" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT372" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU372" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV372" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW372" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX372" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="B373" t="n">
+        <v>7</v>
+      </c>
+      <c r="C373" t="n">
+        <v>7</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0</v>
+      </c>
+      <c r="E373" t="n">
+        <v>74</v>
+      </c>
+      <c r="F373" t="n">
+        <v>32</v>
+      </c>
+      <c r="G373" t="n">
+        <v>7</v>
+      </c>
+      <c r="H373" t="n">
+        <v>9</v>
+      </c>
+      <c r="I373" t="n">
+        <v>6</v>
+      </c>
+      <c r="J373" t="n">
+        <v>4</v>
+      </c>
+      <c r="K373" t="n">
+        <v>1</v>
+      </c>
+      <c r="L373" t="n">
+        <v>18</v>
+      </c>
+      <c r="M373" t="n">
+        <v>15</v>
+      </c>
+      <c r="N373" t="n">
+        <v>8</v>
+      </c>
+      <c r="O373" t="n">
+        <v>1</v>
+      </c>
+      <c r="P373" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>0</v>
+      </c>
+      <c r="R373" t="n">
+        <v>13</v>
+      </c>
+      <c r="S373" t="n">
+        <v>2</v>
+      </c>
+      <c r="T373" t="n">
+        <v>0</v>
+      </c>
+      <c r="U373" t="n">
+        <v>25</v>
+      </c>
+      <c r="V373" t="n">
+        <v>200</v>
+      </c>
+      <c r="W373" t="n">
+        <v>6</v>
+      </c>
+      <c r="X373" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y373" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z373" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA373" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB373" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC373" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD373" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE373" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF373" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG373" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH373" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI373" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ373" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK373" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL373" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM373" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN373" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO373" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP373" t="n">
+        <v>630</v>
+      </c>
+      <c r="AQ373" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR373" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS373" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT373" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU373" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV373" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW373" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX373" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
+        <v>44448</v>
+      </c>
+      <c r="B374" t="n">
+        <v>6</v>
+      </c>
+      <c r="C374" t="n">
+        <v>6</v>
+      </c>
+      <c r="D374" t="n">
+        <v>1</v>
+      </c>
+      <c r="E374" t="n">
+        <v>70</v>
+      </c>
+      <c r="F374" t="n">
+        <v>27</v>
+      </c>
+      <c r="G374" t="n">
+        <v>7</v>
+      </c>
+      <c r="H374" t="n">
+        <v>8</v>
+      </c>
+      <c r="I374" t="n">
+        <v>7</v>
+      </c>
+      <c r="J374" t="n">
+        <v>1</v>
+      </c>
+      <c r="K374" t="n">
+        <v>1</v>
+      </c>
+      <c r="L374" t="n">
+        <v>19</v>
+      </c>
+      <c r="M374" t="n">
+        <v>13</v>
+      </c>
+      <c r="N374" t="n">
+        <v>6</v>
+      </c>
+      <c r="O374" t="n">
+        <v>0</v>
+      </c>
+      <c r="P374" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q374" t="n">
+        <v>0</v>
+      </c>
+      <c r="R374" t="n">
+        <v>9</v>
+      </c>
+      <c r="S374" t="n">
+        <v>1</v>
+      </c>
+      <c r="T374" t="n">
+        <v>2</v>
+      </c>
+      <c r="U374" t="n">
+        <v>26</v>
+      </c>
+      <c r="V374" t="n">
+        <v>196</v>
+      </c>
+      <c r="W374" t="n">
+        <v>6</v>
+      </c>
+      <c r="X374" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y374" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z374" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA374" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB374" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC374" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD374" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE374" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF374" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG374" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH374" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI374" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ374" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK374" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL374" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM374" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN374" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO374" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP374" t="n">
+        <v>608</v>
+      </c>
+      <c r="AQ374" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR374" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS374" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT374" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU374" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV374" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW374" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX374" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX374"/>
+  <dimension ref="A1:AX385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56727,6 +56727,1678 @@
         <v>5</v>
       </c>
     </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>44449</v>
+      </c>
+      <c r="B375" t="n">
+        <v>7</v>
+      </c>
+      <c r="C375" t="n">
+        <v>5</v>
+      </c>
+      <c r="D375" t="n">
+        <v>1</v>
+      </c>
+      <c r="E375" t="n">
+        <v>71</v>
+      </c>
+      <c r="F375" t="n">
+        <v>30</v>
+      </c>
+      <c r="G375" t="n">
+        <v>3</v>
+      </c>
+      <c r="H375" t="n">
+        <v>12</v>
+      </c>
+      <c r="I375" t="n">
+        <v>4</v>
+      </c>
+      <c r="J375" t="n">
+        <v>3</v>
+      </c>
+      <c r="K375" t="n">
+        <v>1</v>
+      </c>
+      <c r="L375" t="n">
+        <v>11</v>
+      </c>
+      <c r="M375" t="n">
+        <v>9</v>
+      </c>
+      <c r="N375" t="n">
+        <v>7</v>
+      </c>
+      <c r="O375" t="n">
+        <v>0</v>
+      </c>
+      <c r="P375" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q375" t="n">
+        <v>0</v>
+      </c>
+      <c r="R375" t="n">
+        <v>10</v>
+      </c>
+      <c r="S375" t="n">
+        <v>1</v>
+      </c>
+      <c r="T375" t="n">
+        <v>5</v>
+      </c>
+      <c r="U375" t="n">
+        <v>23</v>
+      </c>
+      <c r="V375" t="n">
+        <v>193</v>
+      </c>
+      <c r="W375" t="n">
+        <v>5</v>
+      </c>
+      <c r="X375" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y375" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z375" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA375" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB375" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC375" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD375" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE375" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF375" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG375" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH375" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI375" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ375" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK375" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL375" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM375" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN375" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO375" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP375" t="n">
+        <v>592</v>
+      </c>
+      <c r="AQ375" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR375" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS375" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT375" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU375" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV375" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW375" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX375" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>44450</v>
+      </c>
+      <c r="B376" t="n">
+        <v>4</v>
+      </c>
+      <c r="C376" t="n">
+        <v>5</v>
+      </c>
+      <c r="D376" t="n">
+        <v>1</v>
+      </c>
+      <c r="E376" t="n">
+        <v>81</v>
+      </c>
+      <c r="F376" t="n">
+        <v>33</v>
+      </c>
+      <c r="G376" t="n">
+        <v>3</v>
+      </c>
+      <c r="H376" t="n">
+        <v>13</v>
+      </c>
+      <c r="I376" t="n">
+        <v>4</v>
+      </c>
+      <c r="J376" t="n">
+        <v>4</v>
+      </c>
+      <c r="K376" t="n">
+        <v>1</v>
+      </c>
+      <c r="L376" t="n">
+        <v>8</v>
+      </c>
+      <c r="M376" t="n">
+        <v>5</v>
+      </c>
+      <c r="N376" t="n">
+        <v>6</v>
+      </c>
+      <c r="O376" t="n">
+        <v>0</v>
+      </c>
+      <c r="P376" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>0</v>
+      </c>
+      <c r="R376" t="n">
+        <v>9</v>
+      </c>
+      <c r="S376" t="n">
+        <v>1</v>
+      </c>
+      <c r="T376" t="n">
+        <v>5</v>
+      </c>
+      <c r="U376" t="n">
+        <v>20</v>
+      </c>
+      <c r="V376" t="n">
+        <v>191</v>
+      </c>
+      <c r="W376" t="n">
+        <v>4</v>
+      </c>
+      <c r="X376" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y376" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z376" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA376" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB376" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC376" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD376" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE376" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF376" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG376" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH376" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI376" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ376" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK376" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL376" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM376" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN376" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO376" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP376" t="n">
+        <v>608</v>
+      </c>
+      <c r="AQ376" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR376" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS376" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT376" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU376" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV376" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW376" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX376" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="n">
+        <v>44451</v>
+      </c>
+      <c r="B377" t="n">
+        <v>6</v>
+      </c>
+      <c r="C377" t="n">
+        <v>6</v>
+      </c>
+      <c r="D377" t="n">
+        <v>2</v>
+      </c>
+      <c r="E377" t="n">
+        <v>90</v>
+      </c>
+      <c r="F377" t="n">
+        <v>30</v>
+      </c>
+      <c r="G377" t="n">
+        <v>3</v>
+      </c>
+      <c r="H377" t="n">
+        <v>16</v>
+      </c>
+      <c r="I377" t="n">
+        <v>7</v>
+      </c>
+      <c r="J377" t="n">
+        <v>9</v>
+      </c>
+      <c r="K377" t="n">
+        <v>1</v>
+      </c>
+      <c r="L377" t="n">
+        <v>7</v>
+      </c>
+      <c r="M377" t="n">
+        <v>6</v>
+      </c>
+      <c r="N377" t="n">
+        <v>7</v>
+      </c>
+      <c r="O377" t="n">
+        <v>0</v>
+      </c>
+      <c r="P377" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q377" t="n">
+        <v>0</v>
+      </c>
+      <c r="R377" t="n">
+        <v>9</v>
+      </c>
+      <c r="S377" t="n">
+        <v>2</v>
+      </c>
+      <c r="T377" t="n">
+        <v>5</v>
+      </c>
+      <c r="U377" t="n">
+        <v>24</v>
+      </c>
+      <c r="V377" t="n">
+        <v>207</v>
+      </c>
+      <c r="W377" t="n">
+        <v>4</v>
+      </c>
+      <c r="X377" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y377" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z377" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA377" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB377" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC377" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD377" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE377" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF377" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG377" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH377" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI377" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ377" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK377" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL377" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM377" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN377" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO377" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP377" t="n">
+        <v>673</v>
+      </c>
+      <c r="AQ377" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR377" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS377" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT377" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU377" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV377" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW377" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX377" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>44452</v>
+      </c>
+      <c r="B378" t="n">
+        <v>5</v>
+      </c>
+      <c r="C378" t="n">
+        <v>5</v>
+      </c>
+      <c r="D378" t="n">
+        <v>2</v>
+      </c>
+      <c r="E378" t="n">
+        <v>77</v>
+      </c>
+      <c r="F378" t="n">
+        <v>27</v>
+      </c>
+      <c r="G378" t="n">
+        <v>1</v>
+      </c>
+      <c r="H378" t="n">
+        <v>20</v>
+      </c>
+      <c r="I378" t="n">
+        <v>7</v>
+      </c>
+      <c r="J378" t="n">
+        <v>9</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0</v>
+      </c>
+      <c r="L378" t="n">
+        <v>7</v>
+      </c>
+      <c r="M378" t="n">
+        <v>3</v>
+      </c>
+      <c r="N378" t="n">
+        <v>9</v>
+      </c>
+      <c r="O378" t="n">
+        <v>0</v>
+      </c>
+      <c r="P378" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q378" t="n">
+        <v>1</v>
+      </c>
+      <c r="R378" t="n">
+        <v>9</v>
+      </c>
+      <c r="S378" t="n">
+        <v>5</v>
+      </c>
+      <c r="T378" t="n">
+        <v>5</v>
+      </c>
+      <c r="U378" t="n">
+        <v>22</v>
+      </c>
+      <c r="V378" t="n">
+        <v>174</v>
+      </c>
+      <c r="W378" t="n">
+        <v>4</v>
+      </c>
+      <c r="X378" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y378" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z378" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA378" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB378" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC378" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD378" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE378" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF378" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG378" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH378" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI378" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ378" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK378" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL378" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM378" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN378" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO378" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP378" t="n">
+        <v>613</v>
+      </c>
+      <c r="AQ378" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR378" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS378" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT378" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU378" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV378" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW378" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX378" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="n">
+        <v>44453</v>
+      </c>
+      <c r="B379" t="n">
+        <v>5</v>
+      </c>
+      <c r="C379" t="n">
+        <v>4</v>
+      </c>
+      <c r="D379" t="n">
+        <v>2</v>
+      </c>
+      <c r="E379" t="n">
+        <v>74</v>
+      </c>
+      <c r="F379" t="n">
+        <v>24</v>
+      </c>
+      <c r="G379" t="n">
+        <v>3</v>
+      </c>
+      <c r="H379" t="n">
+        <v>22</v>
+      </c>
+      <c r="I379" t="n">
+        <v>5</v>
+      </c>
+      <c r="J379" t="n">
+        <v>9</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0</v>
+      </c>
+      <c r="L379" t="n">
+        <v>5</v>
+      </c>
+      <c r="M379" t="n">
+        <v>5</v>
+      </c>
+      <c r="N379" t="n">
+        <v>10</v>
+      </c>
+      <c r="O379" t="n">
+        <v>0</v>
+      </c>
+      <c r="P379" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>1</v>
+      </c>
+      <c r="R379" t="n">
+        <v>9</v>
+      </c>
+      <c r="S379" t="n">
+        <v>5</v>
+      </c>
+      <c r="T379" t="n">
+        <v>5</v>
+      </c>
+      <c r="U379" t="n">
+        <v>22</v>
+      </c>
+      <c r="V379" t="n">
+        <v>181</v>
+      </c>
+      <c r="W379" t="n">
+        <v>4</v>
+      </c>
+      <c r="X379" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y379" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z379" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA379" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB379" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC379" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD379" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE379" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF379" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG379" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH379" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI379" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ379" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK379" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL379" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM379" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN379" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO379" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP379" t="n">
+        <v>619</v>
+      </c>
+      <c r="AQ379" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR379" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS379" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT379" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU379" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV379" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW379" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX379" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="B380" t="n">
+        <v>7</v>
+      </c>
+      <c r="C380" t="n">
+        <v>4</v>
+      </c>
+      <c r="D380" t="n">
+        <v>2</v>
+      </c>
+      <c r="E380" t="n">
+        <v>71</v>
+      </c>
+      <c r="F380" t="n">
+        <v>23</v>
+      </c>
+      <c r="G380" t="n">
+        <v>4</v>
+      </c>
+      <c r="H380" t="n">
+        <v>19</v>
+      </c>
+      <c r="I380" t="n">
+        <v>5</v>
+      </c>
+      <c r="J380" t="n">
+        <v>9</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0</v>
+      </c>
+      <c r="L380" t="n">
+        <v>5</v>
+      </c>
+      <c r="M380" t="n">
+        <v>5</v>
+      </c>
+      <c r="N380" t="n">
+        <v>10</v>
+      </c>
+      <c r="O380" t="n">
+        <v>0</v>
+      </c>
+      <c r="P380" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>1</v>
+      </c>
+      <c r="R380" t="n">
+        <v>9</v>
+      </c>
+      <c r="S380" t="n">
+        <v>5</v>
+      </c>
+      <c r="T380" t="n">
+        <v>5</v>
+      </c>
+      <c r="U380" t="n">
+        <v>21</v>
+      </c>
+      <c r="V380" t="n">
+        <v>188</v>
+      </c>
+      <c r="W380" t="n">
+        <v>3</v>
+      </c>
+      <c r="X380" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y380" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z380" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA380" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB380" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC380" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD380" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE380" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF380" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG380" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH380" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI380" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ380" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK380" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL380" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM380" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN380" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO380" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP380" t="n">
+        <v>616</v>
+      </c>
+      <c r="AQ380" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR380" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS380" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT380" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU380" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV380" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW380" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX380" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="n">
+        <v>44455</v>
+      </c>
+      <c r="B381" t="n">
+        <v>7</v>
+      </c>
+      <c r="C381" t="n">
+        <v>5</v>
+      </c>
+      <c r="D381" t="n">
+        <v>2</v>
+      </c>
+      <c r="E381" t="n">
+        <v>63</v>
+      </c>
+      <c r="F381" t="n">
+        <v>28</v>
+      </c>
+      <c r="G381" t="n">
+        <v>5</v>
+      </c>
+      <c r="H381" t="n">
+        <v>17</v>
+      </c>
+      <c r="I381" t="n">
+        <v>4</v>
+      </c>
+      <c r="J381" t="n">
+        <v>10</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0</v>
+      </c>
+      <c r="L381" t="n">
+        <v>4</v>
+      </c>
+      <c r="M381" t="n">
+        <v>6</v>
+      </c>
+      <c r="N381" t="n">
+        <v>18</v>
+      </c>
+      <c r="O381" t="n">
+        <v>0</v>
+      </c>
+      <c r="P381" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>1</v>
+      </c>
+      <c r="R381" t="n">
+        <v>16</v>
+      </c>
+      <c r="S381" t="n">
+        <v>5</v>
+      </c>
+      <c r="T381" t="n">
+        <v>3</v>
+      </c>
+      <c r="U381" t="n">
+        <v>20</v>
+      </c>
+      <c r="V381" t="n">
+        <v>175</v>
+      </c>
+      <c r="W381" t="n">
+        <v>3</v>
+      </c>
+      <c r="X381" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y381" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z381" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA381" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB381" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC381" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD381" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE381" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF381" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG381" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH381" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI381" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ381" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK381" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL381" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM381" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN381" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO381" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP381" t="n">
+        <v>607</v>
+      </c>
+      <c r="AQ381" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR381" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS381" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT381" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU381" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV381" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW381" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX381" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="n">
+        <v>44456</v>
+      </c>
+      <c r="B382" t="n">
+        <v>7</v>
+      </c>
+      <c r="C382" t="n">
+        <v>6</v>
+      </c>
+      <c r="D382" t="n">
+        <v>3</v>
+      </c>
+      <c r="E382" t="n">
+        <v>59</v>
+      </c>
+      <c r="F382" t="n">
+        <v>24</v>
+      </c>
+      <c r="G382" t="n">
+        <v>5</v>
+      </c>
+      <c r="H382" t="n">
+        <v>14</v>
+      </c>
+      <c r="I382" t="n">
+        <v>6</v>
+      </c>
+      <c r="J382" t="n">
+        <v>8</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0</v>
+      </c>
+      <c r="L382" t="n">
+        <v>8</v>
+      </c>
+      <c r="M382" t="n">
+        <v>8</v>
+      </c>
+      <c r="N382" t="n">
+        <v>23</v>
+      </c>
+      <c r="O382" t="n">
+        <v>0</v>
+      </c>
+      <c r="P382" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q382" t="n">
+        <v>3</v>
+      </c>
+      <c r="R382" t="n">
+        <v>14</v>
+      </c>
+      <c r="S382" t="n">
+        <v>5</v>
+      </c>
+      <c r="T382" t="n">
+        <v>0</v>
+      </c>
+      <c r="U382" t="n">
+        <v>18</v>
+      </c>
+      <c r="V382" t="n">
+        <v>161</v>
+      </c>
+      <c r="W382" t="n">
+        <v>2</v>
+      </c>
+      <c r="X382" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y382" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z382" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA382" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB382" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC382" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD382" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE382" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF382" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG382" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH382" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI382" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ382" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK382" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL382" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM382" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN382" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO382" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP382" t="n">
+        <v>590</v>
+      </c>
+      <c r="AQ382" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR382" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS382" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT382" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU382" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV382" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW382" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX382" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="n">
+        <v>44457</v>
+      </c>
+      <c r="B383" t="n">
+        <v>6</v>
+      </c>
+      <c r="C383" t="n">
+        <v>5</v>
+      </c>
+      <c r="D383" t="n">
+        <v>3</v>
+      </c>
+      <c r="E383" t="n">
+        <v>49</v>
+      </c>
+      <c r="F383" t="n">
+        <v>23</v>
+      </c>
+      <c r="G383" t="n">
+        <v>6</v>
+      </c>
+      <c r="H383" t="n">
+        <v>19</v>
+      </c>
+      <c r="I383" t="n">
+        <v>6</v>
+      </c>
+      <c r="J383" t="n">
+        <v>7</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0</v>
+      </c>
+      <c r="L383" t="n">
+        <v>12</v>
+      </c>
+      <c r="M383" t="n">
+        <v>7</v>
+      </c>
+      <c r="N383" t="n">
+        <v>27</v>
+      </c>
+      <c r="O383" t="n">
+        <v>0</v>
+      </c>
+      <c r="P383" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q383" t="n">
+        <v>3</v>
+      </c>
+      <c r="R383" t="n">
+        <v>16</v>
+      </c>
+      <c r="S383" t="n">
+        <v>6</v>
+      </c>
+      <c r="T383" t="n">
+        <v>0</v>
+      </c>
+      <c r="U383" t="n">
+        <v>18</v>
+      </c>
+      <c r="V383" t="n">
+        <v>155</v>
+      </c>
+      <c r="W383" t="n">
+        <v>3</v>
+      </c>
+      <c r="X383" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y383" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z383" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA383" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB383" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC383" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD383" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE383" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF383" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG383" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH383" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI383" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ383" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK383" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL383" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM383" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN383" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO383" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP383" t="n">
+        <v>567</v>
+      </c>
+      <c r="AQ383" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR383" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS383" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT383" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU383" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV383" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW383" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX383" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>44458</v>
+      </c>
+      <c r="B384" t="n">
+        <v>5</v>
+      </c>
+      <c r="C384" t="n">
+        <v>5</v>
+      </c>
+      <c r="D384" t="n">
+        <v>4</v>
+      </c>
+      <c r="E384" t="n">
+        <v>41</v>
+      </c>
+      <c r="F384" t="n">
+        <v>21</v>
+      </c>
+      <c r="G384" t="n">
+        <v>7</v>
+      </c>
+      <c r="H384" t="n">
+        <v>20</v>
+      </c>
+      <c r="I384" t="n">
+        <v>4</v>
+      </c>
+      <c r="J384" t="n">
+        <v>2</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0</v>
+      </c>
+      <c r="L384" t="n">
+        <v>12</v>
+      </c>
+      <c r="M384" t="n">
+        <v>8</v>
+      </c>
+      <c r="N384" t="n">
+        <v>27</v>
+      </c>
+      <c r="O384" t="n">
+        <v>0</v>
+      </c>
+      <c r="P384" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>3</v>
+      </c>
+      <c r="R384" t="n">
+        <v>18</v>
+      </c>
+      <c r="S384" t="n">
+        <v>5</v>
+      </c>
+      <c r="T384" t="n">
+        <v>0</v>
+      </c>
+      <c r="U384" t="n">
+        <v>16</v>
+      </c>
+      <c r="V384" t="n">
+        <v>138</v>
+      </c>
+      <c r="W384" t="n">
+        <v>5</v>
+      </c>
+      <c r="X384" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y384" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z384" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA384" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB384" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC384" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD384" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE384" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF384" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG384" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH384" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI384" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ384" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK384" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL384" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM384" t="n">
+        <v>36</v>
+      </c>
+      <c r="AN384" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO384" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP384" t="n">
+        <v>521</v>
+      </c>
+      <c r="AQ384" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR384" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS384" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT384" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU384" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV384" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW384" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="n">
+        <v>44459</v>
+      </c>
+      <c r="B385" t="n">
+        <v>4</v>
+      </c>
+      <c r="C385" t="n">
+        <v>6</v>
+      </c>
+      <c r="D385" t="n">
+        <v>4</v>
+      </c>
+      <c r="E385" t="n">
+        <v>47</v>
+      </c>
+      <c r="F385" t="n">
+        <v>16</v>
+      </c>
+      <c r="G385" t="n">
+        <v>10</v>
+      </c>
+      <c r="H385" t="n">
+        <v>16</v>
+      </c>
+      <c r="I385" t="n">
+        <v>3</v>
+      </c>
+      <c r="J385" t="n">
+        <v>3</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0</v>
+      </c>
+      <c r="L385" t="n">
+        <v>13</v>
+      </c>
+      <c r="M385" t="n">
+        <v>9</v>
+      </c>
+      <c r="N385" t="n">
+        <v>24</v>
+      </c>
+      <c r="O385" t="n">
+        <v>1</v>
+      </c>
+      <c r="P385" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q385" t="n">
+        <v>2</v>
+      </c>
+      <c r="R385" t="n">
+        <v>18</v>
+      </c>
+      <c r="S385" t="n">
+        <v>2</v>
+      </c>
+      <c r="T385" t="n">
+        <v>0</v>
+      </c>
+      <c r="U385" t="n">
+        <v>16</v>
+      </c>
+      <c r="V385" t="n">
+        <v>128</v>
+      </c>
+      <c r="W385" t="n">
+        <v>4</v>
+      </c>
+      <c r="X385" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y385" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z385" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA385" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB385" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC385" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD385" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE385" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF385" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG385" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH385" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI385" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ385" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK385" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL385" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM385" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN385" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO385" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP385" t="n">
+        <v>500</v>
+      </c>
+      <c r="AQ385" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR385" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS385" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT385" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU385" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV385" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW385" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX385" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
+++ b/report_vari/nuovi_positivi_rolling7gg_comuni_MO.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX464"/>
+  <dimension ref="A1:AX491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70474,6 +70474,4110 @@
         <v>1407</v>
       </c>
     </row>
+    <row r="465">
+      <c r="A465" s="2" t="n">
+        <v>44539</v>
+      </c>
+      <c r="B465" t="n">
+        <v>3</v>
+      </c>
+      <c r="C465" t="n">
+        <v>10</v>
+      </c>
+      <c r="D465" t="n">
+        <v>20</v>
+      </c>
+      <c r="E465" t="n">
+        <v>18</v>
+      </c>
+      <c r="F465" t="n">
+        <v>186</v>
+      </c>
+      <c r="G465" t="n">
+        <v>46</v>
+      </c>
+      <c r="H465" t="n">
+        <v>39</v>
+      </c>
+      <c r="I465" t="n">
+        <v>35</v>
+      </c>
+      <c r="J465" t="n">
+        <v>24</v>
+      </c>
+      <c r="K465" t="n">
+        <v>44</v>
+      </c>
+      <c r="L465" t="n">
+        <v>9</v>
+      </c>
+      <c r="M465" t="n">
+        <v>62</v>
+      </c>
+      <c r="N465" t="n">
+        <v>26</v>
+      </c>
+      <c r="O465" t="n">
+        <v>14</v>
+      </c>
+      <c r="P465" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q465" t="n">
+        <v>0</v>
+      </c>
+      <c r="R465" t="n">
+        <v>16</v>
+      </c>
+      <c r="S465" t="n">
+        <v>2</v>
+      </c>
+      <c r="T465" t="n">
+        <v>46</v>
+      </c>
+      <c r="U465" t="n">
+        <v>16</v>
+      </c>
+      <c r="V465" t="n">
+        <v>14</v>
+      </c>
+      <c r="W465" t="n">
+        <v>86</v>
+      </c>
+      <c r="X465" t="n">
+        <v>275</v>
+      </c>
+      <c r="Y465" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z465" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA465" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB465" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC465" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD465" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE465" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF465" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG465" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH465" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI465" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ465" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK465" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL465" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM465" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN465" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO465" t="n">
+        <v>47</v>
+      </c>
+      <c r="AP465" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ465" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR465" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS465" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT465" t="n">
+        <v>21</v>
+      </c>
+      <c r="AU465" t="n">
+        <v>87</v>
+      </c>
+      <c r="AV465" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW465" t="n">
+        <v>39</v>
+      </c>
+      <c r="AX465" t="n">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="B466" t="n">
+        <v>3</v>
+      </c>
+      <c r="C466" t="n">
+        <v>11</v>
+      </c>
+      <c r="D466" t="n">
+        <v>21</v>
+      </c>
+      <c r="E466" t="n">
+        <v>16</v>
+      </c>
+      <c r="F466" t="n">
+        <v>210</v>
+      </c>
+      <c r="G466" t="n">
+        <v>41</v>
+      </c>
+      <c r="H466" t="n">
+        <v>36</v>
+      </c>
+      <c r="I466" t="n">
+        <v>31</v>
+      </c>
+      <c r="J466" t="n">
+        <v>21</v>
+      </c>
+      <c r="K466" t="n">
+        <v>34</v>
+      </c>
+      <c r="L466" t="n">
+        <v>7</v>
+      </c>
+      <c r="M466" t="n">
+        <v>62</v>
+      </c>
+      <c r="N466" t="n">
+        <v>33</v>
+      </c>
+      <c r="O466" t="n">
+        <v>12</v>
+      </c>
+      <c r="P466" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q466" t="n">
+        <v>0</v>
+      </c>
+      <c r="R466" t="n">
+        <v>19</v>
+      </c>
+      <c r="S466" t="n">
+        <v>1</v>
+      </c>
+      <c r="T466" t="n">
+        <v>56</v>
+      </c>
+      <c r="U466" t="n">
+        <v>33</v>
+      </c>
+      <c r="V466" t="n">
+        <v>14</v>
+      </c>
+      <c r="W466" t="n">
+        <v>56</v>
+      </c>
+      <c r="X466" t="n">
+        <v>280</v>
+      </c>
+      <c r="Y466" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z466" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA466" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB466" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC466" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD466" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE466" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF466" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG466" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH466" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI466" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ466" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK466" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL466" t="n">
+        <v>33</v>
+      </c>
+      <c r="AM466" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN466" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO466" t="n">
+        <v>54</v>
+      </c>
+      <c r="AP466" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ466" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR466" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS466" t="n">
+        <v>28</v>
+      </c>
+      <c r="AT466" t="n">
+        <v>29</v>
+      </c>
+      <c r="AU466" t="n">
+        <v>96</v>
+      </c>
+      <c r="AV466" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW466" t="n">
+        <v>43</v>
+      </c>
+      <c r="AX466" t="n">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
+        <v>44541</v>
+      </c>
+      <c r="B467" t="n">
+        <v>3</v>
+      </c>
+      <c r="C467" t="n">
+        <v>10</v>
+      </c>
+      <c r="D467" t="n">
+        <v>17</v>
+      </c>
+      <c r="E467" t="n">
+        <v>16</v>
+      </c>
+      <c r="F467" t="n">
+        <v>192</v>
+      </c>
+      <c r="G467" t="n">
+        <v>39</v>
+      </c>
+      <c r="H467" t="n">
+        <v>32</v>
+      </c>
+      <c r="I467" t="n">
+        <v>25</v>
+      </c>
+      <c r="J467" t="n">
+        <v>20</v>
+      </c>
+      <c r="K467" t="n">
+        <v>38</v>
+      </c>
+      <c r="L467" t="n">
+        <v>7</v>
+      </c>
+      <c r="M467" t="n">
+        <v>66</v>
+      </c>
+      <c r="N467" t="n">
+        <v>30</v>
+      </c>
+      <c r="O467" t="n">
+        <v>12</v>
+      </c>
+      <c r="P467" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q467" t="n">
+        <v>0</v>
+      </c>
+      <c r="R467" t="n">
+        <v>21</v>
+      </c>
+      <c r="S467" t="n">
+        <v>1</v>
+      </c>
+      <c r="T467" t="n">
+        <v>54</v>
+      </c>
+      <c r="U467" t="n">
+        <v>30</v>
+      </c>
+      <c r="V467" t="n">
+        <v>20</v>
+      </c>
+      <c r="W467" t="n">
+        <v>63</v>
+      </c>
+      <c r="X467" t="n">
+        <v>247</v>
+      </c>
+      <c r="Y467" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z467" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA467" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB467" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC467" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD467" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE467" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF467" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG467" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH467" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI467" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ467" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK467" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL467" t="n">
+        <v>33</v>
+      </c>
+      <c r="AM467" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN467" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO467" t="n">
+        <v>49</v>
+      </c>
+      <c r="AP467" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ467" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR467" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS467" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT467" t="n">
+        <v>28</v>
+      </c>
+      <c r="AU467" t="n">
+        <v>90</v>
+      </c>
+      <c r="AV467" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW467" t="n">
+        <v>32</v>
+      </c>
+      <c r="AX467" t="n">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="n">
+        <v>44542</v>
+      </c>
+      <c r="B468" t="n">
+        <v>7</v>
+      </c>
+      <c r="C468" t="n">
+        <v>16</v>
+      </c>
+      <c r="D468" t="n">
+        <v>22</v>
+      </c>
+      <c r="E468" t="n">
+        <v>11</v>
+      </c>
+      <c r="F468" t="n">
+        <v>202</v>
+      </c>
+      <c r="G468" t="n">
+        <v>42</v>
+      </c>
+      <c r="H468" t="n">
+        <v>28</v>
+      </c>
+      <c r="I468" t="n">
+        <v>27</v>
+      </c>
+      <c r="J468" t="n">
+        <v>18</v>
+      </c>
+      <c r="K468" t="n">
+        <v>48</v>
+      </c>
+      <c r="L468" t="n">
+        <v>7</v>
+      </c>
+      <c r="M468" t="n">
+        <v>53</v>
+      </c>
+      <c r="N468" t="n">
+        <v>39</v>
+      </c>
+      <c r="O468" t="n">
+        <v>21</v>
+      </c>
+      <c r="P468" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q468" t="n">
+        <v>0</v>
+      </c>
+      <c r="R468" t="n">
+        <v>17</v>
+      </c>
+      <c r="S468" t="n">
+        <v>1</v>
+      </c>
+      <c r="T468" t="n">
+        <v>66</v>
+      </c>
+      <c r="U468" t="n">
+        <v>35</v>
+      </c>
+      <c r="V468" t="n">
+        <v>18</v>
+      </c>
+      <c r="W468" t="n">
+        <v>72</v>
+      </c>
+      <c r="X468" t="n">
+        <v>299</v>
+      </c>
+      <c r="Y468" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z468" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA468" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB468" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC468" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD468" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE468" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF468" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG468" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH468" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI468" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ468" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK468" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL468" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM468" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN468" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO468" t="n">
+        <v>55</v>
+      </c>
+      <c r="AP468" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ468" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR468" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS468" t="n">
+        <v>29</v>
+      </c>
+      <c r="AT468" t="n">
+        <v>26</v>
+      </c>
+      <c r="AU468" t="n">
+        <v>90</v>
+      </c>
+      <c r="AV468" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW468" t="n">
+        <v>43</v>
+      </c>
+      <c r="AX468" t="n">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2" t="n">
+        <v>44543</v>
+      </c>
+      <c r="B469" t="n">
+        <v>6</v>
+      </c>
+      <c r="C469" t="n">
+        <v>19</v>
+      </c>
+      <c r="D469" t="n">
+        <v>25</v>
+      </c>
+      <c r="E469" t="n">
+        <v>13</v>
+      </c>
+      <c r="F469" t="n">
+        <v>204</v>
+      </c>
+      <c r="G469" t="n">
+        <v>34</v>
+      </c>
+      <c r="H469" t="n">
+        <v>28</v>
+      </c>
+      <c r="I469" t="n">
+        <v>29</v>
+      </c>
+      <c r="J469" t="n">
+        <v>20</v>
+      </c>
+      <c r="K469" t="n">
+        <v>51</v>
+      </c>
+      <c r="L469" t="n">
+        <v>10</v>
+      </c>
+      <c r="M469" t="n">
+        <v>59</v>
+      </c>
+      <c r="N469" t="n">
+        <v>46</v>
+      </c>
+      <c r="O469" t="n">
+        <v>24</v>
+      </c>
+      <c r="P469" t="n">
+        <v>71</v>
+      </c>
+      <c r="Q469" t="n">
+        <v>0</v>
+      </c>
+      <c r="R469" t="n">
+        <v>20</v>
+      </c>
+      <c r="S469" t="n">
+        <v>1</v>
+      </c>
+      <c r="T469" t="n">
+        <v>68</v>
+      </c>
+      <c r="U469" t="n">
+        <v>42</v>
+      </c>
+      <c r="V469" t="n">
+        <v>20</v>
+      </c>
+      <c r="W469" t="n">
+        <v>85</v>
+      </c>
+      <c r="X469" t="n">
+        <v>313</v>
+      </c>
+      <c r="Y469" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z469" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA469" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB469" t="n">
+        <v>33</v>
+      </c>
+      <c r="AC469" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD469" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE469" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF469" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG469" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH469" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI469" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ469" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK469" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL469" t="n">
+        <v>33</v>
+      </c>
+      <c r="AM469" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN469" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO469" t="n">
+        <v>59</v>
+      </c>
+      <c r="AP469" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ469" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR469" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS469" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT469" t="n">
+        <v>30</v>
+      </c>
+      <c r="AU469" t="n">
+        <v>95</v>
+      </c>
+      <c r="AV469" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW469" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX469" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="B470" t="n">
+        <v>6</v>
+      </c>
+      <c r="C470" t="n">
+        <v>24</v>
+      </c>
+      <c r="D470" t="n">
+        <v>26</v>
+      </c>
+      <c r="E470" t="n">
+        <v>11</v>
+      </c>
+      <c r="F470" t="n">
+        <v>234</v>
+      </c>
+      <c r="G470" t="n">
+        <v>35</v>
+      </c>
+      <c r="H470" t="n">
+        <v>25</v>
+      </c>
+      <c r="I470" t="n">
+        <v>24</v>
+      </c>
+      <c r="J470" t="n">
+        <v>16</v>
+      </c>
+      <c r="K470" t="n">
+        <v>40</v>
+      </c>
+      <c r="L470" t="n">
+        <v>7</v>
+      </c>
+      <c r="M470" t="n">
+        <v>57</v>
+      </c>
+      <c r="N470" t="n">
+        <v>53</v>
+      </c>
+      <c r="O470" t="n">
+        <v>24</v>
+      </c>
+      <c r="P470" t="n">
+        <v>76</v>
+      </c>
+      <c r="Q470" t="n">
+        <v>1</v>
+      </c>
+      <c r="R470" t="n">
+        <v>16</v>
+      </c>
+      <c r="S470" t="n">
+        <v>1</v>
+      </c>
+      <c r="T470" t="n">
+        <v>67</v>
+      </c>
+      <c r="U470" t="n">
+        <v>50</v>
+      </c>
+      <c r="V470" t="n">
+        <v>16</v>
+      </c>
+      <c r="W470" t="n">
+        <v>75</v>
+      </c>
+      <c r="X470" t="n">
+        <v>316</v>
+      </c>
+      <c r="Y470" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z470" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA470" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB470" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC470" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD470" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE470" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF470" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG470" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH470" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI470" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ470" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK470" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL470" t="n">
+        <v>31</v>
+      </c>
+      <c r="AM470" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN470" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO470" t="n">
+        <v>70</v>
+      </c>
+      <c r="AP470" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ470" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR470" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS470" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT470" t="n">
+        <v>27</v>
+      </c>
+      <c r="AU470" t="n">
+        <v>101</v>
+      </c>
+      <c r="AV470" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW470" t="n">
+        <v>57</v>
+      </c>
+      <c r="AX470" t="n">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="B471" t="n">
+        <v>6</v>
+      </c>
+      <c r="C471" t="n">
+        <v>23</v>
+      </c>
+      <c r="D471" t="n">
+        <v>25</v>
+      </c>
+      <c r="E471" t="n">
+        <v>10</v>
+      </c>
+      <c r="F471" t="n">
+        <v>232</v>
+      </c>
+      <c r="G471" t="n">
+        <v>32</v>
+      </c>
+      <c r="H471" t="n">
+        <v>23</v>
+      </c>
+      <c r="I471" t="n">
+        <v>23</v>
+      </c>
+      <c r="J471" t="n">
+        <v>16</v>
+      </c>
+      <c r="K471" t="n">
+        <v>40</v>
+      </c>
+      <c r="L471" t="n">
+        <v>8</v>
+      </c>
+      <c r="M471" t="n">
+        <v>56</v>
+      </c>
+      <c r="N471" t="n">
+        <v>52</v>
+      </c>
+      <c r="O471" t="n">
+        <v>23</v>
+      </c>
+      <c r="P471" t="n">
+        <v>76</v>
+      </c>
+      <c r="Q471" t="n">
+        <v>1</v>
+      </c>
+      <c r="R471" t="n">
+        <v>15</v>
+      </c>
+      <c r="S471" t="n">
+        <v>0</v>
+      </c>
+      <c r="T471" t="n">
+        <v>65</v>
+      </c>
+      <c r="U471" t="n">
+        <v>49</v>
+      </c>
+      <c r="V471" t="n">
+        <v>16</v>
+      </c>
+      <c r="W471" t="n">
+        <v>77</v>
+      </c>
+      <c r="X471" t="n">
+        <v>320</v>
+      </c>
+      <c r="Y471" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z471" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA471" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB471" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC471" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD471" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE471" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF471" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG471" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH471" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI471" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ471" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK471" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL471" t="n">
+        <v>31</v>
+      </c>
+      <c r="AM471" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN471" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO471" t="n">
+        <v>72</v>
+      </c>
+      <c r="AP471" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ471" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR471" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS471" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT471" t="n">
+        <v>26</v>
+      </c>
+      <c r="AU471" t="n">
+        <v>95</v>
+      </c>
+      <c r="AV471" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW471" t="n">
+        <v>60</v>
+      </c>
+      <c r="AX471" t="n">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="n">
+        <v>44546</v>
+      </c>
+      <c r="B472" t="n">
+        <v>9</v>
+      </c>
+      <c r="C472" t="n">
+        <v>31</v>
+      </c>
+      <c r="D472" t="n">
+        <v>30</v>
+      </c>
+      <c r="E472" t="n">
+        <v>6</v>
+      </c>
+      <c r="F472" t="n">
+        <v>186</v>
+      </c>
+      <c r="G472" t="n">
+        <v>30</v>
+      </c>
+      <c r="H472" t="n">
+        <v>26</v>
+      </c>
+      <c r="I472" t="n">
+        <v>29</v>
+      </c>
+      <c r="J472" t="n">
+        <v>14</v>
+      </c>
+      <c r="K472" t="n">
+        <v>44</v>
+      </c>
+      <c r="L472" t="n">
+        <v>11</v>
+      </c>
+      <c r="M472" t="n">
+        <v>55</v>
+      </c>
+      <c r="N472" t="n">
+        <v>45</v>
+      </c>
+      <c r="O472" t="n">
+        <v>20</v>
+      </c>
+      <c r="P472" t="n">
+        <v>83</v>
+      </c>
+      <c r="Q472" t="n">
+        <v>1</v>
+      </c>
+      <c r="R472" t="n">
+        <v>12</v>
+      </c>
+      <c r="S472" t="n">
+        <v>0</v>
+      </c>
+      <c r="T472" t="n">
+        <v>59</v>
+      </c>
+      <c r="U472" t="n">
+        <v>53</v>
+      </c>
+      <c r="V472" t="n">
+        <v>14</v>
+      </c>
+      <c r="W472" t="n">
+        <v>73</v>
+      </c>
+      <c r="X472" t="n">
+        <v>316</v>
+      </c>
+      <c r="Y472" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z472" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA472" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB472" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC472" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD472" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE472" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF472" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG472" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH472" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI472" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ472" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK472" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL472" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM472" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN472" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO472" t="n">
+        <v>83</v>
+      </c>
+      <c r="AP472" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ472" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR472" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS472" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT472" t="n">
+        <v>27</v>
+      </c>
+      <c r="AU472" t="n">
+        <v>96</v>
+      </c>
+      <c r="AV472" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW472" t="n">
+        <v>67</v>
+      </c>
+      <c r="AX472" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="n">
+        <v>44547</v>
+      </c>
+      <c r="B473" t="n">
+        <v>9</v>
+      </c>
+      <c r="C473" t="n">
+        <v>35</v>
+      </c>
+      <c r="D473" t="n">
+        <v>30</v>
+      </c>
+      <c r="E473" t="n">
+        <v>5</v>
+      </c>
+      <c r="F473" t="n">
+        <v>195</v>
+      </c>
+      <c r="G473" t="n">
+        <v>38</v>
+      </c>
+      <c r="H473" t="n">
+        <v>38</v>
+      </c>
+      <c r="I473" t="n">
+        <v>36</v>
+      </c>
+      <c r="J473" t="n">
+        <v>14</v>
+      </c>
+      <c r="K473" t="n">
+        <v>43</v>
+      </c>
+      <c r="L473" t="n">
+        <v>12</v>
+      </c>
+      <c r="M473" t="n">
+        <v>44</v>
+      </c>
+      <c r="N473" t="n">
+        <v>41</v>
+      </c>
+      <c r="O473" t="n">
+        <v>19</v>
+      </c>
+      <c r="P473" t="n">
+        <v>78</v>
+      </c>
+      <c r="Q473" t="n">
+        <v>1</v>
+      </c>
+      <c r="R473" t="n">
+        <v>16</v>
+      </c>
+      <c r="S473" t="n">
+        <v>0</v>
+      </c>
+      <c r="T473" t="n">
+        <v>64</v>
+      </c>
+      <c r="U473" t="n">
+        <v>37</v>
+      </c>
+      <c r="V473" t="n">
+        <v>13</v>
+      </c>
+      <c r="W473" t="n">
+        <v>74</v>
+      </c>
+      <c r="X473" t="n">
+        <v>329</v>
+      </c>
+      <c r="Y473" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z473" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA473" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB473" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC473" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD473" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE473" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF473" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG473" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH473" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI473" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ473" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK473" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL473" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM473" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN473" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO473" t="n">
+        <v>92</v>
+      </c>
+      <c r="AP473" t="n">
+        <v>47</v>
+      </c>
+      <c r="AQ473" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR473" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS473" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT473" t="n">
+        <v>32</v>
+      </c>
+      <c r="AU473" t="n">
+        <v>96</v>
+      </c>
+      <c r="AV473" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW473" t="n">
+        <v>66</v>
+      </c>
+      <c r="AX473" t="n">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2" t="n">
+        <v>44548</v>
+      </c>
+      <c r="B474" t="n">
+        <v>10</v>
+      </c>
+      <c r="C474" t="n">
+        <v>39</v>
+      </c>
+      <c r="D474" t="n">
+        <v>30</v>
+      </c>
+      <c r="E474" t="n">
+        <v>7</v>
+      </c>
+      <c r="F474" t="n">
+        <v>210</v>
+      </c>
+      <c r="G474" t="n">
+        <v>48</v>
+      </c>
+      <c r="H474" t="n">
+        <v>38</v>
+      </c>
+      <c r="I474" t="n">
+        <v>37</v>
+      </c>
+      <c r="J474" t="n">
+        <v>18</v>
+      </c>
+      <c r="K474" t="n">
+        <v>53</v>
+      </c>
+      <c r="L474" t="n">
+        <v>15</v>
+      </c>
+      <c r="M474" t="n">
+        <v>45</v>
+      </c>
+      <c r="N474" t="n">
+        <v>51</v>
+      </c>
+      <c r="O474" t="n">
+        <v>20</v>
+      </c>
+      <c r="P474" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q474" t="n">
+        <v>3</v>
+      </c>
+      <c r="R474" t="n">
+        <v>14</v>
+      </c>
+      <c r="S474" t="n">
+        <v>0</v>
+      </c>
+      <c r="T474" t="n">
+        <v>75</v>
+      </c>
+      <c r="U474" t="n">
+        <v>36</v>
+      </c>
+      <c r="V474" t="n">
+        <v>8</v>
+      </c>
+      <c r="W474" t="n">
+        <v>77</v>
+      </c>
+      <c r="X474" t="n">
+        <v>403</v>
+      </c>
+      <c r="Y474" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z474" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA474" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB474" t="n">
+        <v>56</v>
+      </c>
+      <c r="AC474" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD474" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE474" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF474" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG474" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH474" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI474" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ474" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK474" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL474" t="n">
+        <v>31</v>
+      </c>
+      <c r="AM474" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN474" t="n">
+        <v>37</v>
+      </c>
+      <c r="AO474" t="n">
+        <v>108</v>
+      </c>
+      <c r="AP474" t="n">
+        <v>52</v>
+      </c>
+      <c r="AQ474" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR474" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS474" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT474" t="n">
+        <v>37</v>
+      </c>
+      <c r="AU474" t="n">
+        <v>98</v>
+      </c>
+      <c r="AV474" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW474" t="n">
+        <v>76</v>
+      </c>
+      <c r="AX474" t="n">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2" t="n">
+        <v>44550</v>
+      </c>
+      <c r="B475" t="n">
+        <v>8</v>
+      </c>
+      <c r="C475" t="n">
+        <v>42</v>
+      </c>
+      <c r="D475" t="n">
+        <v>33</v>
+      </c>
+      <c r="E475" t="n">
+        <v>4</v>
+      </c>
+      <c r="F475" t="n">
+        <v>218</v>
+      </c>
+      <c r="G475" t="n">
+        <v>53</v>
+      </c>
+      <c r="H475" t="n">
+        <v>46</v>
+      </c>
+      <c r="I475" t="n">
+        <v>43</v>
+      </c>
+      <c r="J475" t="n">
+        <v>20</v>
+      </c>
+      <c r="K475" t="n">
+        <v>44</v>
+      </c>
+      <c r="L475" t="n">
+        <v>18</v>
+      </c>
+      <c r="M475" t="n">
+        <v>45</v>
+      </c>
+      <c r="N475" t="n">
+        <v>52</v>
+      </c>
+      <c r="O475" t="n">
+        <v>8</v>
+      </c>
+      <c r="P475" t="n">
+        <v>82</v>
+      </c>
+      <c r="Q475" t="n">
+        <v>4</v>
+      </c>
+      <c r="R475" t="n">
+        <v>14</v>
+      </c>
+      <c r="S475" t="n">
+        <v>3</v>
+      </c>
+      <c r="T475" t="n">
+        <v>70</v>
+      </c>
+      <c r="U475" t="n">
+        <v>33</v>
+      </c>
+      <c r="V475" t="n">
+        <v>13</v>
+      </c>
+      <c r="W475" t="n">
+        <v>71</v>
+      </c>
+      <c r="X475" t="n">
+        <v>410</v>
+      </c>
+      <c r="Y475" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z475" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA475" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB475" t="n">
+        <v>59</v>
+      </c>
+      <c r="AC475" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD475" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE475" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF475" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG475" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH475" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI475" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ475" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK475" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL475" t="n">
+        <v>31</v>
+      </c>
+      <c r="AM475" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN475" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO475" t="n">
+        <v>126</v>
+      </c>
+      <c r="AP475" t="n">
+        <v>52</v>
+      </c>
+      <c r="AQ475" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR475" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS475" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT475" t="n">
+        <v>39</v>
+      </c>
+      <c r="AU475" t="n">
+        <v>95</v>
+      </c>
+      <c r="AV475" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW475" t="n">
+        <v>76</v>
+      </c>
+      <c r="AX475" t="n">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="n">
+        <v>44551</v>
+      </c>
+      <c r="B476" t="n">
+        <v>9</v>
+      </c>
+      <c r="C476" t="n">
+        <v>40</v>
+      </c>
+      <c r="D476" t="n">
+        <v>32</v>
+      </c>
+      <c r="E476" t="n">
+        <v>4</v>
+      </c>
+      <c r="F476" t="n">
+        <v>242</v>
+      </c>
+      <c r="G476" t="n">
+        <v>61</v>
+      </c>
+      <c r="H476" t="n">
+        <v>53</v>
+      </c>
+      <c r="I476" t="n">
+        <v>40</v>
+      </c>
+      <c r="J476" t="n">
+        <v>20</v>
+      </c>
+      <c r="K476" t="n">
+        <v>39</v>
+      </c>
+      <c r="L476" t="n">
+        <v>16</v>
+      </c>
+      <c r="M476" t="n">
+        <v>39</v>
+      </c>
+      <c r="N476" t="n">
+        <v>46</v>
+      </c>
+      <c r="O476" t="n">
+        <v>5</v>
+      </c>
+      <c r="P476" t="n">
+        <v>94</v>
+      </c>
+      <c r="Q476" t="n">
+        <v>4</v>
+      </c>
+      <c r="R476" t="n">
+        <v>13</v>
+      </c>
+      <c r="S476" t="n">
+        <v>4</v>
+      </c>
+      <c r="T476" t="n">
+        <v>67</v>
+      </c>
+      <c r="U476" t="n">
+        <v>29</v>
+      </c>
+      <c r="V476" t="n">
+        <v>9</v>
+      </c>
+      <c r="W476" t="n">
+        <v>63</v>
+      </c>
+      <c r="X476" t="n">
+        <v>452</v>
+      </c>
+      <c r="Y476" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z476" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA476" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB476" t="n">
+        <v>74</v>
+      </c>
+      <c r="AC476" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD476" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE476" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF476" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG476" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH476" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI476" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ476" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK476" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL476" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM476" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN476" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO476" t="n">
+        <v>143</v>
+      </c>
+      <c r="AP476" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ476" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR476" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS476" t="n">
+        <v>32</v>
+      </c>
+      <c r="AT476" t="n">
+        <v>38</v>
+      </c>
+      <c r="AU476" t="n">
+        <v>80</v>
+      </c>
+      <c r="AV476" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW476" t="n">
+        <v>80</v>
+      </c>
+      <c r="AX476" t="n">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="B477" t="n">
+        <v>10</v>
+      </c>
+      <c r="C477" t="n">
+        <v>37</v>
+      </c>
+      <c r="D477" t="n">
+        <v>29</v>
+      </c>
+      <c r="E477" t="n">
+        <v>4</v>
+      </c>
+      <c r="F477" t="n">
+        <v>212</v>
+      </c>
+      <c r="G477" t="n">
+        <v>62</v>
+      </c>
+      <c r="H477" t="n">
+        <v>50</v>
+      </c>
+      <c r="I477" t="n">
+        <v>38</v>
+      </c>
+      <c r="J477" t="n">
+        <v>18</v>
+      </c>
+      <c r="K477" t="n">
+        <v>34</v>
+      </c>
+      <c r="L477" t="n">
+        <v>16</v>
+      </c>
+      <c r="M477" t="n">
+        <v>37</v>
+      </c>
+      <c r="N477" t="n">
+        <v>40</v>
+      </c>
+      <c r="O477" t="n">
+        <v>5</v>
+      </c>
+      <c r="P477" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q477" t="n">
+        <v>3</v>
+      </c>
+      <c r="R477" t="n">
+        <v>13</v>
+      </c>
+      <c r="S477" t="n">
+        <v>5</v>
+      </c>
+      <c r="T477" t="n">
+        <v>60</v>
+      </c>
+      <c r="U477" t="n">
+        <v>21</v>
+      </c>
+      <c r="V477" t="n">
+        <v>9</v>
+      </c>
+      <c r="W477" t="n">
+        <v>54</v>
+      </c>
+      <c r="X477" t="n">
+        <v>443</v>
+      </c>
+      <c r="Y477" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z477" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA477" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB477" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC477" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD477" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE477" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF477" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG477" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH477" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI477" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ477" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK477" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL477" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM477" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN477" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO477" t="n">
+        <v>133</v>
+      </c>
+      <c r="AP477" t="n">
+        <v>52</v>
+      </c>
+      <c r="AQ477" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR477" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS477" t="n">
+        <v>29</v>
+      </c>
+      <c r="AT477" t="n">
+        <v>36</v>
+      </c>
+      <c r="AU477" t="n">
+        <v>68</v>
+      </c>
+      <c r="AV477" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW477" t="n">
+        <v>78</v>
+      </c>
+      <c r="AX477" t="n">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="n">
+        <v>44553</v>
+      </c>
+      <c r="B478" t="n">
+        <v>10</v>
+      </c>
+      <c r="C478" t="n">
+        <v>43</v>
+      </c>
+      <c r="D478" t="n">
+        <v>36</v>
+      </c>
+      <c r="E478" t="n">
+        <v>5</v>
+      </c>
+      <c r="F478" t="n">
+        <v>242</v>
+      </c>
+      <c r="G478" t="n">
+        <v>66</v>
+      </c>
+      <c r="H478" t="n">
+        <v>63</v>
+      </c>
+      <c r="I478" t="n">
+        <v>52</v>
+      </c>
+      <c r="J478" t="n">
+        <v>20</v>
+      </c>
+      <c r="K478" t="n">
+        <v>38</v>
+      </c>
+      <c r="L478" t="n">
+        <v>17</v>
+      </c>
+      <c r="M478" t="n">
+        <v>41</v>
+      </c>
+      <c r="N478" t="n">
+        <v>52</v>
+      </c>
+      <c r="O478" t="n">
+        <v>5</v>
+      </c>
+      <c r="P478" t="n">
+        <v>112</v>
+      </c>
+      <c r="Q478" t="n">
+        <v>3</v>
+      </c>
+      <c r="R478" t="n">
+        <v>17</v>
+      </c>
+      <c r="S478" t="n">
+        <v>5</v>
+      </c>
+      <c r="T478" t="n">
+        <v>70</v>
+      </c>
+      <c r="U478" t="n">
+        <v>27</v>
+      </c>
+      <c r="V478" t="n">
+        <v>11</v>
+      </c>
+      <c r="W478" t="n">
+        <v>68</v>
+      </c>
+      <c r="X478" t="n">
+        <v>580</v>
+      </c>
+      <c r="Y478" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z478" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA478" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB478" t="n">
+        <v>71</v>
+      </c>
+      <c r="AC478" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD478" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE478" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF478" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG478" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH478" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI478" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ478" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK478" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL478" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM478" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN478" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO478" t="n">
+        <v>163</v>
+      </c>
+      <c r="AP478" t="n">
+        <v>61</v>
+      </c>
+      <c r="AQ478" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR478" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS478" t="n">
+        <v>33</v>
+      </c>
+      <c r="AT478" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU478" t="n">
+        <v>76</v>
+      </c>
+      <c r="AV478" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW478" t="n">
+        <v>95</v>
+      </c>
+      <c r="AX478" t="n">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="B479" t="n">
+        <v>11</v>
+      </c>
+      <c r="C479" t="n">
+        <v>41</v>
+      </c>
+      <c r="D479" t="n">
+        <v>28</v>
+      </c>
+      <c r="E479" t="n">
+        <v>5</v>
+      </c>
+      <c r="F479" t="n">
+        <v>233</v>
+      </c>
+      <c r="G479" t="n">
+        <v>77</v>
+      </c>
+      <c r="H479" t="n">
+        <v>56</v>
+      </c>
+      <c r="I479" t="n">
+        <v>53</v>
+      </c>
+      <c r="J479" t="n">
+        <v>18</v>
+      </c>
+      <c r="K479" t="n">
+        <v>30</v>
+      </c>
+      <c r="L479" t="n">
+        <v>17</v>
+      </c>
+      <c r="M479" t="n">
+        <v>37</v>
+      </c>
+      <c r="N479" t="n">
+        <v>58</v>
+      </c>
+      <c r="O479" t="n">
+        <v>5</v>
+      </c>
+      <c r="P479" t="n">
+        <v>114</v>
+      </c>
+      <c r="Q479" t="n">
+        <v>4</v>
+      </c>
+      <c r="R479" t="n">
+        <v>20</v>
+      </c>
+      <c r="S479" t="n">
+        <v>5</v>
+      </c>
+      <c r="T479" t="n">
+        <v>67</v>
+      </c>
+      <c r="U479" t="n">
+        <v>24</v>
+      </c>
+      <c r="V479" t="n">
+        <v>11</v>
+      </c>
+      <c r="W479" t="n">
+        <v>59</v>
+      </c>
+      <c r="X479" t="n">
+        <v>607</v>
+      </c>
+      <c r="Y479" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z479" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA479" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB479" t="n">
+        <v>73</v>
+      </c>
+      <c r="AC479" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD479" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE479" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF479" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG479" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH479" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI479" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ479" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK479" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL479" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM479" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN479" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO479" t="n">
+        <v>178</v>
+      </c>
+      <c r="AP479" t="n">
+        <v>49</v>
+      </c>
+      <c r="AQ479" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR479" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS479" t="n">
+        <v>32</v>
+      </c>
+      <c r="AT479" t="n">
+        <v>50</v>
+      </c>
+      <c r="AU479" t="n">
+        <v>82</v>
+      </c>
+      <c r="AV479" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW479" t="n">
+        <v>108</v>
+      </c>
+      <c r="AX479" t="n">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="n">
+        <v>44555</v>
+      </c>
+      <c r="B480" t="n">
+        <v>15</v>
+      </c>
+      <c r="C480" t="n">
+        <v>53</v>
+      </c>
+      <c r="D480" t="n">
+        <v>24</v>
+      </c>
+      <c r="E480" t="n">
+        <v>12</v>
+      </c>
+      <c r="F480" t="n">
+        <v>238</v>
+      </c>
+      <c r="G480" t="n">
+        <v>84</v>
+      </c>
+      <c r="H480" t="n">
+        <v>61</v>
+      </c>
+      <c r="I480" t="n">
+        <v>58</v>
+      </c>
+      <c r="J480" t="n">
+        <v>16</v>
+      </c>
+      <c r="K480" t="n">
+        <v>32</v>
+      </c>
+      <c r="L480" t="n">
+        <v>15</v>
+      </c>
+      <c r="M480" t="n">
+        <v>41</v>
+      </c>
+      <c r="N480" t="n">
+        <v>80</v>
+      </c>
+      <c r="O480" t="n">
+        <v>5</v>
+      </c>
+      <c r="P480" t="n">
+        <v>165</v>
+      </c>
+      <c r="Q480" t="n">
+        <v>5</v>
+      </c>
+      <c r="R480" t="n">
+        <v>16</v>
+      </c>
+      <c r="S480" t="n">
+        <v>6</v>
+      </c>
+      <c r="T480" t="n">
+        <v>63</v>
+      </c>
+      <c r="U480" t="n">
+        <v>26</v>
+      </c>
+      <c r="V480" t="n">
+        <v>11</v>
+      </c>
+      <c r="W480" t="n">
+        <v>59</v>
+      </c>
+      <c r="X480" t="n">
+        <v>641</v>
+      </c>
+      <c r="Y480" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z480" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA480" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB480" t="n">
+        <v>77</v>
+      </c>
+      <c r="AC480" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD480" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE480" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF480" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG480" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH480" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI480" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ480" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK480" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL480" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM480" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN480" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO480" t="n">
+        <v>189</v>
+      </c>
+      <c r="AP480" t="n">
+        <v>39</v>
+      </c>
+      <c r="AQ480" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR480" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS480" t="n">
+        <v>39</v>
+      </c>
+      <c r="AT480" t="n">
+        <v>42</v>
+      </c>
+      <c r="AU480" t="n">
+        <v>74</v>
+      </c>
+      <c r="AV480" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW480" t="n">
+        <v>121</v>
+      </c>
+      <c r="AX480" t="n">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2" t="n">
+        <v>44556</v>
+      </c>
+      <c r="B481" t="n">
+        <v>14</v>
+      </c>
+      <c r="C481" t="n">
+        <v>53</v>
+      </c>
+      <c r="D481" t="n">
+        <v>29</v>
+      </c>
+      <c r="E481" t="n">
+        <v>14</v>
+      </c>
+      <c r="F481" t="n">
+        <v>235</v>
+      </c>
+      <c r="G481" t="n">
+        <v>75</v>
+      </c>
+      <c r="H481" t="n">
+        <v>76</v>
+      </c>
+      <c r="I481" t="n">
+        <v>72</v>
+      </c>
+      <c r="J481" t="n">
+        <v>14</v>
+      </c>
+      <c r="K481" t="n">
+        <v>20</v>
+      </c>
+      <c r="L481" t="n">
+        <v>14</v>
+      </c>
+      <c r="M481" t="n">
+        <v>43</v>
+      </c>
+      <c r="N481" t="n">
+        <v>85</v>
+      </c>
+      <c r="O481" t="n">
+        <v>5</v>
+      </c>
+      <c r="P481" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q481" t="n">
+        <v>6</v>
+      </c>
+      <c r="R481" t="n">
+        <v>21</v>
+      </c>
+      <c r="S481" t="n">
+        <v>9</v>
+      </c>
+      <c r="T481" t="n">
+        <v>64</v>
+      </c>
+      <c r="U481" t="n">
+        <v>31</v>
+      </c>
+      <c r="V481" t="n">
+        <v>16</v>
+      </c>
+      <c r="W481" t="n">
+        <v>67</v>
+      </c>
+      <c r="X481" t="n">
+        <v>695</v>
+      </c>
+      <c r="Y481" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z481" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA481" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB481" t="n">
+        <v>75</v>
+      </c>
+      <c r="AC481" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD481" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE481" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF481" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG481" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH481" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI481" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ481" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK481" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL481" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM481" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN481" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO481" t="n">
+        <v>219</v>
+      </c>
+      <c r="AP481" t="n">
+        <v>44</v>
+      </c>
+      <c r="AQ481" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR481" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS481" t="n">
+        <v>42</v>
+      </c>
+      <c r="AT481" t="n">
+        <v>40</v>
+      </c>
+      <c r="AU481" t="n">
+        <v>90</v>
+      </c>
+      <c r="AV481" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW481" t="n">
+        <v>132</v>
+      </c>
+      <c r="AX481" t="n">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="n">
+        <v>44557</v>
+      </c>
+      <c r="B482" t="n">
+        <v>17</v>
+      </c>
+      <c r="C482" t="n">
+        <v>55</v>
+      </c>
+      <c r="D482" t="n">
+        <v>28</v>
+      </c>
+      <c r="E482" t="n">
+        <v>18</v>
+      </c>
+      <c r="F482" t="n">
+        <v>265</v>
+      </c>
+      <c r="G482" t="n">
+        <v>108</v>
+      </c>
+      <c r="H482" t="n">
+        <v>85</v>
+      </c>
+      <c r="I482" t="n">
+        <v>66</v>
+      </c>
+      <c r="J482" t="n">
+        <v>11</v>
+      </c>
+      <c r="K482" t="n">
+        <v>19</v>
+      </c>
+      <c r="L482" t="n">
+        <v>15</v>
+      </c>
+      <c r="M482" t="n">
+        <v>54</v>
+      </c>
+      <c r="N482" t="n">
+        <v>97</v>
+      </c>
+      <c r="O482" t="n">
+        <v>5</v>
+      </c>
+      <c r="P482" t="n">
+        <v>232</v>
+      </c>
+      <c r="Q482" t="n">
+        <v>9</v>
+      </c>
+      <c r="R482" t="n">
+        <v>21</v>
+      </c>
+      <c r="S482" t="n">
+        <v>14</v>
+      </c>
+      <c r="T482" t="n">
+        <v>89</v>
+      </c>
+      <c r="U482" t="n">
+        <v>31</v>
+      </c>
+      <c r="V482" t="n">
+        <v>17</v>
+      </c>
+      <c r="W482" t="n">
+        <v>81</v>
+      </c>
+      <c r="X482" t="n">
+        <v>785</v>
+      </c>
+      <c r="Y482" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z482" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA482" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB482" t="n">
+        <v>82</v>
+      </c>
+      <c r="AC482" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD482" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE482" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF482" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG482" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH482" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI482" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ482" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK482" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL482" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM482" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN482" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO482" t="n">
+        <v>231</v>
+      </c>
+      <c r="AP482" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ482" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR482" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS482" t="n">
+        <v>40</v>
+      </c>
+      <c r="AT482" t="n">
+        <v>42</v>
+      </c>
+      <c r="AU482" t="n">
+        <v>88</v>
+      </c>
+      <c r="AV482" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW482" t="n">
+        <v>137</v>
+      </c>
+      <c r="AX482" t="n">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="n">
+        <v>44558</v>
+      </c>
+      <c r="B483" t="n">
+        <v>19</v>
+      </c>
+      <c r="C483" t="n">
+        <v>59</v>
+      </c>
+      <c r="D483" t="n">
+        <v>31</v>
+      </c>
+      <c r="E483" t="n">
+        <v>26</v>
+      </c>
+      <c r="F483" t="n">
+        <v>275</v>
+      </c>
+      <c r="G483" t="n">
+        <v>113</v>
+      </c>
+      <c r="H483" t="n">
+        <v>78</v>
+      </c>
+      <c r="I483" t="n">
+        <v>62</v>
+      </c>
+      <c r="J483" t="n">
+        <v>13</v>
+      </c>
+      <c r="K483" t="n">
+        <v>20</v>
+      </c>
+      <c r="L483" t="n">
+        <v>23</v>
+      </c>
+      <c r="M483" t="n">
+        <v>74</v>
+      </c>
+      <c r="N483" t="n">
+        <v>97</v>
+      </c>
+      <c r="O483" t="n">
+        <v>4</v>
+      </c>
+      <c r="P483" t="n">
+        <v>223</v>
+      </c>
+      <c r="Q483" t="n">
+        <v>12</v>
+      </c>
+      <c r="R483" t="n">
+        <v>18</v>
+      </c>
+      <c r="S483" t="n">
+        <v>17</v>
+      </c>
+      <c r="T483" t="n">
+        <v>86</v>
+      </c>
+      <c r="U483" t="n">
+        <v>27</v>
+      </c>
+      <c r="V483" t="n">
+        <v>28</v>
+      </c>
+      <c r="W483" t="n">
+        <v>109</v>
+      </c>
+      <c r="X483" t="n">
+        <v>858</v>
+      </c>
+      <c r="Y483" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z483" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA483" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB483" t="n">
+        <v>69</v>
+      </c>
+      <c r="AC483" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD483" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE483" t="n">
+        <v>33</v>
+      </c>
+      <c r="AF483" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG483" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH483" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI483" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ483" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK483" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL483" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM483" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN483" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO483" t="n">
+        <v>216</v>
+      </c>
+      <c r="AP483" t="n">
+        <v>45</v>
+      </c>
+      <c r="AQ483" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR483" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS483" t="n">
+        <v>52</v>
+      </c>
+      <c r="AT483" t="n">
+        <v>37</v>
+      </c>
+      <c r="AU483" t="n">
+        <v>85</v>
+      </c>
+      <c r="AV483" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW483" t="n">
+        <v>152</v>
+      </c>
+      <c r="AX483" t="n">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="n">
+        <v>44559</v>
+      </c>
+      <c r="B484" t="n">
+        <v>19</v>
+      </c>
+      <c r="C484" t="n">
+        <v>62</v>
+      </c>
+      <c r="D484" t="n">
+        <v>51</v>
+      </c>
+      <c r="E484" t="n">
+        <v>27</v>
+      </c>
+      <c r="F484" t="n">
+        <v>349</v>
+      </c>
+      <c r="G484" t="n">
+        <v>127</v>
+      </c>
+      <c r="H484" t="n">
+        <v>84</v>
+      </c>
+      <c r="I484" t="n">
+        <v>68</v>
+      </c>
+      <c r="J484" t="n">
+        <v>14</v>
+      </c>
+      <c r="K484" t="n">
+        <v>21</v>
+      </c>
+      <c r="L484" t="n">
+        <v>32</v>
+      </c>
+      <c r="M484" t="n">
+        <v>84</v>
+      </c>
+      <c r="N484" t="n">
+        <v>107</v>
+      </c>
+      <c r="O484" t="n">
+        <v>5</v>
+      </c>
+      <c r="P484" t="n">
+        <v>276</v>
+      </c>
+      <c r="Q484" t="n">
+        <v>16</v>
+      </c>
+      <c r="R484" t="n">
+        <v>17</v>
+      </c>
+      <c r="S484" t="n">
+        <v>19</v>
+      </c>
+      <c r="T484" t="n">
+        <v>94</v>
+      </c>
+      <c r="U484" t="n">
+        <v>27</v>
+      </c>
+      <c r="V484" t="n">
+        <v>30</v>
+      </c>
+      <c r="W484" t="n">
+        <v>122</v>
+      </c>
+      <c r="X484" t="n">
+        <v>1099</v>
+      </c>
+      <c r="Y484" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z484" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA484" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB484" t="n">
+        <v>76</v>
+      </c>
+      <c r="AC484" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD484" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE484" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF484" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG484" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH484" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI484" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ484" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK484" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL484" t="n">
+        <v>47</v>
+      </c>
+      <c r="AM484" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN484" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO484" t="n">
+        <v>247</v>
+      </c>
+      <c r="AP484" t="n">
+        <v>47</v>
+      </c>
+      <c r="AQ484" t="n">
+        <v>43</v>
+      </c>
+      <c r="AR484" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS484" t="n">
+        <v>82</v>
+      </c>
+      <c r="AT484" t="n">
+        <v>41</v>
+      </c>
+      <c r="AU484" t="n">
+        <v>94</v>
+      </c>
+      <c r="AV484" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW484" t="n">
+        <v>183</v>
+      </c>
+      <c r="AX484" t="n">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
+        <v>44560</v>
+      </c>
+      <c r="B485" t="n">
+        <v>23</v>
+      </c>
+      <c r="C485" t="n">
+        <v>60</v>
+      </c>
+      <c r="D485" t="n">
+        <v>54</v>
+      </c>
+      <c r="E485" t="n">
+        <v>29</v>
+      </c>
+      <c r="F485" t="n">
+        <v>339</v>
+      </c>
+      <c r="G485" t="n">
+        <v>137</v>
+      </c>
+      <c r="H485" t="n">
+        <v>112</v>
+      </c>
+      <c r="I485" t="n">
+        <v>81</v>
+      </c>
+      <c r="J485" t="n">
+        <v>14</v>
+      </c>
+      <c r="K485" t="n">
+        <v>19</v>
+      </c>
+      <c r="L485" t="n">
+        <v>30</v>
+      </c>
+      <c r="M485" t="n">
+        <v>90</v>
+      </c>
+      <c r="N485" t="n">
+        <v>120</v>
+      </c>
+      <c r="O485" t="n">
+        <v>5</v>
+      </c>
+      <c r="P485" t="n">
+        <v>358</v>
+      </c>
+      <c r="Q485" t="n">
+        <v>21</v>
+      </c>
+      <c r="R485" t="n">
+        <v>16</v>
+      </c>
+      <c r="S485" t="n">
+        <v>24</v>
+      </c>
+      <c r="T485" t="n">
+        <v>108</v>
+      </c>
+      <c r="U485" t="n">
+        <v>28</v>
+      </c>
+      <c r="V485" t="n">
+        <v>30</v>
+      </c>
+      <c r="W485" t="n">
+        <v>120</v>
+      </c>
+      <c r="X485" t="n">
+        <v>1348</v>
+      </c>
+      <c r="Y485" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z485" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA485" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB485" t="n">
+        <v>83</v>
+      </c>
+      <c r="AC485" t="n">
+        <v>37</v>
+      </c>
+      <c r="AD485" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE485" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF485" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG485" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH485" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI485" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ485" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK485" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL485" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM485" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN485" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO485" t="n">
+        <v>301</v>
+      </c>
+      <c r="AP485" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ485" t="n">
+        <v>49</v>
+      </c>
+      <c r="AR485" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS485" t="n">
+        <v>88</v>
+      </c>
+      <c r="AT485" t="n">
+        <v>55</v>
+      </c>
+      <c r="AU485" t="n">
+        <v>119</v>
+      </c>
+      <c r="AV485" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW485" t="n">
+        <v>229</v>
+      </c>
+      <c r="AX485" t="n">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B486" t="n">
+        <v>24</v>
+      </c>
+      <c r="C486" t="n">
+        <v>64</v>
+      </c>
+      <c r="D486" t="n">
+        <v>58</v>
+      </c>
+      <c r="E486" t="n">
+        <v>37</v>
+      </c>
+      <c r="F486" t="n">
+        <v>380</v>
+      </c>
+      <c r="G486" t="n">
+        <v>167</v>
+      </c>
+      <c r="H486" t="n">
+        <v>138</v>
+      </c>
+      <c r="I486" t="n">
+        <v>100</v>
+      </c>
+      <c r="J486" t="n">
+        <v>23</v>
+      </c>
+      <c r="K486" t="n">
+        <v>26</v>
+      </c>
+      <c r="L486" t="n">
+        <v>28</v>
+      </c>
+      <c r="M486" t="n">
+        <v>120</v>
+      </c>
+      <c r="N486" t="n">
+        <v>189</v>
+      </c>
+      <c r="O486" t="n">
+        <v>2</v>
+      </c>
+      <c r="P486" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q486" t="n">
+        <v>27</v>
+      </c>
+      <c r="R486" t="n">
+        <v>18</v>
+      </c>
+      <c r="S486" t="n">
+        <v>27</v>
+      </c>
+      <c r="T486" t="n">
+        <v>166</v>
+      </c>
+      <c r="U486" t="n">
+        <v>32</v>
+      </c>
+      <c r="V486" t="n">
+        <v>36</v>
+      </c>
+      <c r="W486" t="n">
+        <v>148</v>
+      </c>
+      <c r="X486" t="n">
+        <v>1410</v>
+      </c>
+      <c r="Y486" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z486" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA486" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB486" t="n">
+        <v>105</v>
+      </c>
+      <c r="AC486" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD486" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE486" t="n">
+        <v>61</v>
+      </c>
+      <c r="AF486" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG486" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH486" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI486" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ486" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK486" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL486" t="n">
+        <v>63</v>
+      </c>
+      <c r="AM486" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN486" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO486" t="n">
+        <v>407</v>
+      </c>
+      <c r="AP486" t="n">
+        <v>62</v>
+      </c>
+      <c r="AQ486" t="n">
+        <v>54</v>
+      </c>
+      <c r="AR486" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS486" t="n">
+        <v>104</v>
+      </c>
+      <c r="AT486" t="n">
+        <v>62</v>
+      </c>
+      <c r="AU486" t="n">
+        <v>127</v>
+      </c>
+      <c r="AV486" t="n">
+        <v>27</v>
+      </c>
+      <c r="AW486" t="n">
+        <v>288</v>
+      </c>
+      <c r="AX486" t="n">
+        <v>5358</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B487" t="n">
+        <v>33</v>
+      </c>
+      <c r="C487" t="n">
+        <v>68</v>
+      </c>
+      <c r="D487" t="n">
+        <v>61</v>
+      </c>
+      <c r="E487" t="n">
+        <v>31</v>
+      </c>
+      <c r="F487" t="n">
+        <v>348</v>
+      </c>
+      <c r="G487" t="n">
+        <v>205</v>
+      </c>
+      <c r="H487" t="n">
+        <v>161</v>
+      </c>
+      <c r="I487" t="n">
+        <v>111</v>
+      </c>
+      <c r="J487" t="n">
+        <v>25</v>
+      </c>
+      <c r="K487" t="n">
+        <v>24</v>
+      </c>
+      <c r="L487" t="n">
+        <v>45</v>
+      </c>
+      <c r="M487" t="n">
+        <v>129</v>
+      </c>
+      <c r="N487" t="n">
+        <v>199</v>
+      </c>
+      <c r="O487" t="n">
+        <v>3</v>
+      </c>
+      <c r="P487" t="n">
+        <v>518</v>
+      </c>
+      <c r="Q487" t="n">
+        <v>31</v>
+      </c>
+      <c r="R487" t="n">
+        <v>20</v>
+      </c>
+      <c r="S487" t="n">
+        <v>40</v>
+      </c>
+      <c r="T487" t="n">
+        <v>195</v>
+      </c>
+      <c r="U487" t="n">
+        <v>39</v>
+      </c>
+      <c r="V487" t="n">
+        <v>37</v>
+      </c>
+      <c r="W487" t="n">
+        <v>159</v>
+      </c>
+      <c r="X487" t="n">
+        <v>1498</v>
+      </c>
+      <c r="Y487" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z487" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA487" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB487" t="n">
+        <v>114</v>
+      </c>
+      <c r="AC487" t="n">
+        <v>39</v>
+      </c>
+      <c r="AD487" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE487" t="n">
+        <v>93</v>
+      </c>
+      <c r="AF487" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG487" t="n">
+        <v>42</v>
+      </c>
+      <c r="AH487" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI487" t="n">
+        <v>58</v>
+      </c>
+      <c r="AJ487" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK487" t="n">
+        <v>33</v>
+      </c>
+      <c r="AL487" t="n">
+        <v>71</v>
+      </c>
+      <c r="AM487" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN487" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO487" t="n">
+        <v>477</v>
+      </c>
+      <c r="AP487" t="n">
+        <v>71</v>
+      </c>
+      <c r="AQ487" t="n">
+        <v>77</v>
+      </c>
+      <c r="AR487" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS487" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT487" t="n">
+        <v>76</v>
+      </c>
+      <c r="AU487" t="n">
+        <v>161</v>
+      </c>
+      <c r="AV487" t="n">
+        <v>31</v>
+      </c>
+      <c r="AW487" t="n">
+        <v>316</v>
+      </c>
+      <c r="AX487" t="n">
+        <v>5912</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="n">
+        <v>44563</v>
+      </c>
+      <c r="B488" t="n">
+        <v>34</v>
+      </c>
+      <c r="C488" t="n">
+        <v>70</v>
+      </c>
+      <c r="D488" t="n">
+        <v>86</v>
+      </c>
+      <c r="E488" t="n">
+        <v>38</v>
+      </c>
+      <c r="F488" t="n">
+        <v>495</v>
+      </c>
+      <c r="G488" t="n">
+        <v>210</v>
+      </c>
+      <c r="H488" t="n">
+        <v>172</v>
+      </c>
+      <c r="I488" t="n">
+        <v>108</v>
+      </c>
+      <c r="J488" t="n">
+        <v>32</v>
+      </c>
+      <c r="K488" t="n">
+        <v>32</v>
+      </c>
+      <c r="L488" t="n">
+        <v>44</v>
+      </c>
+      <c r="M488" t="n">
+        <v>140</v>
+      </c>
+      <c r="N488" t="n">
+        <v>200</v>
+      </c>
+      <c r="O488" t="n">
+        <v>3</v>
+      </c>
+      <c r="P488" t="n">
+        <v>507</v>
+      </c>
+      <c r="Q488" t="n">
+        <v>29</v>
+      </c>
+      <c r="R488" t="n">
+        <v>18</v>
+      </c>
+      <c r="S488" t="n">
+        <v>41</v>
+      </c>
+      <c r="T488" t="n">
+        <v>208</v>
+      </c>
+      <c r="U488" t="n">
+        <v>37</v>
+      </c>
+      <c r="V488" t="n">
+        <v>48</v>
+      </c>
+      <c r="W488" t="n">
+        <v>187</v>
+      </c>
+      <c r="X488" t="n">
+        <v>1589</v>
+      </c>
+      <c r="Y488" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z488" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA488" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB488" t="n">
+        <v>118</v>
+      </c>
+      <c r="AC488" t="n">
+        <v>58</v>
+      </c>
+      <c r="AD488" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE488" t="n">
+        <v>87</v>
+      </c>
+      <c r="AF488" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG488" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH488" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI488" t="n">
+        <v>61</v>
+      </c>
+      <c r="AJ488" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK488" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL488" t="n">
+        <v>79</v>
+      </c>
+      <c r="AM488" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN488" t="n">
+        <v>43</v>
+      </c>
+      <c r="AO488" t="n">
+        <v>452</v>
+      </c>
+      <c r="AP488" t="n">
+        <v>68</v>
+      </c>
+      <c r="AQ488" t="n">
+        <v>77</v>
+      </c>
+      <c r="AR488" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS488" t="n">
+        <v>113</v>
+      </c>
+      <c r="AT488" t="n">
+        <v>91</v>
+      </c>
+      <c r="AU488" t="n">
+        <v>179</v>
+      </c>
+      <c r="AV488" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW488" t="n">
+        <v>333</v>
+      </c>
+      <c r="AX488" t="n">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>44564</v>
+      </c>
+      <c r="B489" t="n">
+        <v>37</v>
+      </c>
+      <c r="C489" t="n">
+        <v>84</v>
+      </c>
+      <c r="D489" t="n">
+        <v>107</v>
+      </c>
+      <c r="E489" t="n">
+        <v>51</v>
+      </c>
+      <c r="F489" t="n">
+        <v>597</v>
+      </c>
+      <c r="G489" t="n">
+        <v>234</v>
+      </c>
+      <c r="H489" t="n">
+        <v>175</v>
+      </c>
+      <c r="I489" t="n">
+        <v>119</v>
+      </c>
+      <c r="J489" t="n">
+        <v>37</v>
+      </c>
+      <c r="K489" t="n">
+        <v>40</v>
+      </c>
+      <c r="L489" t="n">
+        <v>46</v>
+      </c>
+      <c r="M489" t="n">
+        <v>148</v>
+      </c>
+      <c r="N489" t="n">
+        <v>185</v>
+      </c>
+      <c r="O489" t="n">
+        <v>3</v>
+      </c>
+      <c r="P489" t="n">
+        <v>493</v>
+      </c>
+      <c r="Q489" t="n">
+        <v>25</v>
+      </c>
+      <c r="R489" t="n">
+        <v>19</v>
+      </c>
+      <c r="S489" t="n">
+        <v>35</v>
+      </c>
+      <c r="T489" t="n">
+        <v>200</v>
+      </c>
+      <c r="U489" t="n">
+        <v>39</v>
+      </c>
+      <c r="V489" t="n">
+        <v>59</v>
+      </c>
+      <c r="W489" t="n">
+        <v>208</v>
+      </c>
+      <c r="X489" t="n">
+        <v>1757</v>
+      </c>
+      <c r="Y489" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z489" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA489" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB489" t="n">
+        <v>121</v>
+      </c>
+      <c r="AC489" t="n">
+        <v>66</v>
+      </c>
+      <c r="AD489" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE489" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF489" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG489" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH489" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI489" t="n">
+        <v>68</v>
+      </c>
+      <c r="AJ489" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK489" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL489" t="n">
+        <v>89</v>
+      </c>
+      <c r="AM489" t="n">
+        <v>31</v>
+      </c>
+      <c r="AN489" t="n">
+        <v>57</v>
+      </c>
+      <c r="AO489" t="n">
+        <v>431</v>
+      </c>
+      <c r="AP489" t="n">
+        <v>58</v>
+      </c>
+      <c r="AQ489" t="n">
+        <v>74</v>
+      </c>
+      <c r="AR489" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS489" t="n">
+        <v>146</v>
+      </c>
+      <c r="AT489" t="n">
+        <v>94</v>
+      </c>
+      <c r="AU489" t="n">
+        <v>180</v>
+      </c>
+      <c r="AV489" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW489" t="n">
+        <v>353</v>
+      </c>
+      <c r="AX489" t="n">
+        <v>5853</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
+        <v>44565</v>
+      </c>
+      <c r="B490" t="n">
+        <v>39</v>
+      </c>
+      <c r="C490" t="n">
+        <v>86</v>
+      </c>
+      <c r="D490" t="n">
+        <v>109</v>
+      </c>
+      <c r="E490" t="n">
+        <v>47</v>
+      </c>
+      <c r="F490" t="n">
+        <v>582</v>
+      </c>
+      <c r="G490" t="n">
+        <v>238</v>
+      </c>
+      <c r="H490" t="n">
+        <v>178</v>
+      </c>
+      <c r="I490" t="n">
+        <v>127</v>
+      </c>
+      <c r="J490" t="n">
+        <v>37</v>
+      </c>
+      <c r="K490" t="n">
+        <v>39</v>
+      </c>
+      <c r="L490" t="n">
+        <v>40</v>
+      </c>
+      <c r="M490" t="n">
+        <v>133</v>
+      </c>
+      <c r="N490" t="n">
+        <v>184</v>
+      </c>
+      <c r="O490" t="n">
+        <v>3</v>
+      </c>
+      <c r="P490" t="n">
+        <v>490</v>
+      </c>
+      <c r="Q490" t="n">
+        <v>23</v>
+      </c>
+      <c r="R490" t="n">
+        <v>20</v>
+      </c>
+      <c r="S490" t="n">
+        <v>33</v>
+      </c>
+      <c r="T490" t="n">
+        <v>201</v>
+      </c>
+      <c r="U490" t="n">
+        <v>41</v>
+      </c>
+      <c r="V490" t="n">
+        <v>51</v>
+      </c>
+      <c r="W490" t="n">
+        <v>191</v>
+      </c>
+      <c r="X490" t="n">
+        <v>1870</v>
+      </c>
+      <c r="Y490" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z490" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA490" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB490" t="n">
+        <v>140</v>
+      </c>
+      <c r="AC490" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD490" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE490" t="n">
+        <v>112</v>
+      </c>
+      <c r="AF490" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG490" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH490" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI490" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ490" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK490" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL490" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM490" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN490" t="n">
+        <v>54</v>
+      </c>
+      <c r="AO490" t="n">
+        <v>427</v>
+      </c>
+      <c r="AP490" t="n">
+        <v>61</v>
+      </c>
+      <c r="AQ490" t="n">
+        <v>79</v>
+      </c>
+      <c r="AR490" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS490" t="n">
+        <v>144</v>
+      </c>
+      <c r="AT490" t="n">
+        <v>95</v>
+      </c>
+      <c r="AU490" t="n">
+        <v>186</v>
+      </c>
+      <c r="AV490" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW490" t="n">
+        <v>350</v>
+      </c>
+      <c r="AX490" t="n">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="B491" t="n">
+        <v>45</v>
+      </c>
+      <c r="C491" t="n">
+        <v>104</v>
+      </c>
+      <c r="D491" t="n">
+        <v>100</v>
+      </c>
+      <c r="E491" t="n">
+        <v>55</v>
+      </c>
+      <c r="F491" t="n">
+        <v>567</v>
+      </c>
+      <c r="G491" t="n">
+        <v>284</v>
+      </c>
+      <c r="H491" t="n">
+        <v>194</v>
+      </c>
+      <c r="I491" t="n">
+        <v>136</v>
+      </c>
+      <c r="J491" t="n">
+        <v>47</v>
+      </c>
+      <c r="K491" t="n">
+        <v>58</v>
+      </c>
+      <c r="L491" t="n">
+        <v>36</v>
+      </c>
+      <c r="M491" t="n">
+        <v>153</v>
+      </c>
+      <c r="N491" t="n">
+        <v>187</v>
+      </c>
+      <c r="O491" t="n">
+        <v>3</v>
+      </c>
+      <c r="P491" t="n">
+        <v>464</v>
+      </c>
+      <c r="Q491" t="n">
+        <v>20</v>
+      </c>
+      <c r="R491" t="n">
+        <v>23</v>
+      </c>
+      <c r="S491" t="n">
+        <v>35</v>
+      </c>
+      <c r="T491" t="n">
+        <v>200</v>
+      </c>
+      <c r="U491" t="n">
+        <v>48</v>
+      </c>
+      <c r="V491" t="n">
+        <v>66</v>
+      </c>
+      <c r="W491" t="n">
+        <v>210</v>
+      </c>
+      <c r="X491" t="n">
+        <v>2110</v>
+      </c>
+      <c r="Y491" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z491" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA491" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB491" t="n">
+        <v>157</v>
+      </c>
+      <c r="AC491" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD491" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE491" t="n">
+        <v>131</v>
+      </c>
+      <c r="AF491" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG491" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH491" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI491" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ491" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK491" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL491" t="n">
+        <v>98</v>
+      </c>
+      <c r="AM491" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN491" t="n">
+        <v>66</v>
+      </c>
+      <c r="AO491" t="n">
+        <v>418</v>
+      </c>
+      <c r="AP491" t="n">
+        <v>64</v>
+      </c>
+      <c r="AQ491" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR491" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS491" t="n">
+        <v>131</v>
+      </c>
+      <c r="AT491" t="n">
+        <v>107</v>
+      </c>
+      <c r="AU491" t="n">
+        <v>203</v>
+      </c>
+      <c r="AV491" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW491" t="n">
+        <v>358</v>
+      </c>
+      <c r="AX491" t="n">
+        <v>6443</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
